--- a/FOREX/data/FOREX_3Q.xlsx
+++ b/FOREX/data/FOREX_3Q.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="654">
   <si>
     <t xml:space="preserve"> Monetary and Financial Statistics by Indicator</t>
   </si>
@@ -128,6 +128,9 @@
     <t>2021Q4</t>
   </si>
   <si>
+    <t>2022Q1</t>
+  </si>
+  <si>
     <t>Afghanistan, Islamic Rep. of</t>
   </si>
   <si>
@@ -143,6 +146,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Albania</t>
   </si>
   <si>
@@ -392,201 +398,429 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Cabo Verde</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Central African Rep.</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>China, P.R.: Hong Kong</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>China, P.R.: Macao</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>China, P.R.: Mainland</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Cambodia</t>
+    <t>Comoros, Union of the</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Cameroon</t>
+    <t>Congo, Dem. Rep. of the</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Canada</t>
+    <t>Congo, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Cayman Islands</t>
+    <t>Costa Rica</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Central African Rep.</t>
+    <t>Côte d'Ivoire</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Chad</t>
+    <t>Croatia, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Chile</t>
+    <t>Curaçao and Sint Maarten</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>China, P.R.: Hong Kong</t>
+    <t>Curaçao, Kingdom of the Netherlands</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>China, P.R.: Macao</t>
+    <t>Czech Rep.</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>China, P.R.: Mainland</t>
+    <t>Denmark</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Colombia</t>
+    <t>Djibouti</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Comoros, Union of the</t>
+    <t>Dominica</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Congo, Dem. Rep. of the</t>
+    <t>Dominican Rep.</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Congo, Rep. of</t>
+    <t>Ecuador</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Costa Rica</t>
+    <t>Egypt, Arab Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Côte d'Ivoire</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Croatia, Rep. of</t>
+    <t>Equatorial Guinea, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Curaçao and Sint Maarten</t>
+    <t>Eritrea, The State of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Curaçao, Kingdom of the Netherlands</t>
+    <t>Eswatini, Kingdom of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Czech Rep.</t>
+    <t>Ethiopia, The Federal Dem. Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Denmark</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Euro Area</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Djibouti</t>
+    <t>Faroe Islands</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Dominica</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Fiji, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Dominican Rep.</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>French Polynesia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Ecuador</t>
+    <t>Gabon</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Egypt, Arab Rep. of</t>
+    <t>Gambia, The</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>El Salvador</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Georgia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Equatorial Guinea, Rep. of</t>
+    <t>Ghana</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Eritrea, The State of</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Eswatini, Kingdom of</t>
+    <t>Greenland</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Ethiopia, The Federal Dem. Rep. of</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Grenada</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Guernsey</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
@@ -596,13 +830,16 @@
     <t>...</t>
   </si>
   <si>
-    <t>Euro Area</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Faroe Islands</t>
+    <t>Guyana</t>
   </si>
   <si>
     <t>Units</t>
@@ -611,12 +848,78 @@
     <t>...</t>
   </si>
   <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Iran, Islamic Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
+    <t>Isle of Man</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
@@ -626,6 +929,90 @@
     <t>...</t>
   </si>
   <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Jersey</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Kazakhstan, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Korea, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Kosovo, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Kyrgyz Rep.</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Lao People's Dem. Rep.</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Lesotho, Kingdom of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
@@ -635,6 +1022,12 @@
     <t>...</t>
   </si>
   <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
@@ -653,6 +1046,12 @@
     <t>...</t>
   </si>
   <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
@@ -662,37 +1061,121 @@
     <t>...</t>
   </si>
   <si>
-    <t>Fiji, Rep. of</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Madagascar, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>French Polynesia</t>
+    <t>Malawi</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Gabon</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Gambia, The</t>
+    <t>Maldives</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Georgia</t>
+    <t>Mali</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Ghana</t>
+    <t>Mauritania, Islamic Rep. of</t>
   </si>
   <si>
     <t>Units</t>
@@ -701,18 +1184,75 @@
     <t>...</t>
   </si>
   <si>
-    <t>Gibraltar</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Greenland</t>
+    <t>Mexico</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Micronesia, Federated States of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Moldova, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Mozambique, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
@@ -725,24 +1265,180 @@
     <t>...</t>
   </si>
   <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Nauru, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
+    <t>New Caledonia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
     <t>...</t>
   </si>
   <si>
+    <t>North Macedonia, Republic of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Palau, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Poland, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>San Marino, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>São Tomé and Príncipe, Dem. Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
@@ -758,34 +1454,64 @@
     <t>...</t>
   </si>
   <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Serbia, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
     <t>...</t>
   </si>
   <si>
-    <t>Grenada</t>
+    <t>Singapore</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Guatemala</t>
+    <t>Sint Maarten, Kingdom of the Netherlands</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Guernsey</t>
+    <t>Solomon Islands</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Guinea</t>
+    <t>Somalia</t>
   </si>
   <si>
     <t>Units</t>
@@ -800,991 +1526,370 @@
     <t>...</t>
   </si>
   <si>
-    <t>Guinea-Bissau</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>South Africa</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Guyana</t>
+    <t>South Sudan, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Haiti</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Honduras</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>St. Kitts and Nevis</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Hungary</t>
+    <t>St. Lucia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Iceland</t>
+    <t>St. Vincent and the Grenadines</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>India</t>
+    <t>Sudan</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Indonesia</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Suriname</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Iran, Islamic Rep. of</t>
+    <t>Sweden</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Iraq</t>
+    <t>Switzerland</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Syrian Arab Rep.</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Isle of Man</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Taiwan Province of China</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Israel</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Tajikistan, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Jamaica</t>
+    <t>Tanzania, United Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Timor-Leste, Dem. Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Uzbekistan, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Japan</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Venezuela, Rep. Bolivariana de</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Jersey</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Jordan</t>
+    <t>Yemen, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Kazakhstan, Rep. of</t>
+    <t>Zambia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Kenya</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Kiribati</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Korea, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Kosovo, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Kuwait</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Kyrgyz Rep.</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Lao People's Dem. Rep.</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
     <t>...</t>
-  </si>
-  <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Lesotho, Kingdom of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Liberia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Libya</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Lithuania</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Madagascar, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Malawi</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Maldives</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Mali</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Mauritania, Islamic Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Mauritius</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Micronesia, Federated States of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Moldova, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Mongolia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Montenegro</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Montserrat</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Morocco</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Mozambique, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Namibia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Nauru, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Nepal</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>New Caledonia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Nicaragua</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Niger</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>North Macedonia, Republic of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Oman</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Palau, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Panama</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Papua New Guinea</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Paraguay</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Poland, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Qatar</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Russian Federation</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Samoa</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>San Marino, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>São Tomé and Príncipe, Dem. Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Senegal</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Serbia, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Seychelles</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Sierra Leone</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Sint Maarten, Kingdom of the Netherlands</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Solomon Islands</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Somalia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>South Sudan, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>St. Kitts and Nevis</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>St. Lucia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>St. Vincent and the Grenadines</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Sudan</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Suriname</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Syrian Arab Rep.</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Taiwan Province of China</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Tajikistan, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Tanzania, United Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Timor-Leste, Dem. Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Togo</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Tonga</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Trinidad and Tobago</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>United Arab Emirates</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Uruguay</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Uzbekistan, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Vanuatu</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Venezuela, Rep. Bolivariana de</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Vietnam</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Yemen, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Zambia</t>
-  </si>
-  <si>
-    <t>Units</t>
   </si>
   <si>
     <t>Zimbabwe</t>
@@ -2374,9 +2479,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ199"/>
+  <dimension ref="A1:AK199"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="0" showRowColHeaders="0" zoomScale="100">
+    <sheetView workbookViewId="0" showGridLines="0" showRowColHeaders="0" zoomScale="100">
       <pane xSplit="4" ySplit="7" state="frozen" topLeftCell="E8"/>
     </sheetView>
   </sheetViews>
@@ -2418,6 +2523,7 @@
     <col min="34" max="34" width="9.710938" customWidth="1"/>
     <col min="35" max="35" width="9.710938" customWidth="1"/>
     <col min="36" max="36" width="9.710938" customWidth="1"/>
+    <col min="37" max="37" width="9.710938" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.500000" customHeight="1">
@@ -2457,6 +2563,7 @@
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
       <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
     </row>
     <row r="2" ht="18.750000" customHeight="1">
       <c r="A2" s="1"/>
@@ -2497,6 +2604,7 @@
       <c r="AH2" s="1"/>
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
     </row>
     <row r="3" ht="31.500000" customHeight="1">
       <c r="A3" s="1"/>
@@ -2537,6 +2645,7 @@
       <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
       <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
     </row>
     <row r="4" ht="13.500000" customHeight="1">
       <c r="A4" s="1"/>
@@ -2575,6 +2684,7 @@
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
       <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
     </row>
     <row r="5" ht="14.250000" customHeight="1">
       <c r="A5" s="1"/>
@@ -2615,6 +2725,7 @@
       <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
       <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
     </row>
     <row r="6" ht="13.500000" customHeight="1">
       <c r="A6" s="1"/>
@@ -2653,6 +2764,7 @@
       <c r="AH6" s="1"/>
       <c r="AI6" s="1"/>
       <c r="AJ6" s="1"/>
+      <c r="AK6" s="1"/>
     </row>
     <row r="7" ht="24.000000" customHeight="1">
       <c r="A7" s="1"/>
@@ -2758,17 +2870,20 @@
       <c r="AI7" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AJ7" s="10" t="s">
+      <c r="AJ7" s="9" t="s">
         <v>37</v>
+      </c>
+      <c r="AK7" s="10" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="8" ht="14.250000" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D8" s="13" t="str">
         <v/>
@@ -2861,22 +2976,25 @@
         <v>109.39778603852299</v>
       </c>
       <c r="AH8" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AI8" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AJ8" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="AK8" s="15" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="9" ht="14.250000" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D9" s="18" t="str">
         <v/>
@@ -2976,15 +3094,18 @@
       </c>
       <c r="AJ9" s="20">
         <v>149.11272748648301</v>
+      </c>
+      <c r="AK9" s="20">
+        <v>151.06859465287999</v>
       </c>
     </row>
     <row r="10" ht="14.250000" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D10" s="18" t="str">
         <v/>
@@ -3084,99 +3205,102 @@
       </c>
       <c r="AJ10" s="22">
         <v>194.31624942441701</v>
+      </c>
+      <c r="AK10" s="22">
+        <v>196.93660316845899</v>
       </c>
     </row>
     <row r="11" ht="14.250000" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D11" s="18" t="str">
         <v/>
       </c>
       <c r="E11" s="19" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J11" s="20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K11" s="20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L11" s="20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M11" s="20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N11" s="20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O11" s="20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P11" s="20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q11" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="R11" s="20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="S11" s="20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="T11" s="20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="U11" s="20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="V11" s="20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="W11" s="20" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="X11" s="20" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Y11" s="20" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Z11" s="20" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA11" s="20" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AB11" s="20" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AC11" s="20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD11" s="20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AE11" s="20" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AF11" s="20">
         <v>1.17371727328015</v>
@@ -3192,15 +3316,18 @@
       </c>
       <c r="AJ11" s="20">
         <v>1.23573533274612</v>
+      </c>
+      <c r="AK11" s="20">
+        <v>1.24529257923751</v>
       </c>
     </row>
     <row r="12" ht="14.250000" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="16" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D12" s="18" t="str">
         <v/>
@@ -3300,15 +3427,18 @@
       </c>
       <c r="AJ12" s="22">
         <v>776.74798773396003</v>
+      </c>
+      <c r="AK12" s="22">
+        <v>617.15647377588505</v>
       </c>
     </row>
     <row r="13" ht="14.250000" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D13" s="18" t="str">
         <v/>
@@ -3408,15 +3538,18 @@
       </c>
       <c r="AJ13" s="20">
         <v>3.77890336224428</v>
+      </c>
+      <c r="AK13" s="20">
+        <v>3.7324780889712201</v>
       </c>
     </row>
     <row r="14" ht="14.250000" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D14" s="18" t="str">
         <v/>
@@ -3516,15 +3649,18 @@
       </c>
       <c r="AJ14" s="22">
         <v>3.77890336224428</v>
+      </c>
+      <c r="AK14" s="22">
+        <v>3.7324780889712201</v>
       </c>
     </row>
     <row r="15" ht="14.250000" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D15" s="18" t="str">
         <v/>
@@ -3624,15 +3760,18 @@
       </c>
       <c r="AJ15" s="20">
         <v>143.62631964203999</v>
+      </c>
+      <c r="AK15" s="20">
+        <v>153.321905499184</v>
       </c>
     </row>
     <row r="16" ht="14.250000" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D16" s="18" t="str">
         <v/>
@@ -3732,15 +3871,18 @@
       </c>
       <c r="AJ16" s="22">
         <v>672.00098531406195</v>
+      </c>
+      <c r="AK16" s="22">
+        <v>671.72164007851995</v>
       </c>
     </row>
     <row r="17" ht="24.000000" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D17" s="18" t="str">
         <v/>
@@ -3840,15 +3982,18 @@
       </c>
       <c r="AJ17" s="20">
         <v>2.50527296978417</v>
+      </c>
+      <c r="AK17" s="20">
+        <v>2.4744947330586999</v>
       </c>
     </row>
     <row r="18" ht="14.250000" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D18" s="18" t="str">
         <v/>
@@ -3948,15 +4093,18 @@
       </c>
       <c r="AJ18" s="22">
         <v>1.92887794634544</v>
+      </c>
+      <c r="AK18" s="22">
+        <v>1.84763337638541</v>
       </c>
     </row>
     <row r="19" ht="14.250000" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="16" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D19" s="18" t="str">
         <v/>
@@ -4056,15 +4204,18 @@
       </c>
       <c r="AJ19" s="20">
         <v>2.3793095243760298</v>
+      </c>
+      <c r="AK19" s="20">
+        <v>2.3500787967596599</v>
       </c>
     </row>
     <row r="20" ht="14.250000" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D20" s="18" t="str">
         <v/>
@@ -4164,15 +4315,18 @@
       </c>
       <c r="AJ20" s="22">
         <v>1.39959383786825</v>
+      </c>
+      <c r="AK20" s="22">
+        <v>1.38239929221156</v>
       </c>
     </row>
     <row r="21" ht="14.250000" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="16" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D21" s="18" t="str">
         <v/>
@@ -4272,15 +4426,18 @@
       </c>
       <c r="AJ21" s="20">
         <v>0.52624728303846202</v>
+      </c>
+      <c r="AK21" s="20">
+        <v>0.51978213387154704</v>
       </c>
     </row>
     <row r="22" ht="14.250000" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="16" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D22" s="18" t="str">
         <v/>
@@ -4380,15 +4537,18 @@
       </c>
       <c r="AJ22" s="22">
         <v>120.085151289096</v>
+      </c>
+      <c r="AK22" s="22">
+        <v>119.162818988637</v>
       </c>
     </row>
     <row r="23" ht="14.250000" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="16" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D23" s="18" t="str">
         <v/>
@@ -4488,15 +4648,18 @@
       </c>
       <c r="AJ23" s="20">
         <v>2.7991876757365</v>
+      </c>
+      <c r="AK23" s="20">
+        <v>2.76479858442312</v>
       </c>
     </row>
     <row r="24" ht="14.250000" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="16" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D24" s="18" t="str">
         <v/>
@@ -4596,15 +4759,18 @@
       </c>
       <c r="AJ24" s="22">
         <v>3.5663050582720901</v>
+      </c>
+      <c r="AK24" s="22">
+        <v>4.1101495756034199</v>
       </c>
     </row>
     <row r="25" ht="14.250000" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="16" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D25" s="18" t="str">
         <v/>
@@ -4704,15 +4870,18 @@
       </c>
       <c r="AJ25" s="20">
         <v>2.7991876757365</v>
+      </c>
+      <c r="AK25" s="20">
+        <v>2.76479858442312</v>
       </c>
     </row>
     <row r="26" ht="14.250000" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="16" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D26" s="18" t="str">
         <v/>
@@ -4812,15 +4981,18 @@
       </c>
       <c r="AJ26" s="22">
         <v>810.58924166214399</v>
+      </c>
+      <c r="AK26" s="22">
+        <v>816.85838439890097</v>
       </c>
     </row>
     <row r="27" ht="14.250000" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="16" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D27" s="18" t="str">
         <v/>
@@ -4920,15 +5092,18 @@
       </c>
       <c r="AJ27" s="20">
         <v>1.39959383786825</v>
+      </c>
+      <c r="AK27" s="20">
+        <v>1.38239929221156</v>
       </c>
     </row>
     <row r="28" ht="14.250000" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="16" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D28" s="18" t="str">
         <v/>
@@ -5028,15 +5203,18 @@
       </c>
       <c r="AJ28" s="22">
         <v>105.456736455081</v>
+      </c>
+      <c r="AK28" s="22">
+        <v>104.795681384611</v>
       </c>
     </row>
     <row r="29" ht="14.250000" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="16" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D29" s="18" t="str">
         <v/>
@@ -5136,15 +5314,18 @@
       </c>
       <c r="AJ29" s="20">
         <v>9.6711934196696099</v>
+      </c>
+      <c r="AK29" s="20">
+        <v>9.5523791091818993</v>
       </c>
     </row>
     <row r="30" ht="14.250000" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="16" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D30" s="18" t="str">
         <v/>
@@ -5244,15 +5425,18 @@
       </c>
       <c r="AJ30" s="22">
         <v>2.4151825140344299</v>
+      </c>
+      <c r="AK30" s="22">
+        <v>2.43010727418508</v>
       </c>
     </row>
     <row r="31" ht="14.250000" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="16" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D31" s="18" t="str">
         <v/>
@@ -5352,15 +5536,18 @@
       </c>
       <c r="AJ31" s="20">
         <v>16.435150519319301</v>
+      </c>
+      <c r="AK31" s="20">
+        <v>15.7746965633554</v>
       </c>
     </row>
     <row r="32" ht="14.250000" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="16" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D32" s="18" t="str">
         <v/>
@@ -5460,15 +5647,18 @@
       </c>
       <c r="AJ32" s="22">
         <v>7.8095936559210504</v>
+      </c>
+      <c r="AK32" s="22">
+        <v>6.5487019270646103</v>
       </c>
     </row>
     <row r="33" ht="14.250000" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="16" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D33" s="18" t="str">
         <v/>
@@ -5568,15 +5758,18 @@
       </c>
       <c r="AJ33" s="20">
         <v>1.90554701025762</v>
+      </c>
+      <c r="AK33" s="20">
+        <v>1.87093920207913</v>
       </c>
     </row>
     <row r="34" ht="14.250000" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="16" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D34" s="18" t="str">
         <v/>
@@ -5676,15 +5869,18 @@
       </c>
       <c r="AJ34" s="22">
         <v>2.4169585986146802</v>
+      </c>
+      <c r="AK34" s="22">
+        <v>2.4356493129475498</v>
       </c>
     </row>
     <row r="35" ht="14.250000" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="16" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D35" s="18" t="str">
         <v/>
@@ -5784,15 +5980,18 @@
       </c>
       <c r="AJ35" s="20">
         <v>810.58924166214399</v>
+      </c>
+      <c r="AK35" s="20">
+        <v>816.85838439890097</v>
       </c>
     </row>
     <row r="36" ht="14.250000" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="16" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D36" s="18" t="str">
         <v/>
@@ -5892,15 +6091,18 @@
       </c>
       <c r="AJ36" s="22">
         <v>2807.7251981475001</v>
+      </c>
+      <c r="AK36" s="22" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="37" ht="14.250000" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="16" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D37" s="18" t="str">
         <v/>
@@ -5998,17 +6200,20 @@
       <c r="AI37" s="20">
         <v>133.301774614392</v>
       </c>
-      <c r="AJ37" s="20" t="s">
-        <v>128</v>
+      <c r="AJ37" s="20">
+        <v>136.535977259399</v>
+      </c>
+      <c r="AK37" s="20">
+        <v>138.54820426331901</v>
       </c>
     </row>
     <row r="38" ht="14.250000" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="16" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D38" s="18" t="str">
         <v/>
@@ -6108,15 +6313,18 @@
       </c>
       <c r="AJ38" s="22">
         <v>5757.2292520710498</v>
+      </c>
+      <c r="AK38" s="22">
+        <v>5630.5123171776904</v>
       </c>
     </row>
     <row r="39" ht="14.250000" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="16" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D39" s="18" t="str">
         <v/>
@@ -6216,15 +6424,18 @@
       </c>
       <c r="AJ39" s="20">
         <v>810.58924166214399</v>
+      </c>
+      <c r="AK39" s="20">
+        <v>816.85838439890097</v>
       </c>
     </row>
     <row r="40" ht="14.250000" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="16" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D40" s="18" t="str">
         <v/>
@@ -6324,15 +6535,18 @@
       </c>
       <c r="AJ40" s="22">
         <v>1.8005774724175001</v>
+      </c>
+      <c r="AK40" s="22">
+        <v>1.72744615554757</v>
       </c>
     </row>
     <row r="41" ht="14.250000" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="16" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D41" s="18" t="str">
         <v/>
@@ -6432,15 +6646,18 @@
       </c>
       <c r="AJ41" s="20">
         <v>1.16632353291075</v>
+      </c>
+      <c r="AK41" s="20">
+        <v>1.1519948021786599</v>
       </c>
     </row>
     <row r="42" ht="14.250000" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="16" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D42" s="18" t="str">
         <v/>
@@ -6540,15 +6757,18 @@
       </c>
       <c r="AJ42" s="22">
         <v>810.58924166214399</v>
+      </c>
+      <c r="AK42" s="22">
+        <v>816.85838439890097</v>
       </c>
     </row>
     <row r="43" ht="14.250000" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="16" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D43" s="18" t="str">
         <v/>
@@ -6648,15 +6868,18 @@
       </c>
       <c r="AJ43" s="20">
         <v>810.58924166214399</v>
+      </c>
+      <c r="AK43" s="20">
+        <v>816.85838439890097</v>
       </c>
     </row>
     <row r="44" ht="14.250000" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="16" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D44" s="18" t="str">
         <v/>
@@ -6756,15 +6979,18 @@
       </c>
       <c r="AJ44" s="22">
         <v>1212.39816205337</v>
+      </c>
+      <c r="AK44" s="22">
+        <v>1088.1694268572501</v>
       </c>
     </row>
     <row r="45" ht="14.250000" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="16" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D45" s="18" t="str">
         <v/>
@@ -6864,15 +7090,18 @@
       </c>
       <c r="AJ45" s="20">
         <v>10.9140327476966</v>
+      </c>
+      <c r="AK45" s="20">
+        <v>10.825568857308699</v>
       </c>
     </row>
     <row r="46" ht="14.250000" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="16" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D46" s="18" t="str">
         <v/>
@@ -6972,15 +7201,18 @@
       </c>
       <c r="AJ46" s="22">
         <v>11.241397746374</v>
+      </c>
+      <c r="AK46" s="22">
+        <v>11.1453178135973</v>
       </c>
     </row>
     <row r="47" ht="14.250000" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="16" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D47" s="18" t="str">
         <v/>
@@ -7080,15 +7312,18 @@
       </c>
       <c r="AJ47" s="20">
         <v>8.9159725847559006</v>
+      </c>
+      <c r="AK47" s="20">
+        <v>8.7681439907102803</v>
       </c>
     </row>
     <row r="48" ht="14.250000" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="16" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D48" s="18" t="str">
         <v/>
@@ -7188,15 +7423,18 @@
       </c>
       <c r="AJ48" s="22">
         <v>5595.17028158428</v>
+      </c>
+      <c r="AK48" s="22" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="49" ht="14.250000" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="16" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D49" s="18" t="str">
         <v/>
@@ -7296,15 +7534,18 @@
       </c>
       <c r="AJ49" s="20">
         <v>607.94193124660796</v>
+      </c>
+      <c r="AK49" s="20">
+        <v>612.64378829917598</v>
       </c>
     </row>
     <row r="50" ht="14.250000" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="16" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D50" s="18" t="str">
         <v/>
@@ -7404,15 +7645,18 @@
       </c>
       <c r="AJ50" s="22">
         <v>2799.1521260530199</v>
+      </c>
+      <c r="AK50" s="22">
+        <v>2764.45422875944</v>
       </c>
     </row>
     <row r="51" ht="14.250000" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="16" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D51" s="18" t="str">
         <v/>
@@ -7512,15 +7756,18 @@
       </c>
       <c r="AJ51" s="20">
         <v>810.58924166214399</v>
+      </c>
+      <c r="AK51" s="20">
+        <v>816.85838439890097</v>
       </c>
     </row>
     <row r="52" ht="14.250000" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="16" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D52" s="18" t="str">
         <v/>
@@ -7620,15 +7867,18 @@
       </c>
       <c r="AJ52" s="22">
         <v>898.75618095628602</v>
+      </c>
+      <c r="AK52" s="22">
+        <v>917.62282617711298</v>
       </c>
     </row>
     <row r="53" ht="14.250000" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="16" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D53" s="18" t="str">
         <v/>
@@ -7728,15 +7978,18 @@
       </c>
       <c r="AJ53" s="20">
         <v>810.58924166214399</v>
+      </c>
+      <c r="AK53" s="20">
+        <v>816.85838439890097</v>
       </c>
     </row>
     <row r="54" ht="14.250000" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="16" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D54" s="18" t="str">
         <v/>
@@ -7836,15 +8089,18 @@
       </c>
       <c r="AJ54" s="22">
         <v>9.2982688423819404</v>
+      </c>
+      <c r="AK54" s="22">
+        <v>9.4089123282368892</v>
       </c>
     </row>
     <row r="55" ht="14.250000" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="16" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D55" s="18" t="str">
         <v/>
@@ -7944,15 +8200,18 @@
       </c>
       <c r="AJ55" s="20">
         <v>2.50527296978417</v>
+      </c>
+      <c r="AK55" s="20">
+        <v>2.4744947330586999</v>
       </c>
     </row>
     <row r="56" ht="24.000000" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="16" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D56" s="18" t="str">
         <v/>
@@ -8052,15 +8311,18 @@
       </c>
       <c r="AJ56" s="22">
         <v>2.50527296978417</v>
+      </c>
+      <c r="AK56" s="22">
+        <v>2.4744947330586999</v>
       </c>
     </row>
     <row r="57" ht="14.250000" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="16" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D57" s="18" t="str">
         <v/>
@@ -8160,15 +8422,18 @@
       </c>
       <c r="AJ57" s="20">
         <v>30.722484335046001</v>
+      </c>
+      <c r="AK57" s="20">
+        <v>30.361635654842502</v>
       </c>
     </row>
     <row r="58" ht="14.250000" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="16" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D58" s="18" t="str">
         <v/>
@@ -8268,15 +8533,18 @@
       </c>
       <c r="AJ58" s="22">
         <v>9.1830150890211701</v>
+      </c>
+      <c r="AK58" s="22">
+        <v>9.2623517376759104</v>
       </c>
     </row>
     <row r="59" ht="14.250000" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="16" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D59" s="18" t="str">
         <v/>
@@ -8376,15 +8644,18 @@
       </c>
       <c r="AJ59" s="20">
         <v>248.73721645978301</v>
+      </c>
+      <c r="AK59" s="20">
+        <v>245.68138461113099</v>
       </c>
     </row>
     <row r="60" ht="14.250000" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="16" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D60" s="18" t="str">
         <v/>
@@ -8484,15 +8755,18 @@
       </c>
       <c r="AJ60" s="22">
         <v>3.77890336224428</v>
+      </c>
+      <c r="AK60" s="22">
+        <v>3.7324780889712201</v>
       </c>
     </row>
     <row r="61" ht="14.250000" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="16" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D61" s="18" t="str">
         <v/>
@@ -8592,15 +8866,18 @@
       </c>
       <c r="AJ61" s="20">
         <v>80.539767359512297</v>
+      </c>
+      <c r="AK61" s="20">
+        <v>76.240012165113797</v>
       </c>
     </row>
     <row r="62" ht="14.250000" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="16" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D62" s="18" t="str">
         <v/>
@@ -8700,15 +8977,18 @@
       </c>
       <c r="AJ62" s="22">
         <v>1.39959383786825</v>
+      </c>
+      <c r="AK62" s="22">
+        <v>1.38239929221156</v>
       </c>
     </row>
     <row r="63" ht="14.250000" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="16" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D63" s="18" t="str">
         <v/>
@@ -8808,15 +9088,18 @@
       </c>
       <c r="AJ63" s="20">
         <v>21.919179054238501</v>
+      </c>
+      <c r="AK63" s="20" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="64" ht="14.250000" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="16" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D64" s="18" t="str">
         <v/>
@@ -8916,15 +9199,18 @@
       </c>
       <c r="AJ64" s="22">
         <v>1.39959383786825</v>
+      </c>
+      <c r="AK64" s="22">
+        <v>1.38239929221156</v>
       </c>
     </row>
     <row r="65" ht="14.250000" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="16" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D65" s="18" t="str">
         <v/>
@@ -9024,15 +9310,18 @@
       </c>
       <c r="AJ65" s="20">
         <v>810.58924166214399</v>
+      </c>
+      <c r="AK65" s="20">
+        <v>816.85838439890097</v>
       </c>
     </row>
     <row r="66" ht="14.250000" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="16" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D66" s="18" t="str">
         <v/>
@@ -9132,15 +9421,18 @@
       </c>
       <c r="AJ66" s="22">
         <v>21.098877105863899</v>
+      </c>
+      <c r="AK66" s="22">
+        <v>20.839669330089301</v>
       </c>
     </row>
     <row r="67" ht="14.250000" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="16" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D67" s="18" t="str">
         <v/>
@@ -9240,15 +9532,18 @@
       </c>
       <c r="AJ67" s="20">
         <v>21.264029178732301</v>
+      </c>
+      <c r="AK67" s="20">
+        <v>20.154483120904601</v>
       </c>
     </row>
     <row r="68" ht="24.000000" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="16" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D68" s="18" t="str">
         <v/>
@@ -9341,22 +9636,25 @@
         <v>58.554051583516703</v>
       </c>
       <c r="AH68" s="22" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AI68" s="22" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="AJ68" s="22" t="s">
-        <v>193</v>
+        <v>197</v>
+      </c>
+      <c r="AK68" s="22" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="69" ht="14.250000" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="16" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D69" s="18" t="str">
         <v/>
@@ -9456,15 +9754,18 @@
       </c>
       <c r="AJ69" s="20">
         <v>1.23573533274612</v>
+      </c>
+      <c r="AK69" s="20">
+        <v>1.24529257923751</v>
       </c>
     </row>
     <row r="70" ht="14.250000" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="16" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D70" s="18" t="str">
         <v/>
@@ -9512,67 +9813,70 @@
         <v>9.0669772243765507</v>
       </c>
       <c r="S70" s="22" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="T70" s="22" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="U70" s="22" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="V70" s="22" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="W70" s="22" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="X70" s="22" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Y70" s="22" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Z70" s="22" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="AA70" s="22" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="AB70" s="22" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="AC70" s="22" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="AD70" s="22" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="AE70" s="22" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="AF70" s="22" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="AG70" s="22" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="AH70" s="22" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="AI70" s="22" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="AJ70" s="22" t="s">
-        <v>215</v>
+        <v>220</v>
+      </c>
+      <c r="AK70" s="22" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="71" ht="14.250000" customHeight="1">
       <c r="A71" s="1"/>
       <c r="B71" s="16" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="D71" s="18" t="str">
         <v/>
@@ -9672,15 +9976,18 @@
       </c>
       <c r="AJ71" s="20">
         <v>2.9639198704535898</v>
+      </c>
+      <c r="AK71" s="20" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="72" ht="14.250000" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="16" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="D72" s="18" t="str">
         <v/>
@@ -9780,15 +10087,18 @@
       </c>
       <c r="AJ72" s="22">
         <v>147.46239800666001</v>
+      </c>
+      <c r="AK72" s="22">
+        <v>148.60288047779699</v>
       </c>
     </row>
     <row r="73" ht="14.250000" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="16" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="D73" s="18" t="str">
         <v/>
@@ -9888,15 +10198,18 @@
       </c>
       <c r="AJ73" s="20">
         <v>810.58924166214399</v>
+      </c>
+      <c r="AK73" s="20">
+        <v>816.85838439890097</v>
       </c>
     </row>
     <row r="74" ht="14.250000" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="16" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="C74" s="17" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D74" s="18" t="str">
         <v/>
@@ -9996,15 +10309,18 @@
       </c>
       <c r="AJ74" s="22">
         <v>73.632631810248697</v>
+      </c>
+      <c r="AK74" s="22" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="75" ht="14.250000" customHeight="1">
       <c r="A75" s="1"/>
       <c r="B75" s="16" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="D75" s="18" t="str">
         <v/>
@@ -10104,15 +10420,18 @@
       </c>
       <c r="AJ75" s="20">
         <v>4.3353818721806903</v>
+      </c>
+      <c r="AK75" s="20">
+        <v>4.2872349249357198</v>
       </c>
     </row>
     <row r="76" ht="14.250000" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="16" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="D76" s="18" t="str">
         <v/>
@@ -10211,16 +10530,19 @@
         <v>8.2648621842014798</v>
       </c>
       <c r="AJ76" s="22" t="s">
-        <v>228</v>
+        <v>236</v>
+      </c>
+      <c r="AK76" s="22" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="77" ht="14.250000" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="16" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="D77" s="18" t="str">
         <v/>
@@ -10320,15 +10642,18 @@
       </c>
       <c r="AJ77" s="20">
         <v>1.0418295651840499</v>
+      </c>
+      <c r="AK77" s="20">
+        <v>1.05321648105715</v>
       </c>
     </row>
     <row r="78" ht="14.250000" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="16" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="D78" s="18" t="str">
         <v/>
@@ -10376,67 +10701,70 @@
         <v>9.0669772243765507</v>
       </c>
       <c r="S78" s="22" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="T78" s="22" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="U78" s="22" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="V78" s="22" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="W78" s="22" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="X78" s="22" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="Y78" s="22" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="Z78" s="22" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="AA78" s="22" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="AB78" s="22" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="AC78" s="22" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="AD78" s="22" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="AE78" s="22" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="AF78" s="22" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="AG78" s="22" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="AH78" s="22" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="AI78" s="22" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="AJ78" s="22" t="s">
-        <v>250</v>
+        <v>259</v>
+      </c>
+      <c r="AK78" s="22" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="79" ht="14.250000" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="16" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="D79" s="18" t="str">
         <v/>
@@ -10536,15 +10864,18 @@
       </c>
       <c r="AJ79" s="20">
         <v>3.77890336224428</v>
+      </c>
+      <c r="AK79" s="20">
+        <v>3.7324780889712201</v>
       </c>
     </row>
     <row r="80" ht="14.250000" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="16" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="D80" s="18" t="str">
         <v/>
@@ -10644,15 +10975,18 @@
       </c>
       <c r="AJ80" s="22">
         <v>10.8038287289029</v>
+      </c>
+      <c r="AK80" s="22">
+        <v>10.6137161657773</v>
       </c>
     </row>
     <row r="81" ht="14.250000" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="16" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="D81" s="18" t="str">
         <v/>
@@ -10752,15 +11086,18 @@
       </c>
       <c r="AJ81" s="20">
         <v>1.0418295651840499</v>
+      </c>
+      <c r="AK81" s="20">
+        <v>1.05321648105715</v>
       </c>
     </row>
     <row r="82" ht="14.250000" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="16" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="D82" s="18" t="str">
         <v/>
@@ -10853,22 +11190,25 @@
         <v>14112.511532525599</v>
       </c>
       <c r="AH82" s="22" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="AI82" s="22" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="AJ82" s="22" t="s">
-        <v>261</v>
+        <v>271</v>
+      </c>
+      <c r="AK82" s="22" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="83" ht="14.250000" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="16" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="D83" s="18" t="str">
         <v/>
@@ -10968,15 +11308,18 @@
       </c>
       <c r="AJ83" s="20">
         <v>810.58924166214399</v>
+      </c>
+      <c r="AK83" s="20">
+        <v>816.85838439890097</v>
       </c>
     </row>
     <row r="84" ht="14.250000" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="16" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="D84" s="18" t="str">
         <v/>
@@ -11076,15 +11419,18 @@
       </c>
       <c r="AJ84" s="22">
         <v>291.81531519552999</v>
+      </c>
+      <c r="AK84" s="22" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="85" ht="14.250000" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="16" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="D85" s="18" t="str">
         <v/>
@@ -11184,15 +11530,18 @@
       </c>
       <c r="AJ85" s="20">
         <v>139.772817928237</v>
+      </c>
+      <c r="AK85" s="20" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="86" ht="14.250000" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="16" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="D86" s="18" t="str">
         <v/>
@@ -11292,15 +11641,18 @@
       </c>
       <c r="AJ86" s="22">
         <v>34.073671820437703</v>
+      </c>
+      <c r="AK86" s="22">
+        <v>33.648428212004802</v>
       </c>
     </row>
     <row r="87" ht="14.250000" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="16" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="D87" s="18" t="str">
         <v/>
@@ -11400,15 +11752,18 @@
       </c>
       <c r="AJ87" s="20">
         <v>455.86170893206798</v>
+      </c>
+      <c r="AK87" s="20">
+        <v>459.08098095053799</v>
       </c>
     </row>
     <row r="88" ht="14.250000" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="16" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="D88" s="18" t="str">
         <v/>
@@ -11508,15 +11863,18 @@
       </c>
       <c r="AJ88" s="22">
         <v>182.479044581263</v>
+      </c>
+      <c r="AK88" s="22">
+        <v>176.836517459703</v>
       </c>
     </row>
     <row r="89" ht="14.250000" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="16" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="D89" s="18" t="str">
         <v/>
@@ -11616,15 +11974,18 @@
       </c>
       <c r="AJ89" s="20">
         <v>103.993321138206</v>
+      </c>
+      <c r="AK89" s="20">
+        <v>104.795681384611</v>
       </c>
     </row>
     <row r="90" ht="14.250000" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="16" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="D90" s="18" t="str">
         <v/>
@@ -11724,15 +12085,18 @@
       </c>
       <c r="AJ90" s="22">
         <v>19970.8114705113</v>
+      </c>
+      <c r="AK90" s="22">
+        <v>19836.054355940199</v>
       </c>
     </row>
     <row r="91" ht="14.250000" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="16" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="D91" s="18" t="str">
         <v/>
@@ -11832,15 +12196,18 @@
       </c>
       <c r="AJ91" s="20">
         <v>58782.941190466503</v>
+      </c>
+      <c r="AK91" s="20">
+        <v>58060.770272885602</v>
       </c>
     </row>
     <row r="92" ht="14.250000" customHeight="1">
       <c r="A92" s="1"/>
       <c r="B92" s="16" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="D92" s="18" t="str">
         <v/>
@@ -11938,17 +12305,20 @@
       <c r="AI92" s="22">
         <v>2042.8635029050899</v>
       </c>
-      <c r="AJ92" s="22" t="s">
-        <v>282</v>
+      <c r="AJ92" s="22">
+        <v>2029.41106490896</v>
+      </c>
+      <c r="AK92" s="22" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="93" ht="14.250000" customHeight="1">
       <c r="A93" s="1"/>
       <c r="B93" s="16" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="C93" s="17" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="D93" s="18" t="str">
         <v/>
@@ -12048,15 +12418,18 @@
       </c>
       <c r="AJ93" s="20">
         <v>1.0418295651840499</v>
+      </c>
+      <c r="AK93" s="20">
+        <v>1.05321648105715</v>
       </c>
     </row>
     <row r="94" ht="14.250000" customHeight="1">
       <c r="A94" s="1"/>
       <c r="B94" s="16" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="D94" s="18" t="str">
         <v/>
@@ -12156,15 +12529,18 @@
       </c>
       <c r="AJ94" s="22">
         <v>4.3527368357702603</v>
+      </c>
+      <c r="AK94" s="22">
+        <v>4.39050015206392</v>
       </c>
     </row>
     <row r="95" ht="14.250000" customHeight="1">
       <c r="A95" s="1"/>
       <c r="B95" s="16" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="D95" s="18" t="str">
         <v/>
@@ -12260,19 +12636,22 @@
         <v>209.28972661164499</v>
       </c>
       <c r="AI95" s="20" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="AJ95" s="20" t="s">
-        <v>290</v>
+        <v>303</v>
+      </c>
+      <c r="AK95" s="20" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="96" ht="14.250000" customHeight="1">
       <c r="A96" s="1"/>
       <c r="B96" s="16" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="D96" s="18" t="str">
         <v/>
@@ -12372,15 +12751,18 @@
       </c>
       <c r="AJ96" s="22">
         <v>159.84761222293301</v>
+      </c>
+      <c r="AK96" s="22">
+        <v>169.20567336669501</v>
       </c>
     </row>
     <row r="97" ht="14.250000" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="16" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="D97" s="18" t="str">
         <v/>
@@ -12480,15 +12862,18 @@
       </c>
       <c r="AJ97" s="20">
         <v>1.0418295651840499</v>
+      </c>
+      <c r="AK97" s="20">
+        <v>1.05321648105715</v>
       </c>
     </row>
     <row r="98" ht="14.250000" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="16" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="D98" s="18" t="str">
         <v/>
@@ -12588,15 +12973,18 @@
       </c>
       <c r="AJ98" s="22">
         <v>0.99371162488645803</v>
+      </c>
+      <c r="AK98" s="22">
+        <v>0.98150349747020904</v>
       </c>
     </row>
     <row r="99" ht="14.250000" customHeight="1">
       <c r="A99" s="1"/>
       <c r="B99" s="16" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="D99" s="18" t="str">
         <v/>
@@ -12696,15 +13084,18 @@
       </c>
       <c r="AJ99" s="20">
         <v>604.34461919151101</v>
+      </c>
+      <c r="AK99" s="20">
+        <v>644.62661395117402</v>
       </c>
     </row>
     <row r="100" ht="14.250000" customHeight="1">
       <c r="A100" s="1"/>
       <c r="B100" s="16" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="D100" s="18" t="str">
         <v/>
@@ -12804,15 +13195,18 @@
       </c>
       <c r="AJ100" s="22">
         <v>158.351693397399</v>
+      </c>
+      <c r="AK100" s="22">
+        <v>158.90852663883399</v>
       </c>
     </row>
     <row r="101" ht="14.250000" customHeight="1">
       <c r="A101" s="1"/>
       <c r="B101" s="16" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="D101" s="18" t="str">
         <v/>
@@ -12912,15 +13306,18 @@
       </c>
       <c r="AJ101" s="20">
         <v>1.92887794634544</v>
+      </c>
+      <c r="AK101" s="20">
+        <v>1.84763337638541</v>
       </c>
     </row>
     <row r="102" ht="14.250000" customHeight="1">
       <c r="A102" s="1"/>
       <c r="B102" s="16" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="D102" s="18" t="str">
         <v/>
@@ -13020,15 +13417,18 @@
       </c>
       <c r="AJ102" s="22">
         <v>1660.75804801447</v>
+      </c>
+      <c r="AK102" s="22">
+        <v>1673.8090630097599</v>
       </c>
     </row>
     <row r="103" ht="14.250000" customHeight="1">
       <c r="A103" s="1"/>
       <c r="B103" s="16" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="D103" s="18" t="str">
         <v/>
@@ -13128,15 +13528,18 @@
       </c>
       <c r="AJ103" s="20">
         <v>1.23573533274612</v>
+      </c>
+      <c r="AK103" s="20">
+        <v>1.24529257923751</v>
       </c>
     </row>
     <row r="104" ht="14.250000" customHeight="1">
       <c r="A104" s="1"/>
       <c r="B104" s="16" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="D104" s="18" t="str">
         <v/>
@@ -13236,15 +13639,18 @@
       </c>
       <c r="AJ104" s="22">
         <v>0.42337713595514598</v>
+      </c>
+      <c r="AK104" s="22">
+        <v>0.42011114490309398</v>
       </c>
     </row>
     <row r="105" ht="14.250000" customHeight="1">
       <c r="A105" s="1"/>
       <c r="B105" s="16" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="D105" s="18" t="str">
         <v/>
@@ -13344,15 +13750,18 @@
       </c>
       <c r="AJ105" s="20">
         <v>118.62761426634</v>
+      </c>
+      <c r="AK105" s="20">
+        <v>115.166302634853</v>
       </c>
     </row>
     <row r="106" ht="14.250000" customHeight="1">
       <c r="A106" s="1"/>
       <c r="B106" s="16" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="D106" s="18" t="str">
         <v/>
@@ -13450,17 +13859,20 @@
       <c r="AI106" s="22">
         <v>13884.4274628481</v>
       </c>
-      <c r="AJ106" s="22" t="s">
-        <v>313</v>
+      <c r="AJ106" s="22">
+        <v>15452.9155639034</v>
+      </c>
+      <c r="AK106" s="22">
+        <v>16012.3310016865</v>
       </c>
     </row>
     <row r="107" ht="14.250000" customHeight="1">
       <c r="A107" s="1"/>
       <c r="B107" s="16" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="D107" s="18" t="str">
         <v/>
@@ -13560,15 +13972,18 @@
       </c>
       <c r="AJ107" s="20">
         <v>2109.8877105863899</v>
+      </c>
+      <c r="AK107" s="20">
+        <v>2083.96693300893</v>
       </c>
     </row>
     <row r="108" ht="14.250000" customHeight="1">
       <c r="A108" s="1"/>
       <c r="B108" s="16" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="D108" s="18" t="str">
         <v/>
@@ -13668,15 +14083,18 @@
       </c>
       <c r="AJ108" s="22">
         <v>22.261110131716599</v>
+      </c>
+      <c r="AK108" s="22">
+        <v>20.154483120904601</v>
       </c>
     </row>
     <row r="109" ht="14.250000" customHeight="1">
       <c r="A109" s="1"/>
       <c r="B109" s="16" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="C109" s="17" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="D109" s="18" t="str">
         <v/>
@@ -13772,19 +14190,22 @@
         <v>244.51511581133499</v>
       </c>
       <c r="AI109" s="20" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="AJ109" s="20" t="s">
-        <v>321</v>
+        <v>334</v>
+      </c>
+      <c r="AK109" s="20" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="110" ht="14.250000" customHeight="1">
       <c r="A110" s="1"/>
       <c r="B110" s="16" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="D110" s="18" t="str">
         <v/>
@@ -13871,28 +14292,31 @@
         <v>1.9361409072547899</v>
       </c>
       <c r="AF110" s="22" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="AG110" s="22" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="AH110" s="22" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="AI110" s="22" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="AJ110" s="22" t="s">
-        <v>328</v>
+        <v>342</v>
+      </c>
+      <c r="AK110" s="22" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="111" ht="14.250000" customHeight="1">
       <c r="A111" s="1"/>
       <c r="B111" s="16" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="D111" s="18" t="str">
         <v/>
@@ -13910,97 +14334,100 @@
         <v>4.1127228262129396</v>
       </c>
       <c r="I111" s="20" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="J111" s="20" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="K111" s="20" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="L111" s="20" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="M111" s="20" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="N111" s="20" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="O111" s="20" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="P111" s="20" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="Q111" s="20" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="R111" s="20" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="S111" s="20" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="T111" s="20" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="U111" s="20" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="V111" s="20" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="W111" s="20" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="X111" s="20" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="Y111" s="20" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="Z111" s="20" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="AA111" s="20" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="AB111" s="20" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="AC111" s="20" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="AD111" s="20" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="AE111" s="20" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="AF111" s="20" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="AG111" s="20" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="AH111" s="20" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="AI111" s="20" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="AJ111" s="20" t="s">
-        <v>358</v>
+        <v>373</v>
+      </c>
+      <c r="AK111" s="20" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="112" ht="14.250000" customHeight="1">
       <c r="A112" s="1"/>
       <c r="B112" s="16" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="C112" s="17" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="D112" s="18" t="str">
         <v/>
@@ -14100,15 +14527,18 @@
       </c>
       <c r="AJ112" s="22">
         <v>5537.7169545397901</v>
+      </c>
+      <c r="AK112" s="22">
+        <v>5494.9957145621902</v>
       </c>
     </row>
     <row r="113" ht="14.250000" customHeight="1">
       <c r="A113" s="1"/>
       <c r="B113" s="16" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="C113" s="17" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="D113" s="18" t="str">
         <v/>
@@ -14207,16 +14637,19 @@
         <v>1158.32539788188</v>
       </c>
       <c r="AJ113" s="20" t="s">
-        <v>363</v>
+        <v>379</v>
+      </c>
+      <c r="AK113" s="20" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="114" ht="14.250000" customHeight="1">
       <c r="A114" s="1"/>
       <c r="B114" s="16" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="D114" s="18" t="str">
         <v/>
@@ -14316,15 +14749,18 @@
       </c>
       <c r="AJ114" s="22">
         <v>5.8447038669378104</v>
+      </c>
+      <c r="AK114" s="22">
+        <v>5.8116066244574096</v>
       </c>
     </row>
     <row r="115" ht="14.250000" customHeight="1">
       <c r="A115" s="1"/>
       <c r="B115" s="16" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="D115" s="18" t="str">
         <v/>
@@ -14424,15 +14860,18 @@
       </c>
       <c r="AJ115" s="20">
         <v>21.539749164792401</v>
+      </c>
+      <c r="AK115" s="20">
+        <v>21.247477121291698</v>
       </c>
     </row>
     <row r="116" ht="14.250000" customHeight="1">
       <c r="A116" s="1"/>
       <c r="B116" s="16" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="D116" s="18" t="str">
         <v/>
@@ -14532,15 +14971,18 @@
       </c>
       <c r="AJ116" s="22">
         <v>810.58924166214399</v>
+      </c>
+      <c r="AK116" s="22">
+        <v>816.85838439890097</v>
       </c>
     </row>
     <row r="117" ht="14.250000" customHeight="1">
       <c r="A117" s="1"/>
       <c r="B117" s="16" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="D117" s="18" t="str">
         <v/>
@@ -14633,22 +15075,25 @@
         <v>50.906091582779801</v>
       </c>
       <c r="AH117" s="20" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="AI117" s="20" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="AJ117" s="20" t="s">
-        <v>374</v>
+        <v>391</v>
+      </c>
+      <c r="AK117" s="20" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="118" ht="14.250000" customHeight="1">
       <c r="A118" s="1"/>
       <c r="B118" s="16" t="s">
-        <v>375</v>
+        <v>393</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>376</v>
+        <v>394</v>
       </c>
       <c r="D118" s="18" t="str">
         <v/>
@@ -14748,15 +15193,18 @@
       </c>
       <c r="AJ118" s="22">
         <v>60.923480006102203</v>
+      </c>
+      <c r="AK118" s="22">
+        <v>61.494511874809902</v>
       </c>
     </row>
     <row r="119" ht="14.250000" customHeight="1">
       <c r="A119" s="1"/>
       <c r="B119" s="16" t="s">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>378</v>
+        <v>396</v>
       </c>
       <c r="D119" s="18" t="str">
         <v/>
@@ -14856,15 +15304,18 @@
       </c>
       <c r="AJ119" s="20">
         <v>28.8085397617611</v>
+      </c>
+      <c r="AK119" s="20">
+        <v>27.6399679283364</v>
       </c>
     </row>
     <row r="120" ht="24.000000" customHeight="1">
       <c r="A120" s="1"/>
       <c r="B120" s="16" t="s">
-        <v>379</v>
+        <v>397</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>380</v>
+        <v>398</v>
       </c>
       <c r="D120" s="18" t="str">
         <v/>
@@ -14964,15 +15415,18 @@
       </c>
       <c r="AJ120" s="22">
         <v>1.39959383786825</v>
+      </c>
+      <c r="AK120" s="22">
+        <v>1.38239929221156</v>
       </c>
     </row>
     <row r="121" ht="14.250000" customHeight="1">
       <c r="A121" s="1"/>
       <c r="B121" s="16" t="s">
-        <v>381</v>
+        <v>399</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>382</v>
+        <v>400</v>
       </c>
       <c r="D121" s="18" t="str">
         <v/>
@@ -15072,15 +15526,18 @@
       </c>
       <c r="AJ121" s="20">
         <v>24.836072571739699</v>
+      </c>
+      <c r="AK121" s="20">
+        <v>25.328734551687901</v>
       </c>
     </row>
     <row r="122" ht="14.250000" customHeight="1">
       <c r="A122" s="1"/>
       <c r="B122" s="16" t="s">
-        <v>383</v>
+        <v>401</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="D122" s="18" t="str">
         <v/>
@@ -15180,15 +15637,18 @@
       </c>
       <c r="AJ122" s="22">
         <v>3987.9187059915198</v>
+      </c>
+      <c r="AK122" s="22">
+        <v>4075.9490171141001</v>
       </c>
     </row>
     <row r="123" ht="14.250000" customHeight="1">
       <c r="A123" s="1"/>
       <c r="B123" s="16" t="s">
-        <v>385</v>
+        <v>403</v>
       </c>
       <c r="C123" s="17" t="s">
-        <v>386</v>
+        <v>404</v>
       </c>
       <c r="D123" s="18" t="str">
         <v/>
@@ -15288,15 +15748,18 @@
       </c>
       <c r="AJ123" s="20">
         <v>1.23573533274612</v>
+      </c>
+      <c r="AK123" s="20">
+        <v>1.24529257923751</v>
       </c>
     </row>
     <row r="124" ht="14.250000" customHeight="1">
       <c r="A124" s="1"/>
       <c r="B124" s="16" t="s">
-        <v>387</v>
+        <v>405</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>388</v>
+        <v>406</v>
       </c>
       <c r="D124" s="18" t="str">
         <v/>
@@ -15396,15 +15859,18 @@
       </c>
       <c r="AJ124" s="22">
         <v>3.77890336224428</v>
+      </c>
+      <c r="AK124" s="22">
+        <v>3.7324780889712201</v>
       </c>
     </row>
     <row r="125" ht="14.250000" customHeight="1">
       <c r="A125" s="1"/>
       <c r="B125" s="16" t="s">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>390</v>
+        <v>408</v>
       </c>
       <c r="D125" s="18" t="str">
         <v/>
@@ -15504,15 +15970,18 @@
       </c>
       <c r="AJ125" s="20">
         <v>12.988790652952501</v>
+      </c>
+      <c r="AK125" s="20">
+        <v>12.5253670270121</v>
       </c>
     </row>
     <row r="126" ht="14.250000" customHeight="1">
       <c r="A126" s="1"/>
       <c r="B126" s="16" t="s">
-        <v>391</v>
+        <v>409</v>
       </c>
       <c r="C126" s="17" t="s">
-        <v>392</v>
+        <v>410</v>
       </c>
       <c r="D126" s="18" t="str">
         <v/>
@@ -15612,15 +16081,18 @@
       </c>
       <c r="AJ126" s="22">
         <v>89.336074671130405</v>
+      </c>
+      <c r="AK126" s="22">
+        <v>88.238546821864006</v>
       </c>
     </row>
     <row r="127" ht="14.250000" customHeight="1">
       <c r="A127" s="1"/>
       <c r="B127" s="16" t="s">
-        <v>393</v>
+        <v>411</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>394</v>
+        <v>412</v>
       </c>
       <c r="D127" s="18" t="str">
         <v/>
@@ -15713,22 +16185,25 @@
         <v>2053.3918734490398</v>
       </c>
       <c r="AH127" s="20" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="AI127" s="20" t="s">
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="AJ127" s="20" t="s">
-        <v>397</v>
+        <v>415</v>
+      </c>
+      <c r="AK127" s="20" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="128" ht="14.250000" customHeight="1">
       <c r="A128" s="1"/>
       <c r="B128" s="16" t="s">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="D128" s="18" t="str">
         <v/>
@@ -15828,15 +16303,18 @@
       </c>
       <c r="AJ128" s="22">
         <v>22.2625694023594</v>
+      </c>
+      <c r="AK128" s="22">
+        <v>20.064696286875499</v>
       </c>
     </row>
     <row r="129" ht="14.250000" customHeight="1">
       <c r="A129" s="1"/>
       <c r="B129" s="16" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>401</v>
+        <v>420</v>
       </c>
       <c r="D129" s="18" t="str">
         <v/>
@@ -15936,15 +16414,18 @@
       </c>
       <c r="AJ129" s="20">
         <v>1.92887794634544</v>
+      </c>
+      <c r="AK129" s="20">
+        <v>1.84763337638541</v>
       </c>
     </row>
     <row r="130" ht="14.250000" customHeight="1">
       <c r="A130" s="1"/>
       <c r="B130" s="16" t="s">
-        <v>402</v>
+        <v>421</v>
       </c>
       <c r="C130" s="17" t="s">
-        <v>403</v>
+        <v>422</v>
       </c>
       <c r="D130" s="18" t="str">
         <v/>
@@ -16044,15 +16525,18 @@
       </c>
       <c r="AJ130" s="22">
         <v>169.89669597882701</v>
+      </c>
+      <c r="AK130" s="22" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="131" ht="14.250000" customHeight="1">
       <c r="A131" s="1"/>
       <c r="B131" s="16" t="s">
-        <v>404</v>
+        <v>424</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>405</v>
+        <v>425</v>
       </c>
       <c r="D131" s="18" t="str">
         <v/>
@@ -16152,15 +16636,18 @@
       </c>
       <c r="AJ131" s="20">
         <v>147.46239800666001</v>
+      </c>
+      <c r="AK131" s="20">
+        <v>148.60288047779699</v>
       </c>
     </row>
     <row r="132" ht="14.250000" customHeight="1">
       <c r="A132" s="1"/>
       <c r="B132" s="16" t="s">
-        <v>406</v>
+        <v>426</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>407</v>
+        <v>427</v>
       </c>
       <c r="D132" s="18" t="str">
         <v/>
@@ -16260,15 +16747,18 @@
       </c>
       <c r="AJ132" s="22">
         <v>2.0485855004877598</v>
+      </c>
+      <c r="AK132" s="22">
+        <v>1.9819458652437201</v>
       </c>
     </row>
     <row r="133" ht="14.250000" customHeight="1">
       <c r="A133" s="1"/>
       <c r="B133" s="16" t="s">
-        <v>408</v>
+        <v>428</v>
       </c>
       <c r="C133" s="17" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
       <c r="D133" s="18" t="str">
         <v/>
@@ -16368,15 +16858,18 @@
       </c>
       <c r="AJ133" s="20">
         <v>49.714972714918098</v>
+      </c>
+      <c r="AK133" s="20" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="134" ht="14.250000" customHeight="1">
       <c r="A134" s="1"/>
       <c r="B134" s="16" t="s">
-        <v>410</v>
+        <v>431</v>
       </c>
       <c r="C134" s="17" t="s">
-        <v>411</v>
+        <v>432</v>
       </c>
       <c r="D134" s="18" t="str">
         <v/>
@@ -16476,15 +16969,18 @@
       </c>
       <c r="AJ134" s="22">
         <v>810.58924166214399</v>
+      </c>
+      <c r="AK134" s="22">
+        <v>816.85838439890097</v>
       </c>
     </row>
     <row r="135" ht="14.250000" customHeight="1">
       <c r="A135" s="1"/>
       <c r="B135" s="16" t="s">
-        <v>412</v>
+        <v>433</v>
       </c>
       <c r="C135" s="17" t="s">
-        <v>413</v>
+        <v>434</v>
       </c>
       <c r="D135" s="18" t="str">
         <v/>
@@ -16583,16 +17079,19 @@
         <v>578.76436344373303</v>
       </c>
       <c r="AJ135" s="20" t="s">
-        <v>414</v>
+        <v>435</v>
+      </c>
+      <c r="AK135" s="20" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="136" ht="14.250000" customHeight="1">
       <c r="A136" s="1"/>
       <c r="B136" s="16" t="s">
-        <v>415</v>
+        <v>437</v>
       </c>
       <c r="C136" s="17" t="s">
-        <v>416</v>
+        <v>438</v>
       </c>
       <c r="D136" s="18" t="str">
         <v/>
@@ -16692,15 +17191,18 @@
       </c>
       <c r="AJ136" s="22">
         <v>76.100955502713106</v>
+      </c>
+      <c r="AK136" s="22">
+        <v>76.655699632281795</v>
       </c>
     </row>
     <row r="137" ht="14.250000" customHeight="1">
       <c r="A137" s="1"/>
       <c r="B137" s="16" t="s">
-        <v>417</v>
+        <v>439</v>
       </c>
       <c r="C137" s="17" t="s">
-        <v>418</v>
+        <v>440</v>
       </c>
       <c r="D137" s="18" t="str">
         <v/>
@@ -16800,15 +17302,18 @@
       </c>
       <c r="AJ137" s="20">
         <v>12.344417649998</v>
+      </c>
+      <c r="AK137" s="20">
+        <v>12.095993806851199</v>
       </c>
     </row>
     <row r="138" ht="14.250000" customHeight="1">
       <c r="A138" s="1"/>
       <c r="B138" s="16" t="s">
-        <v>419</v>
+        <v>441</v>
       </c>
       <c r="C138" s="17" t="s">
-        <v>420</v>
+        <v>442</v>
       </c>
       <c r="D138" s="18" t="str">
         <v/>
@@ -16908,15 +17413,18 @@
       </c>
       <c r="AJ138" s="22">
         <v>0.53814383066034199</v>
+      </c>
+      <c r="AK138" s="22">
+        <v>0.53153252785534599</v>
       </c>
     </row>
     <row r="139" ht="14.250000" customHeight="1">
       <c r="A139" s="1"/>
       <c r="B139" s="16" t="s">
-        <v>421</v>
+        <v>443</v>
       </c>
       <c r="C139" s="17" t="s">
-        <v>422</v>
+        <v>444</v>
       </c>
       <c r="D139" s="18" t="str">
         <v/>
@@ -17016,15 +17524,18 @@
       </c>
       <c r="AJ139" s="20">
         <v>247.05504462605001</v>
+      </c>
+      <c r="AK139" s="20">
+        <v>253.690453150488</v>
       </c>
     </row>
     <row r="140" ht="14.250000" customHeight="1">
       <c r="A140" s="1"/>
       <c r="B140" s="16" t="s">
-        <v>423</v>
+        <v>445</v>
       </c>
       <c r="C140" s="17" t="s">
-        <v>424</v>
+        <v>446</v>
       </c>
       <c r="D140" s="18" t="str">
         <v/>
@@ -17124,15 +17635,18 @@
       </c>
       <c r="AJ140" s="22">
         <v>1.39959383786825</v>
+      </c>
+      <c r="AK140" s="22">
+        <v>1.38239929221156</v>
       </c>
     </row>
     <row r="141" ht="14.250000" customHeight="1">
       <c r="A141" s="1"/>
       <c r="B141" s="16" t="s">
-        <v>425</v>
+        <v>447</v>
       </c>
       <c r="C141" s="17" t="s">
-        <v>426</v>
+        <v>448</v>
       </c>
       <c r="D141" s="18" t="str">
         <v/>
@@ -17232,15 +17746,18 @@
       </c>
       <c r="AJ141" s="20">
         <v>1.39959383786825</v>
+      </c>
+      <c r="AK141" s="20">
+        <v>1.38239929221156</v>
       </c>
     </row>
     <row r="142" ht="14.250000" customHeight="1">
       <c r="A142" s="1"/>
       <c r="B142" s="16" t="s">
-        <v>427</v>
+        <v>449</v>
       </c>
       <c r="C142" s="17" t="s">
-        <v>428</v>
+        <v>450</v>
       </c>
       <c r="D142" s="18" t="str">
         <v/>
@@ -17340,15 +17857,18 @@
       </c>
       <c r="AJ142" s="22">
         <v>4.9108555714675397</v>
+      </c>
+      <c r="AK142" s="22" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="143" ht="14.250000" customHeight="1">
       <c r="A143" s="1"/>
       <c r="B143" s="16" t="s">
-        <v>429</v>
+        <v>452</v>
       </c>
       <c r="C143" s="17" t="s">
-        <v>430</v>
+        <v>453</v>
       </c>
       <c r="D143" s="18" t="str">
         <v/>
@@ -17448,15 +17968,18 @@
       </c>
       <c r="AJ143" s="20">
         <v>9627.9529680486703</v>
+      </c>
+      <c r="AK143" s="20">
+        <v>9575.1817855069294</v>
       </c>
     </row>
     <row r="144" ht="14.250000" customHeight="1">
       <c r="A144" s="1"/>
       <c r="B144" s="16" t="s">
-        <v>431</v>
+        <v>454</v>
       </c>
       <c r="C144" s="17" t="s">
-        <v>432</v>
+        <v>455</v>
       </c>
       <c r="D144" s="18" t="str">
         <v/>
@@ -17556,15 +18079,18 @@
       </c>
       <c r="AJ144" s="22">
         <v>5.5801806315807196</v>
+      </c>
+      <c r="AK144" s="22">
+        <v>5.1121125825983604</v>
       </c>
     </row>
     <row r="145" ht="14.250000" customHeight="1">
       <c r="A145" s="1"/>
       <c r="B145" s="16" t="s">
-        <v>433</v>
+        <v>456</v>
       </c>
       <c r="C145" s="17" t="s">
-        <v>434</v>
+        <v>457</v>
       </c>
       <c r="D145" s="18" t="str">
         <v/>
@@ -17664,15 +18190,18 @@
       </c>
       <c r="AJ145" s="20">
         <v>71.062977523922598</v>
+      </c>
+      <c r="AK145" s="20">
+        <v>71.829467223312804</v>
       </c>
     </row>
     <row r="146" ht="14.250000" customHeight="1">
       <c r="A146" s="1"/>
       <c r="B146" s="16" t="s">
-        <v>435</v>
+        <v>458</v>
       </c>
       <c r="C146" s="17" t="s">
-        <v>436</v>
+        <v>459</v>
       </c>
       <c r="D146" s="18" t="str">
         <v/>
@@ -17772,15 +18301,18 @@
       </c>
       <c r="AJ146" s="22">
         <v>5.6823509817450999</v>
+      </c>
+      <c r="AK146" s="22">
+        <v>5.77856728137355</v>
       </c>
     </row>
     <row r="147" ht="14.250000" customHeight="1">
       <c r="A147" s="1"/>
       <c r="B147" s="16" t="s">
-        <v>437</v>
+        <v>460</v>
       </c>
       <c r="C147" s="17" t="s">
-        <v>438</v>
+        <v>461</v>
       </c>
       <c r="D147" s="18" t="str">
         <v/>
@@ -17880,15 +18412,18 @@
       </c>
       <c r="AJ147" s="20">
         <v>5.0945215698404303</v>
+      </c>
+      <c r="AK147" s="20">
+        <v>5.0319334236500897</v>
       </c>
     </row>
     <row r="148" ht="14.250000" customHeight="1">
       <c r="A148" s="1"/>
       <c r="B148" s="16" t="s">
-        <v>439</v>
+        <v>462</v>
       </c>
       <c r="C148" s="17" t="s">
-        <v>440</v>
+        <v>463</v>
       </c>
       <c r="D148" s="18" t="str">
         <v/>
@@ -17988,15 +18523,18 @@
       </c>
       <c r="AJ148" s="22">
         <v>6.1172047871707598</v>
+      </c>
+      <c r="AK148" s="22">
+        <v>6.1527827697752198</v>
       </c>
     </row>
     <row r="149" ht="14.250000" customHeight="1">
       <c r="A149" s="1"/>
       <c r="B149" s="16" t="s">
-        <v>441</v>
+        <v>464</v>
       </c>
       <c r="C149" s="17" t="s">
-        <v>442</v>
+        <v>465</v>
       </c>
       <c r="D149" s="18" t="str">
         <v/>
@@ -18096,15 +18634,18 @@
       </c>
       <c r="AJ149" s="20">
         <v>103.979465159211</v>
+      </c>
+      <c r="AK149" s="20" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="150" ht="14.250000" customHeight="1">
       <c r="A150" s="1"/>
       <c r="B150" s="16" t="s">
-        <v>443</v>
+        <v>467</v>
       </c>
       <c r="C150" s="17" t="s">
-        <v>444</v>
+        <v>468</v>
       </c>
       <c r="D150" s="18" t="str">
         <v/>
@@ -18204,15 +18745,18 @@
       </c>
       <c r="AJ150" s="22">
         <v>1413.0548262894099</v>
+      </c>
+      <c r="AK150" s="22">
+        <v>1406.06082418646</v>
       </c>
     </row>
     <row r="151" ht="14.250000" customHeight="1">
       <c r="A151" s="1"/>
       <c r="B151" s="16" t="s">
-        <v>445</v>
+        <v>469</v>
       </c>
       <c r="C151" s="17" t="s">
-        <v>446</v>
+        <v>470</v>
       </c>
       <c r="D151" s="18" t="str">
         <v/>
@@ -18312,15 +18856,18 @@
       </c>
       <c r="AJ151" s="20">
         <v>3.6447756101179398</v>
+      </c>
+      <c r="AK151" s="20">
+        <v>3.54734229461525</v>
       </c>
     </row>
     <row r="152" ht="14.250000" customHeight="1">
       <c r="A152" s="1"/>
       <c r="B152" s="16" t="s">
-        <v>447</v>
+        <v>471</v>
       </c>
       <c r="C152" s="17" t="s">
-        <v>448</v>
+        <v>472</v>
       </c>
       <c r="D152" s="18" t="str">
         <v/>
@@ -18420,15 +18967,18 @@
       </c>
       <c r="AJ152" s="22">
         <v>1.23573533274612</v>
+      </c>
+      <c r="AK152" s="22">
+        <v>1.24529257923751</v>
       </c>
     </row>
     <row r="153" ht="24.000000" customHeight="1">
       <c r="A153" s="1"/>
       <c r="B153" s="16" t="s">
-        <v>449</v>
+        <v>473</v>
       </c>
       <c r="C153" s="17" t="s">
-        <v>450</v>
+        <v>474</v>
       </c>
       <c r="D153" s="18" t="str">
         <v/>
@@ -18518,25 +19068,28 @@
         <v>28.732635763306298</v>
       </c>
       <c r="AG153" s="20" t="s">
-        <v>451</v>
+        <v>475</v>
       </c>
       <c r="AH153" s="20" t="s">
-        <v>452</v>
+        <v>476</v>
       </c>
       <c r="AI153" s="20" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="AJ153" s="20" t="s">
-        <v>454</v>
+        <v>478</v>
+      </c>
+      <c r="AK153" s="20" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="154" ht="14.250000" customHeight="1">
       <c r="A154" s="1"/>
       <c r="B154" s="16" t="s">
-        <v>455</v>
+        <v>480</v>
       </c>
       <c r="C154" s="17" t="s">
-        <v>456</v>
+        <v>481</v>
       </c>
       <c r="D154" s="18" t="str">
         <v/>
@@ -18636,15 +19189,18 @@
       </c>
       <c r="AJ154" s="22">
         <v>5.2484768920059404</v>
+      </c>
+      <c r="AK154" s="22">
+        <v>5.1839973457933599</v>
       </c>
     </row>
     <row r="155" ht="14.250000" customHeight="1">
       <c r="A155" s="1"/>
       <c r="B155" s="16" t="s">
-        <v>457</v>
+        <v>482</v>
       </c>
       <c r="C155" s="17" t="s">
-        <v>458</v>
+        <v>483</v>
       </c>
       <c r="D155" s="18" t="str">
         <v/>
@@ -18744,15 +19300,18 @@
       </c>
       <c r="AJ155" s="20">
         <v>810.58924166214399</v>
+      </c>
+      <c r="AK155" s="20">
+        <v>816.85838439890097</v>
       </c>
     </row>
     <row r="156" ht="14.250000" customHeight="1">
       <c r="A156" s="1"/>
       <c r="B156" s="16" t="s">
-        <v>459</v>
+        <v>484</v>
       </c>
       <c r="C156" s="17" t="s">
-        <v>460</v>
+        <v>485</v>
       </c>
       <c r="D156" s="18" t="str">
         <v/>
@@ -18852,15 +19411,18 @@
       </c>
       <c r="AJ156" s="22">
         <v>145.454469113063</v>
+      </c>
+      <c r="AK156" s="22">
+        <v>145.84589012690401</v>
       </c>
     </row>
     <row r="157" ht="14.250000" customHeight="1">
       <c r="A157" s="1"/>
       <c r="B157" s="16" t="s">
-        <v>461</v>
+        <v>486</v>
       </c>
       <c r="C157" s="17" t="s">
-        <v>462</v>
+        <v>487</v>
       </c>
       <c r="D157" s="18" t="str">
         <v/>
@@ -18960,15 +19522,18 @@
       </c>
       <c r="AJ157" s="20">
         <v>20.5727697822092</v>
+      </c>
+      <c r="AK157" s="20" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="158" ht="14.250000" customHeight="1">
       <c r="A158" s="1"/>
       <c r="B158" s="16" t="s">
-        <v>463</v>
+        <v>489</v>
       </c>
       <c r="C158" s="17" t="s">
-        <v>464</v>
+        <v>490</v>
       </c>
       <c r="D158" s="18" t="str">
         <v/>
@@ -19067,16 +19632,19 @@
         <v>14893.1511944412</v>
       </c>
       <c r="AJ158" s="22" t="s">
-        <v>465</v>
+        <v>491</v>
+      </c>
+      <c r="AK158" s="22" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="159" ht="14.250000" customHeight="1">
       <c r="A159" s="1"/>
       <c r="B159" s="16" t="s">
-        <v>466</v>
+        <v>493</v>
       </c>
       <c r="C159" s="17" t="s">
-        <v>467</v>
+        <v>494</v>
       </c>
       <c r="D159" s="18" t="str">
         <v/>
@@ -19176,15 +19744,18 @@
       </c>
       <c r="AJ159" s="20">
         <v>1.8918309906465101</v>
+      </c>
+      <c r="AK159" s="20">
+        <v>1.87093920207913</v>
       </c>
     </row>
     <row r="160" ht="24.000000" customHeight="1">
       <c r="A160" s="1"/>
       <c r="B160" s="16" t="s">
-        <v>468</v>
+        <v>495</v>
       </c>
       <c r="C160" s="17" t="s">
-        <v>469</v>
+        <v>496</v>
       </c>
       <c r="D160" s="18" t="str">
         <v/>
@@ -19284,15 +19855,18 @@
       </c>
       <c r="AJ160" s="22">
         <v>2.50527296978417</v>
+      </c>
+      <c r="AK160" s="22">
+        <v>2.4744947330586999</v>
       </c>
     </row>
     <row r="161" ht="14.250000" customHeight="1">
       <c r="A161" s="1"/>
       <c r="B161" s="16" t="s">
-        <v>470</v>
+        <v>497</v>
       </c>
       <c r="C161" s="17" t="s">
-        <v>471</v>
+        <v>498</v>
       </c>
       <c r="D161" s="18" t="str">
         <v/>
@@ -19392,15 +19966,18 @@
       </c>
       <c r="AJ161" s="20">
         <v>11.3327436264636</v>
+      </c>
+      <c r="AK161" s="20">
+        <v>11.094697369274201</v>
       </c>
     </row>
     <row r="162" ht="14.250000" customHeight="1">
       <c r="A162" s="1"/>
       <c r="B162" s="16" t="s">
-        <v>472</v>
+        <v>499</v>
       </c>
       <c r="C162" s="17" t="s">
-        <v>473</v>
+        <v>500</v>
       </c>
       <c r="D162" s="18" t="str">
         <v/>
@@ -19460,55 +20037,58 @@
         <v>34186.747835284703</v>
       </c>
       <c r="W162" s="22" t="s">
-        <v>474</v>
+        <v>501</v>
       </c>
       <c r="X162" s="22" t="s">
-        <v>475</v>
+        <v>502</v>
       </c>
       <c r="Y162" s="22" t="s">
-        <v>476</v>
+        <v>503</v>
       </c>
       <c r="Z162" s="22" t="s">
-        <v>477</v>
+        <v>504</v>
       </c>
       <c r="AA162" s="22" t="s">
-        <v>478</v>
+        <v>505</v>
       </c>
       <c r="AB162" s="22" t="s">
-        <v>479</v>
+        <v>506</v>
       </c>
       <c r="AC162" s="22" t="s">
-        <v>480</v>
+        <v>507</v>
       </c>
       <c r="AD162" s="22" t="s">
-        <v>481</v>
+        <v>508</v>
       </c>
       <c r="AE162" s="22" t="s">
-        <v>482</v>
+        <v>509</v>
       </c>
       <c r="AF162" s="22" t="s">
-        <v>483</v>
+        <v>510</v>
       </c>
       <c r="AG162" s="22" t="s">
-        <v>484</v>
+        <v>511</v>
       </c>
       <c r="AH162" s="22" t="s">
-        <v>485</v>
+        <v>512</v>
       </c>
       <c r="AI162" s="22" t="s">
-        <v>486</v>
+        <v>513</v>
       </c>
       <c r="AJ162" s="22" t="s">
-        <v>487</v>
+        <v>514</v>
+      </c>
+      <c r="AK162" s="22" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="163" ht="14.250000" customHeight="1">
       <c r="A163" s="1"/>
       <c r="B163" s="16" t="s">
-        <v>488</v>
+        <v>516</v>
       </c>
       <c r="C163" s="17" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="D163" s="18" t="str">
         <v/>
@@ -19608,15 +20188,18 @@
       </c>
       <c r="AJ163" s="20">
         <v>22.261110131716599</v>
+      </c>
+      <c r="AK163" s="20">
+        <v>20.1544723912682</v>
       </c>
     </row>
     <row r="164" ht="14.250000" customHeight="1">
       <c r="A164" s="1"/>
       <c r="B164" s="16" t="s">
-        <v>490</v>
+        <v>518</v>
       </c>
       <c r="C164" s="17" t="s">
-        <v>491</v>
+        <v>519</v>
       </c>
       <c r="D164" s="18" t="str">
         <v/>
@@ -19716,15 +20299,18 @@
       </c>
       <c r="AJ164" s="22">
         <v>604.67212414957203</v>
+      </c>
+      <c r="AK164" s="22" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="165" ht="14.250000" customHeight="1">
       <c r="A165" s="1"/>
       <c r="B165" s="16" t="s">
-        <v>492</v>
+        <v>521</v>
       </c>
       <c r="C165" s="17" t="s">
-        <v>493</v>
+        <v>522</v>
       </c>
       <c r="D165" s="18" t="str">
         <v/>
@@ -19814,25 +20400,28 @@
         <v>268.47785227166298</v>
       </c>
       <c r="AG165" s="20" t="s">
-        <v>494</v>
+        <v>523</v>
       </c>
       <c r="AH165" s="20" t="s">
-        <v>495</v>
+        <v>524</v>
       </c>
       <c r="AI165" s="20" t="s">
-        <v>496</v>
+        <v>525</v>
       </c>
       <c r="AJ165" s="20" t="s">
-        <v>497</v>
+        <v>526</v>
+      </c>
+      <c r="AK165" s="20" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="166" ht="14.250000" customHeight="1">
       <c r="A166" s="1"/>
       <c r="B166" s="16" t="s">
-        <v>498</v>
+        <v>528</v>
       </c>
       <c r="C166" s="17" t="s">
-        <v>499</v>
+        <v>529</v>
       </c>
       <c r="D166" s="18" t="str">
         <v/>
@@ -19932,15 +20521,18 @@
       </c>
       <c r="AJ166" s="22">
         <v>3.77890336224428</v>
+      </c>
+      <c r="AK166" s="22">
+        <v>3.7324780889712201</v>
       </c>
     </row>
     <row r="167" ht="14.250000" customHeight="1">
       <c r="A167" s="1"/>
       <c r="B167" s="16" t="s">
-        <v>500</v>
+        <v>530</v>
       </c>
       <c r="C167" s="17" t="s">
-        <v>501</v>
+        <v>531</v>
       </c>
       <c r="D167" s="18" t="str">
         <v/>
@@ -20040,15 +20632,18 @@
       </c>
       <c r="AJ167" s="20">
         <v>3.77890336224428</v>
+      </c>
+      <c r="AK167" s="20">
+        <v>3.7324780889712201</v>
       </c>
     </row>
     <row r="168" ht="14.250000" customHeight="1">
       <c r="A168" s="1"/>
       <c r="B168" s="16" t="s">
-        <v>502</v>
+        <v>532</v>
       </c>
       <c r="C168" s="17" t="s">
-        <v>503</v>
+        <v>533</v>
       </c>
       <c r="D168" s="18" t="str">
         <v/>
@@ -20148,15 +20743,18 @@
       </c>
       <c r="AJ168" s="22">
         <v>3.77890336224428</v>
+      </c>
+      <c r="AK168" s="22">
+        <v>3.7324780889712201</v>
       </c>
     </row>
     <row r="169" ht="14.250000" customHeight="1">
       <c r="A169" s="1"/>
       <c r="B169" s="16" t="s">
-        <v>504</v>
+        <v>534</v>
       </c>
       <c r="C169" s="17" t="s">
-        <v>505</v>
+        <v>535</v>
       </c>
       <c r="D169" s="18" t="str">
         <v/>
@@ -20249,22 +20847,25 @@
         <v>539.68676880953205</v>
       </c>
       <c r="AH169" s="20" t="s">
-        <v>506</v>
+        <v>536</v>
       </c>
       <c r="AI169" s="20" t="s">
-        <v>507</v>
+        <v>537</v>
       </c>
       <c r="AJ169" s="20" t="s">
-        <v>508</v>
+        <v>538</v>
+      </c>
+      <c r="AK169" s="20" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="170" ht="14.250000" customHeight="1">
       <c r="A170" s="1"/>
       <c r="B170" s="16" t="s">
-        <v>509</v>
+        <v>540</v>
       </c>
       <c r="C170" s="17" t="s">
-        <v>510</v>
+        <v>541</v>
       </c>
       <c r="D170" s="18" t="str">
         <v/>
@@ -20364,15 +20965,18 @@
       </c>
       <c r="AJ170" s="22">
         <v>29.523732212911799</v>
+      </c>
+      <c r="AK170" s="22">
+        <v>29.586109651911901</v>
       </c>
     </row>
     <row r="171" ht="14.250000" customHeight="1">
       <c r="A171" s="1"/>
       <c r="B171" s="16" t="s">
-        <v>511</v>
+        <v>542</v>
       </c>
       <c r="C171" s="17" t="s">
-        <v>512</v>
+        <v>543</v>
       </c>
       <c r="D171" s="18" t="str">
         <v/>
@@ -20472,15 +21076,18 @@
       </c>
       <c r="AJ171" s="20">
         <v>12.649669066036999</v>
+      </c>
+      <c r="AK171" s="20">
+        <v>12.872625729215599</v>
       </c>
     </row>
     <row r="172" ht="14.250000" customHeight="1">
       <c r="A172" s="1"/>
       <c r="B172" s="16" t="s">
-        <v>513</v>
+        <v>544</v>
       </c>
       <c r="C172" s="17" t="s">
-        <v>514</v>
+        <v>545</v>
       </c>
       <c r="D172" s="18" t="str">
         <v/>
@@ -20580,15 +21187,18 @@
       </c>
       <c r="AJ172" s="22">
         <v>1.27740929582235</v>
+      </c>
+      <c r="AK172" s="22">
+        <v>1.2787193452957</v>
       </c>
     </row>
     <row r="173" ht="14.250000" customHeight="1">
       <c r="A173" s="1"/>
       <c r="B173" s="16" t="s">
-        <v>515</v>
+        <v>546</v>
       </c>
       <c r="C173" s="17" t="s">
-        <v>516</v>
+        <v>547</v>
       </c>
       <c r="D173" s="18" t="str">
         <v/>
@@ -20651,52 +21261,55 @@
         <v>609.02699391810199</v>
       </c>
       <c r="X173" s="20" t="s">
-        <v>517</v>
+        <v>548</v>
       </c>
       <c r="Y173" s="20" t="s">
-        <v>518</v>
+        <v>549</v>
       </c>
       <c r="Z173" s="20" t="s">
-        <v>519</v>
+        <v>550</v>
       </c>
       <c r="AA173" s="20" t="s">
-        <v>520</v>
+        <v>551</v>
       </c>
       <c r="AB173" s="20" t="s">
-        <v>521</v>
+        <v>552</v>
       </c>
       <c r="AC173" s="20" t="s">
-        <v>522</v>
+        <v>553</v>
       </c>
       <c r="AD173" s="20" t="s">
-        <v>523</v>
+        <v>554</v>
       </c>
       <c r="AE173" s="20" t="s">
-        <v>524</v>
+        <v>555</v>
       </c>
       <c r="AF173" s="20" t="s">
-        <v>525</v>
+        <v>556</v>
       </c>
       <c r="AG173" s="20" t="s">
-        <v>526</v>
+        <v>557</v>
       </c>
       <c r="AH173" s="20" t="s">
-        <v>527</v>
+        <v>558</v>
       </c>
       <c r="AI173" s="20" t="s">
-        <v>528</v>
+        <v>559</v>
       </c>
       <c r="AJ173" s="20" t="s">
-        <v>529</v>
+        <v>560</v>
+      </c>
+      <c r="AK173" s="20" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="174" ht="14.250000" customHeight="1">
       <c r="A174" s="1"/>
       <c r="B174" s="16" t="s">
-        <v>530</v>
+        <v>562</v>
       </c>
       <c r="C174" s="17" t="s">
-        <v>531</v>
+        <v>563</v>
       </c>
       <c r="D174" s="18" t="str">
         <v/>
@@ -20796,15 +21409,18 @@
       </c>
       <c r="AJ174" s="22">
         <v>38.754753370571898</v>
+      </c>
+      <c r="AK174" s="22" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="175" ht="14.250000" customHeight="1">
       <c r="A175" s="1"/>
       <c r="B175" s="16" t="s">
-        <v>532</v>
+        <v>565</v>
       </c>
       <c r="C175" s="17" t="s">
-        <v>533</v>
+        <v>566</v>
       </c>
       <c r="D175" s="18" t="str">
         <v/>
@@ -20904,15 +21520,18 @@
       </c>
       <c r="AJ175" s="20">
         <v>15.8154103679112</v>
+      </c>
+      <c r="AK175" s="20">
+        <v>17.915894827061901</v>
       </c>
     </row>
     <row r="176" ht="14.250000" customHeight="1">
       <c r="A176" s="1"/>
       <c r="B176" s="16" t="s">
-        <v>534</v>
+        <v>567</v>
       </c>
       <c r="C176" s="17" t="s">
-        <v>535</v>
+        <v>568</v>
       </c>
       <c r="D176" s="18" t="str">
         <v/>
@@ -21010,17 +21629,20 @@
       <c r="AI176" s="22">
         <v>3236.0403722835299</v>
       </c>
-      <c r="AJ176" s="22" t="s">
-        <v>536</v>
+      <c r="AJ176" s="22">
+        <v>3215.7195507863598</v>
+      </c>
+      <c r="AK176" s="22">
+        <v>3177.5199838820399</v>
       </c>
     </row>
     <row r="177" ht="14.250000" customHeight="1">
       <c r="A177" s="1"/>
       <c r="B177" s="16" t="s">
-        <v>537</v>
+        <v>569</v>
       </c>
       <c r="C177" s="17" t="s">
-        <v>538</v>
+        <v>570</v>
       </c>
       <c r="D177" s="18" t="str">
         <v/>
@@ -21120,15 +21742,18 @@
       </c>
       <c r="AJ177" s="20">
         <v>46.7742861021732</v>
+      </c>
+      <c r="AK177" s="20">
+        <v>46.030163952556101</v>
       </c>
     </row>
     <row r="178" ht="14.250000" customHeight="1">
       <c r="A178" s="1"/>
       <c r="B178" s="16" t="s">
-        <v>539</v>
+        <v>571</v>
       </c>
       <c r="C178" s="17" t="s">
-        <v>540</v>
+        <v>572</v>
       </c>
       <c r="D178" s="18" t="str">
         <v/>
@@ -21228,15 +21853,18 @@
       </c>
       <c r="AJ178" s="22">
         <v>1.39959383786825</v>
+      </c>
+      <c r="AK178" s="22">
+        <v>1.38239929221156</v>
       </c>
     </row>
     <row r="179" ht="14.250000" customHeight="1">
       <c r="A179" s="1"/>
       <c r="B179" s="16" t="s">
-        <v>541</v>
+        <v>573</v>
       </c>
       <c r="C179" s="17" t="s">
-        <v>542</v>
+        <v>574</v>
       </c>
       <c r="D179" s="18" t="str">
         <v/>
@@ -21336,15 +21964,18 @@
       </c>
       <c r="AJ179" s="20">
         <v>810.58924166214399</v>
+      </c>
+      <c r="AK179" s="20">
+        <v>816.85838439890097</v>
       </c>
     </row>
     <row r="180" ht="14.250000" customHeight="1">
       <c r="A180" s="1"/>
       <c r="B180" s="16" t="s">
-        <v>543</v>
+        <v>575</v>
       </c>
       <c r="C180" s="17" t="s">
-        <v>544</v>
+        <v>576</v>
       </c>
       <c r="D180" s="18" t="str">
         <v/>
@@ -21437,22 +22068,25 @@
         <v>3.24675246141864</v>
       </c>
       <c r="AH180" s="22">
-        <v>3.1989765465710098</v>
+        <v>3.2097741721782498</v>
       </c>
       <c r="AI180" s="22">
-        <v>3.1759949984532398</v>
+        <v>3.2063527112286199</v>
       </c>
       <c r="AJ180" s="22">
-        <v>3.1983405801376801</v>
+        <v>3.1830653578991401</v>
+      </c>
+      <c r="AK180" s="22" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="181" ht="14.250000" customHeight="1">
       <c r="A181" s="1"/>
       <c r="B181" s="16" t="s">
-        <v>545</v>
+        <v>578</v>
       </c>
       <c r="C181" s="17" t="s">
-        <v>546</v>
+        <v>579</v>
       </c>
       <c r="D181" s="18" t="str">
         <v/>
@@ -21552,15 +22186,18 @@
       </c>
       <c r="AJ181" s="20">
         <v>9.4774896325086502</v>
+      </c>
+      <c r="AK181" s="20">
+        <v>9.3374160192429994</v>
       </c>
     </row>
     <row r="182" ht="14.250000" customHeight="1">
       <c r="A182" s="1"/>
       <c r="B182" s="16" t="s">
-        <v>547</v>
+        <v>580</v>
       </c>
       <c r="C182" s="17" t="s">
-        <v>548</v>
+        <v>581</v>
       </c>
       <c r="D182" s="18" t="str">
         <v/>
@@ -21660,15 +22297,18 @@
       </c>
       <c r="AJ182" s="22">
         <v>4.0399276130067099</v>
+      </c>
+      <c r="AK182" s="22">
+        <v>4.09065774558323</v>
       </c>
     </row>
     <row r="183" ht="14.250000" customHeight="1">
       <c r="A183" s="1"/>
       <c r="B183" s="16" t="s">
-        <v>549</v>
+        <v>582</v>
       </c>
       <c r="C183" s="17" t="s">
-        <v>550</v>
+        <v>583</v>
       </c>
       <c r="D183" s="18" t="str">
         <v/>
@@ -21766,17 +22406,20 @@
       <c r="AI183" s="20">
         <v>12.470272813854301</v>
       </c>
-      <c r="AJ183" s="20" t="s">
-        <v>551</v>
+      <c r="AJ183" s="20">
+        <v>18.179604278838301</v>
+      </c>
+      <c r="AK183" s="20">
+        <v>20.264591224529301</v>
       </c>
     </row>
     <row r="184" ht="14.250000" customHeight="1">
       <c r="A184" s="1"/>
       <c r="B184" s="16" t="s">
-        <v>552</v>
+        <v>584</v>
       </c>
       <c r="C184" s="17" t="s">
-        <v>553</v>
+        <v>585</v>
       </c>
       <c r="D184" s="18" t="str">
         <v/>
@@ -21876,15 +22519,18 @@
       </c>
       <c r="AJ184" s="22">
         <v>4960.7343948786101</v>
+      </c>
+      <c r="AK184" s="22">
+        <v>4960.2698443418403</v>
       </c>
     </row>
     <row r="185" ht="14.250000" customHeight="1">
       <c r="A185" s="1"/>
       <c r="B185" s="16" t="s">
-        <v>554</v>
+        <v>586</v>
       </c>
       <c r="C185" s="17" t="s">
-        <v>555</v>
+        <v>587</v>
       </c>
       <c r="D185" s="18" t="str">
         <v/>
@@ -21984,15 +22630,18 @@
       </c>
       <c r="AJ185" s="20">
         <v>38.178400628137702</v>
+      </c>
+      <c r="AK185" s="20">
+        <v>40.441953053719999</v>
       </c>
     </row>
     <row r="186" ht="14.250000" customHeight="1">
       <c r="A186" s="1"/>
       <c r="B186" s="16" t="s">
-        <v>556</v>
+        <v>588</v>
       </c>
       <c r="C186" s="17" t="s">
-        <v>557</v>
+        <v>589</v>
       </c>
       <c r="D186" s="18" t="str">
         <v/>
@@ -22092,15 +22741,18 @@
       </c>
       <c r="AJ186" s="22">
         <v>5.1400083695711496</v>
+      </c>
+      <c r="AK186" s="22">
+        <v>5.0768614006469601</v>
       </c>
     </row>
     <row r="187" ht="14.250000" customHeight="1">
       <c r="A187" s="1"/>
       <c r="B187" s="16" t="s">
-        <v>558</v>
+        <v>590</v>
       </c>
       <c r="C187" s="17" t="s">
-        <v>559</v>
+        <v>591</v>
       </c>
       <c r="D187" s="18" t="str">
         <v/>
@@ -22200,15 +22852,18 @@
       </c>
       <c r="AJ187" s="20">
         <v>1.0418295651840499</v>
+      </c>
+      <c r="AK187" s="20">
+        <v>1.05321648105715</v>
       </c>
     </row>
     <row r="188" ht="14.250000" customHeight="1">
       <c r="A188" s="1"/>
       <c r="B188" s="16" t="s">
-        <v>560</v>
+        <v>592</v>
       </c>
       <c r="C188" s="17" t="s">
-        <v>561</v>
+        <v>593</v>
       </c>
       <c r="D188" s="18" t="str">
         <v/>
@@ -22308,15 +22963,18 @@
       </c>
       <c r="AJ188" s="22">
         <v>1.39959383786825</v>
+      </c>
+      <c r="AK188" s="22">
+        <v>1.38239929221156</v>
       </c>
     </row>
     <row r="189" ht="14.250000" customHeight="1">
       <c r="A189" s="1"/>
       <c r="B189" s="16" t="s">
-        <v>562</v>
+        <v>594</v>
       </c>
       <c r="C189" s="17" t="s">
-        <v>563</v>
+        <v>595</v>
       </c>
       <c r="D189" s="18" t="str">
         <v/>
@@ -22416,15 +23074,18 @@
       </c>
       <c r="AJ189" s="20">
         <v>62.554846583521503</v>
+      </c>
+      <c r="AK189" s="20">
+        <v>56.837346899278401</v>
       </c>
     </row>
     <row r="190" ht="14.250000" customHeight="1">
       <c r="A190" s="1"/>
       <c r="B190" s="16" t="s">
-        <v>564</v>
+        <v>596</v>
       </c>
       <c r="C190" s="17" t="s">
-        <v>565</v>
+        <v>597</v>
       </c>
       <c r="D190" s="18" t="str">
         <v/>
@@ -22524,15 +23185,18 @@
       </c>
       <c r="AJ190" s="22">
         <v>15168.3221529112</v>
+      </c>
+      <c r="AK190" s="22">
+        <v>15759.6422350632</v>
       </c>
     </row>
     <row r="191" ht="14.250000" customHeight="1">
       <c r="A191" s="1"/>
       <c r="B191" s="16" t="s">
-        <v>566</v>
+        <v>598</v>
       </c>
       <c r="C191" s="17" t="s">
-        <v>567</v>
+        <v>599</v>
       </c>
       <c r="D191" s="18" t="str">
         <v/>
@@ -22631,16 +23295,19 @@
         <v>158.28669969061201</v>
       </c>
       <c r="AJ191" s="20" t="s">
-        <v>568</v>
+        <v>600</v>
+      </c>
+      <c r="AK191" s="20" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="192" ht="14.250000" customHeight="1">
       <c r="A192" s="1"/>
       <c r="B192" s="16" t="s">
-        <v>569</v>
+        <v>602</v>
       </c>
       <c r="C192" s="17" t="s">
-        <v>570</v>
+        <v>603</v>
       </c>
       <c r="D192" s="18" t="str">
         <v/>
@@ -22700,55 +23367,58 @@
         <v>134693.395297546</v>
       </c>
       <c r="W192" s="22" t="s">
-        <v>571</v>
+        <v>604</v>
       </c>
       <c r="X192" s="22" t="s">
-        <v>572</v>
+        <v>605</v>
       </c>
       <c r="Y192" s="22" t="s">
-        <v>573</v>
+        <v>606</v>
       </c>
       <c r="Z192" s="22" t="s">
-        <v>574</v>
+        <v>607</v>
       </c>
       <c r="AA192" s="22" t="s">
-        <v>575</v>
+        <v>608</v>
       </c>
       <c r="AB192" s="22" t="s">
-        <v>576</v>
+        <v>609</v>
       </c>
       <c r="AC192" s="22" t="s">
-        <v>577</v>
+        <v>610</v>
       </c>
       <c r="AD192" s="22" t="s">
-        <v>578</v>
+        <v>611</v>
       </c>
       <c r="AE192" s="22" t="s">
-        <v>579</v>
+        <v>612</v>
       </c>
       <c r="AF192" s="22" t="s">
-        <v>580</v>
+        <v>613</v>
       </c>
       <c r="AG192" s="22" t="s">
-        <v>581</v>
+        <v>614</v>
       </c>
       <c r="AH192" s="22" t="s">
-        <v>582</v>
+        <v>615</v>
       </c>
       <c r="AI192" s="22" t="s">
-        <v>583</v>
+        <v>616</v>
       </c>
       <c r="AJ192" s="22" t="s">
-        <v>584</v>
+        <v>617</v>
+      </c>
+      <c r="AK192" s="22" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="193" ht="14.250000" customHeight="1">
       <c r="A193" s="1"/>
       <c r="B193" s="16" t="s">
-        <v>585</v>
+        <v>619</v>
       </c>
       <c r="C193" s="17" t="s">
-        <v>586</v>
+        <v>620</v>
       </c>
       <c r="D193" s="18" t="str">
         <v/>
@@ -22848,15 +23518,18 @@
       </c>
       <c r="AJ193" s="20">
         <v>32393.599377460701</v>
+      </c>
+      <c r="AK193" s="20">
+        <v>31933.423650087101</v>
       </c>
     </row>
     <row r="194" ht="14.250000" customHeight="1">
       <c r="A194" s="1"/>
       <c r="B194" s="16" t="s">
-        <v>587</v>
+        <v>621</v>
       </c>
       <c r="C194" s="17" t="s">
-        <v>588</v>
+        <v>622</v>
       </c>
       <c r="D194" s="18" t="str">
         <v/>
@@ -22956,15 +23629,18 @@
       </c>
       <c r="AJ194" s="22">
         <v>1332.4133336505699</v>
+      </c>
+      <c r="AK194" s="22">
+        <v>1686.5271364981099</v>
       </c>
     </row>
     <row r="195" ht="14.250000" customHeight="1">
       <c r="A195" s="1"/>
       <c r="B195" s="16" t="s">
-        <v>589</v>
+        <v>623</v>
       </c>
       <c r="C195" s="17" t="s">
-        <v>590</v>
+        <v>624</v>
       </c>
       <c r="D195" s="18" t="str">
         <v/>
@@ -23064,78 +23740,81 @@
       </c>
       <c r="AJ195" s="20">
         <v>23.335865431851701</v>
+      </c>
+      <c r="AK195" s="20" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="196" ht="14.250000" customHeight="1">
       <c r="A196" s="1"/>
       <c r="B196" s="16" t="s">
-        <v>591</v>
+        <v>626</v>
       </c>
       <c r="C196" s="17" t="s">
-        <v>592</v>
+        <v>627</v>
       </c>
       <c r="D196" s="18" t="str">
         <v/>
       </c>
       <c r="E196" s="21" t="s">
-        <v>593</v>
+        <v>628</v>
       </c>
       <c r="F196" s="22" t="s">
-        <v>594</v>
+        <v>629</v>
       </c>
       <c r="G196" s="22" t="s">
-        <v>595</v>
+        <v>630</v>
       </c>
       <c r="H196" s="22" t="s">
-        <v>596</v>
+        <v>631</v>
       </c>
       <c r="I196" s="22" t="s">
-        <v>597</v>
+        <v>632</v>
       </c>
       <c r="J196" s="22" t="s">
-        <v>598</v>
+        <v>633</v>
       </c>
       <c r="K196" s="22" t="s">
-        <v>599</v>
+        <v>634</v>
       </c>
       <c r="L196" s="22" t="s">
-        <v>600</v>
+        <v>635</v>
       </c>
       <c r="M196" s="22" t="s">
-        <v>601</v>
+        <v>636</v>
       </c>
       <c r="N196" s="22" t="s">
-        <v>602</v>
+        <v>637</v>
       </c>
       <c r="O196" s="22" t="s">
-        <v>603</v>
+        <v>638</v>
       </c>
       <c r="P196" s="22" t="s">
-        <v>604</v>
+        <v>639</v>
       </c>
       <c r="Q196" s="22" t="s">
-        <v>605</v>
+        <v>640</v>
       </c>
       <c r="R196" s="22" t="s">
-        <v>606</v>
+        <v>641</v>
       </c>
       <c r="S196" s="22" t="s">
-        <v>607</v>
+        <v>642</v>
       </c>
       <c r="T196" s="22" t="s">
-        <v>608</v>
+        <v>643</v>
       </c>
       <c r="U196" s="22" t="s">
-        <v>609</v>
+        <v>644</v>
       </c>
       <c r="V196" s="22" t="s">
-        <v>610</v>
+        <v>645</v>
       </c>
       <c r="W196" s="22" t="s">
-        <v>611</v>
+        <v>646</v>
       </c>
       <c r="X196" s="22" t="s">
-        <v>612</v>
+        <v>647</v>
       </c>
       <c r="Y196" s="22">
         <v>4.1814110457553504</v>
@@ -23172,15 +23851,18 @@
       </c>
       <c r="AJ196" s="22">
         <v>152.088263985791</v>
+      </c>
+      <c r="AK196" s="22">
+        <v>196.88642207415199</v>
       </c>
     </row>
     <row r="197" ht="24.000000" customHeight="1">
       <c r="A197" s="1"/>
       <c r="B197" s="16" t="s">
-        <v>613</v>
+        <v>648</v>
       </c>
       <c r="C197" s="17" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="D197" s="18" t="str">
         <v/>
@@ -23280,15 +23962,18 @@
       </c>
       <c r="AJ197" s="20">
         <v>810.58924166214399</v>
+      </c>
+      <c r="AK197" s="20">
+        <v>816.85838439890097</v>
       </c>
     </row>
     <row r="198" ht="24.000000" customHeight="1">
       <c r="A198" s="1"/>
       <c r="B198" s="16" t="s">
-        <v>615</v>
+        <v>650</v>
       </c>
       <c r="C198" s="17" t="s">
-        <v>616</v>
+        <v>651</v>
       </c>
       <c r="D198" s="18" t="str">
         <v/>
@@ -23388,15 +24073,18 @@
       </c>
       <c r="AJ198" s="22">
         <v>3.77890336224428</v>
+      </c>
+      <c r="AK198" s="22">
+        <v>3.7324780889712201</v>
       </c>
     </row>
     <row r="199" ht="24.000000" customHeight="1">
       <c r="A199" s="1"/>
       <c r="B199" s="23" t="s">
-        <v>617</v>
+        <v>652</v>
       </c>
       <c r="C199" s="24" t="s">
-        <v>618</v>
+        <v>653</v>
       </c>
       <c r="D199" s="25" t="str">
         <v/>
@@ -23496,6 +24184,9 @@
       </c>
       <c r="AJ199" s="20">
         <v>810.58924166214399</v>
+      </c>
+      <c r="AK199" s="20">
+        <v>816.85838439890097</v>
       </c>
     </row>
   </sheetData>

--- a/FOREX/data/FOREX_3Q.xlsx
+++ b/FOREX/data/FOREX_3Q.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="644">
   <si>
     <t xml:space="preserve"> Monetary and Financial Statistics by Indicator</t>
   </si>
@@ -566,42 +566,168 @@
     <t>Units</t>
   </si>
   <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Eritrea, The State of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Eswatini, Kingdom of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Ethiopia, The Federal Dem. Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>El Salvador</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Euro Area</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Equatorial Guinea, Rep. of</t>
+    <t>Faroe Islands</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Eritrea, The State of</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Fiji, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Eswatini, Kingdom of</t>
+    <t>French Polynesia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Ethiopia, The Federal Dem. Rep. of</t>
+    <t>Gabon</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Gambia, The</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Greenland</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
@@ -611,18 +737,78 @@
     <t>...</t>
   </si>
   <si>
-    <t>Euro Area</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Grenada</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Faroe Islands</t>
+    <t>Guatemala</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Guernsey</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
@@ -635,9 +821,87 @@
     <t>...</t>
   </si>
   <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Iran, Islamic Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
+    <t>Isle of Man</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
@@ -647,6 +911,90 @@
     <t>...</t>
   </si>
   <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Jersey</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Kazakhstan, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Korea, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Kosovo, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Kyrgyz Rep.</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Lao People's Dem. Rep.</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Lesotho, Kingdom of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
@@ -656,6 +1004,12 @@
     <t>...</t>
   </si>
   <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
@@ -674,90 +1028,399 @@
     <t>...</t>
   </si>
   <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
     <t>...</t>
   </si>
   <si>
-    <t>Fiji, Rep. of</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Madagascar, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>French Polynesia</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Gabon</t>
+    <t>Maldives</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Gambia, The</t>
+    <t>Mali</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Mauritania, Islamic Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Georgia</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Ghana</t>
+    <t>Mexico</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Micronesia, Federated States of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Moldova, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Mozambique, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
     <t>...</t>
   </si>
   <si>
-    <t>Gibraltar</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Namibia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Greenland</t>
+    <t>Nauru, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
+    <t>New Caledonia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
     <t>...</t>
   </si>
   <si>
+    <t>North Macedonia, Republic of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Palau, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Poland, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>San Marino, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>São Tomé and Príncipe, Dem. Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
@@ -773,6 +1436,60 @@
     <t>...</t>
   </si>
   <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Serbia, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Sint Maarten, Kingdom of the Netherlands</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
@@ -797,30 +1514,87 @@
     <t>...</t>
   </si>
   <si>
-    <t>Grenada</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>South Africa</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Guatemala</t>
+    <t>South Sudan, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Guernsey</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Guinea</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>St. Kitts and Nevis</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>St. Lucia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>St. Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
@@ -833,880 +1607,76 @@
     <t>...</t>
   </si>
   <si>
-    <t>Guinea-Bissau</t>
+    <t>Suriname</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Guyana</t>
+    <t>Sweden</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Syrian Arab Rep.</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Haiti</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Taiwan Province of China</t>
   </si>
   <si>
     <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Honduras</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Hungary</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Iceland</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Iran, Islamic Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Isle of Man</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Jersey</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Kazakhstan, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Kenya</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Kiribati</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Korea, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Kosovo, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Kuwait</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Kyrgyz Rep.</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Lao People's Dem. Rep.</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Lesotho, Kingdom of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Liberia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Libya</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Lithuania</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Madagascar, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Malawi</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Maldives</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Mali</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Mauritania, Islamic Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Mauritius</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Micronesia, Federated States of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Moldova, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Mongolia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Montenegro</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Montserrat</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Morocco</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Mozambique, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Namibia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Nauru, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Nepal</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>New Caledonia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Nicaragua</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Niger</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>North Macedonia, Republic of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Oman</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Palau, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Panama</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Papua New Guinea</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Paraguay</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Poland, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Qatar</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Russian Federation</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Samoa</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>San Marino, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>São Tomé and Príncipe, Dem. Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Senegal</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Serbia, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Seychelles</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Sierra Leone</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Sint Maarten, Kingdom of the Netherlands</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Solomon Islands</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Somalia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>South Sudan, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>St. Kitts and Nevis</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>St. Lucia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>St. Vincent and the Grenadines</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Sudan</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Suriname</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Syrian Arab Rep.</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Taiwan Province of China</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
   </si>
   <si>
     <t>Tajikistan, Rep. of</t>
@@ -9089,17 +9059,17 @@
       <c r="AJ63" s="20">
         <v>21.919179054238501</v>
       </c>
-      <c r="AK63" s="20" t="s">
-        <v>184</v>
+      <c r="AK63" s="20">
+        <v>25.185379745085601</v>
       </c>
     </row>
     <row r="64" ht="14.250000" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="C64" s="17" t="s">
         <v>185</v>
-      </c>
-      <c r="C64" s="17" t="s">
-        <v>186</v>
       </c>
       <c r="D64" s="18" t="str">
         <v/>
@@ -9207,10 +9177,10 @@
     <row r="65" ht="14.250000" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="C65" s="17" t="s">
         <v>187</v>
-      </c>
-      <c r="C65" s="17" t="s">
-        <v>188</v>
       </c>
       <c r="D65" s="18" t="str">
         <v/>
@@ -9318,10 +9288,10 @@
     <row r="66" ht="14.250000" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C66" s="17" t="s">
         <v>189</v>
-      </c>
-      <c r="C66" s="17" t="s">
-        <v>190</v>
       </c>
       <c r="D66" s="18" t="str">
         <v/>
@@ -9429,10 +9399,10 @@
     <row r="67" ht="14.250000" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="C67" s="17" t="s">
         <v>191</v>
-      </c>
-      <c r="C67" s="17" t="s">
-        <v>192</v>
       </c>
       <c r="D67" s="18" t="str">
         <v/>
@@ -9540,10 +9510,10 @@
     <row r="68" ht="24.000000" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="C68" s="17" t="s">
         <v>193</v>
-      </c>
-      <c r="C68" s="17" t="s">
-        <v>194</v>
       </c>
       <c r="D68" s="18" t="str">
         <v/>
@@ -9636,25 +9606,25 @@
         <v>58.554051583516703</v>
       </c>
       <c r="AH68" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI68" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="AI68" s="22" t="s">
+      <c r="AJ68" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="AJ68" s="22" t="s">
+      <c r="AK68" s="22" t="s">
         <v>197</v>
-      </c>
-      <c r="AK68" s="22" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="69" ht="14.250000" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="C69" s="17" t="s">
         <v>199</v>
-      </c>
-      <c r="C69" s="17" t="s">
-        <v>200</v>
       </c>
       <c r="D69" s="18" t="str">
         <v/>
@@ -9762,10 +9732,10 @@
     <row r="70" ht="14.250000" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="C70" s="17" t="s">
         <v>201</v>
-      </c>
-      <c r="C70" s="17" t="s">
-        <v>202</v>
       </c>
       <c r="D70" s="18" t="str">
         <v/>
@@ -9813,70 +9783,70 @@
         <v>9.0669772243765507</v>
       </c>
       <c r="S70" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="T70" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="T70" s="22" t="s">
+      <c r="U70" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="U70" s="22" t="s">
+      <c r="V70" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="V70" s="22" t="s">
+      <c r="W70" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="W70" s="22" t="s">
+      <c r="X70" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="X70" s="22" t="s">
+      <c r="Y70" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="Y70" s="22" t="s">
+      <c r="Z70" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="Z70" s="22" t="s">
+      <c r="AA70" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="AA70" s="22" t="s">
+      <c r="AB70" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="AB70" s="22" t="s">
+      <c r="AC70" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="AC70" s="22" t="s">
+      <c r="AD70" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="AD70" s="22" t="s">
+      <c r="AE70" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="AE70" s="22" t="s">
+      <c r="AF70" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="AF70" s="22" t="s">
+      <c r="AG70" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="AG70" s="22" t="s">
+      <c r="AH70" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="AH70" s="22" t="s">
+      <c r="AI70" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="AI70" s="22" t="s">
+      <c r="AJ70" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="AJ70" s="22" t="s">
+      <c r="AK70" s="22" t="s">
         <v>220</v>
-      </c>
-      <c r="AK70" s="22" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="71" ht="14.250000" customHeight="1">
       <c r="A71" s="1"/>
       <c r="B71" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="C71" s="17" t="s">
         <v>222</v>
-      </c>
-      <c r="C71" s="17" t="s">
-        <v>223</v>
       </c>
       <c r="D71" s="18" t="str">
         <v/>
@@ -9977,17 +9947,17 @@
       <c r="AJ71" s="20">
         <v>2.9639198704535898</v>
       </c>
-      <c r="AK71" s="20" t="s">
-        <v>224</v>
+      <c r="AK71" s="20">
+        <v>2.8914263595896998</v>
       </c>
     </row>
     <row r="72" ht="14.250000" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="16" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D72" s="18" t="str">
         <v/>
@@ -10095,10 +10065,10 @@
     <row r="73" ht="14.250000" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="16" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D73" s="18" t="str">
         <v/>
@@ -10206,10 +10176,10 @@
     <row r="74" ht="14.250000" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="16" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C74" s="17" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D74" s="18" t="str">
         <v/>
@@ -10311,16 +10281,16 @@
         <v>73.632631810248697</v>
       </c>
       <c r="AK74" s="22" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="75" ht="14.250000" customHeight="1">
       <c r="A75" s="1"/>
       <c r="B75" s="16" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D75" s="18" t="str">
         <v/>
@@ -10428,10 +10398,10 @@
     <row r="76" ht="14.250000" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="16" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D76" s="18" t="str">
         <v/>
@@ -10529,20 +10499,20 @@
       <c r="AI76" s="22">
         <v>8.2648621842014798</v>
       </c>
-      <c r="AJ76" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="AK76" s="22" t="s">
-        <v>237</v>
+      <c r="AJ76" s="22">
+        <v>8.4061005496205006</v>
+      </c>
+      <c r="AK76" s="22">
+        <v>9.8319002460670699</v>
       </c>
     </row>
     <row r="77" ht="14.250000" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="16" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D77" s="18" t="str">
         <v/>
@@ -10650,10 +10620,10 @@
     <row r="78" ht="14.250000" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="16" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D78" s="18" t="str">
         <v/>
@@ -10701,70 +10671,70 @@
         <v>9.0669772243765507</v>
       </c>
       <c r="S78" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="T78" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="U78" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="V78" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="W78" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="T78" s="22" t="s">
+      <c r="X78" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="U78" s="22" t="s">
+      <c r="Y78" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="V78" s="22" t="s">
+      <c r="Z78" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="W78" s="22" t="s">
+      <c r="AA78" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="X78" s="22" t="s">
+      <c r="AB78" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="Y78" s="22" t="s">
+      <c r="AC78" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="Z78" s="22" t="s">
+      <c r="AD78" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="AA78" s="22" t="s">
+      <c r="AE78" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="AB78" s="22" t="s">
+      <c r="AF78" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="AC78" s="22" t="s">
+      <c r="AG78" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="AD78" s="22" t="s">
+      <c r="AH78" s="22" t="s">
         <v>253</v>
       </c>
-      <c r="AE78" s="22" t="s">
+      <c r="AI78" s="22" t="s">
         <v>254</v>
       </c>
-      <c r="AF78" s="22" t="s">
+      <c r="AJ78" s="22" t="s">
         <v>255</v>
       </c>
-      <c r="AG78" s="22" t="s">
+      <c r="AK78" s="22" t="s">
         <v>256</v>
-      </c>
-      <c r="AH78" s="22" t="s">
-        <v>257</v>
-      </c>
-      <c r="AI78" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="AJ78" s="22" t="s">
-        <v>259</v>
-      </c>
-      <c r="AK78" s="22" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="79" ht="14.250000" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="16" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D79" s="18" t="str">
         <v/>
@@ -10872,10 +10842,10 @@
     <row r="80" ht="14.250000" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="16" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D80" s="18" t="str">
         <v/>
@@ -10983,10 +10953,10 @@
     <row r="81" ht="14.250000" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="16" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D81" s="18" t="str">
         <v/>
@@ -11094,10 +11064,10 @@
     <row r="82" ht="14.250000" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="16" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D82" s="18" t="str">
         <v/>
@@ -11190,25 +11160,25 @@
         <v>14112.511532525599</v>
       </c>
       <c r="AH82" s="22" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="AI82" s="22" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="AJ82" s="22" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="AK82" s="22" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="83" ht="14.250000" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="16" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D83" s="18" t="str">
         <v/>
@@ -11316,10 +11286,10 @@
     <row r="84" ht="14.250000" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="16" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D84" s="18" t="str">
         <v/>
@@ -11420,17 +11390,17 @@
       <c r="AJ84" s="22">
         <v>291.81531519552999</v>
       </c>
-      <c r="AK84" s="22" t="s">
-        <v>277</v>
+      <c r="AK84" s="22">
+        <v>288.23025242611101</v>
       </c>
     </row>
     <row r="85" ht="14.250000" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="16" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D85" s="18" t="str">
         <v/>
@@ -11531,17 +11501,17 @@
       <c r="AJ85" s="20">
         <v>139.772817928237</v>
       </c>
-      <c r="AK85" s="20" t="s">
-        <v>280</v>
+      <c r="AK85" s="20">
+        <v>144.98603776714901</v>
       </c>
     </row>
     <row r="86" ht="14.250000" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="16" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D86" s="18" t="str">
         <v/>
@@ -11649,10 +11619,10 @@
     <row r="87" ht="14.250000" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="16" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D87" s="18" t="str">
         <v/>
@@ -11760,10 +11730,10 @@
     <row r="88" ht="14.250000" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="16" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D88" s="18" t="str">
         <v/>
@@ -11871,10 +11841,10 @@
     <row r="89" ht="14.250000" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="16" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D89" s="18" t="str">
         <v/>
@@ -11982,10 +11952,10 @@
     <row r="90" ht="14.250000" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="16" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D90" s="18" t="str">
         <v/>
@@ -12093,10 +12063,10 @@
     <row r="91" ht="14.250000" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="16" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D91" s="18" t="str">
         <v/>
@@ -12204,10 +12174,10 @@
     <row r="92" ht="14.250000" customHeight="1">
       <c r="A92" s="1"/>
       <c r="B92" s="16" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D92" s="18" t="str">
         <v/>
@@ -12309,16 +12279,16 @@
         <v>2029.41106490896</v>
       </c>
       <c r="AK92" s="22" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="93" ht="14.250000" customHeight="1">
       <c r="A93" s="1"/>
       <c r="B93" s="16" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C93" s="17" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D93" s="18" t="str">
         <v/>
@@ -12426,10 +12396,10 @@
     <row r="94" ht="14.250000" customHeight="1">
       <c r="A94" s="1"/>
       <c r="B94" s="16" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D94" s="18" t="str">
         <v/>
@@ -12537,10 +12507,10 @@
     <row r="95" ht="14.250000" customHeight="1">
       <c r="A95" s="1"/>
       <c r="B95" s="16" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D95" s="18" t="str">
         <v/>
@@ -12636,22 +12606,22 @@
         <v>209.28972661164499</v>
       </c>
       <c r="AI95" s="20" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="AJ95" s="20" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AK95" s="20" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="96" ht="14.250000" customHeight="1">
       <c r="A96" s="1"/>
       <c r="B96" s="16" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D96" s="18" t="str">
         <v/>
@@ -12759,10 +12729,10 @@
     <row r="97" ht="14.250000" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="16" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D97" s="18" t="str">
         <v/>
@@ -12870,10 +12840,10 @@
     <row r="98" ht="14.250000" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="16" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D98" s="18" t="str">
         <v/>
@@ -12981,10 +12951,10 @@
     <row r="99" ht="14.250000" customHeight="1">
       <c r="A99" s="1"/>
       <c r="B99" s="16" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D99" s="18" t="str">
         <v/>
@@ -13092,10 +13062,10 @@
     <row r="100" ht="14.250000" customHeight="1">
       <c r="A100" s="1"/>
       <c r="B100" s="16" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D100" s="18" t="str">
         <v/>
@@ -13203,10 +13173,10 @@
     <row r="101" ht="14.250000" customHeight="1">
       <c r="A101" s="1"/>
       <c r="B101" s="16" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D101" s="18" t="str">
         <v/>
@@ -13314,10 +13284,10 @@
     <row r="102" ht="14.250000" customHeight="1">
       <c r="A102" s="1"/>
       <c r="B102" s="16" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D102" s="18" t="str">
         <v/>
@@ -13425,10 +13395,10 @@
     <row r="103" ht="14.250000" customHeight="1">
       <c r="A103" s="1"/>
       <c r="B103" s="16" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="D103" s="18" t="str">
         <v/>
@@ -13536,10 +13506,10 @@
     <row r="104" ht="14.250000" customHeight="1">
       <c r="A104" s="1"/>
       <c r="B104" s="16" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="D104" s="18" t="str">
         <v/>
@@ -13647,10 +13617,10 @@
     <row r="105" ht="14.250000" customHeight="1">
       <c r="A105" s="1"/>
       <c r="B105" s="16" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D105" s="18" t="str">
         <v/>
@@ -13758,10 +13728,10 @@
     <row r="106" ht="14.250000" customHeight="1">
       <c r="A106" s="1"/>
       <c r="B106" s="16" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="D106" s="18" t="str">
         <v/>
@@ -13869,10 +13839,10 @@
     <row r="107" ht="14.250000" customHeight="1">
       <c r="A107" s="1"/>
       <c r="B107" s="16" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="D107" s="18" t="str">
         <v/>
@@ -13980,10 +13950,10 @@
     <row r="108" ht="14.250000" customHeight="1">
       <c r="A108" s="1"/>
       <c r="B108" s="16" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="D108" s="18" t="str">
         <v/>
@@ -14091,10 +14061,10 @@
     <row r="109" ht="14.250000" customHeight="1">
       <c r="A109" s="1"/>
       <c r="B109" s="16" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C109" s="17" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D109" s="18" t="str">
         <v/>
@@ -14190,22 +14160,22 @@
         <v>244.51511581133499</v>
       </c>
       <c r="AI109" s="20" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="AJ109" s="20" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="AK109" s="20" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="110" ht="14.250000" customHeight="1">
       <c r="A110" s="1"/>
       <c r="B110" s="16" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="D110" s="18" t="str">
         <v/>
@@ -14292,31 +14262,31 @@
         <v>1.9361409072547899</v>
       </c>
       <c r="AF110" s="22" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="AG110" s="22" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="AH110" s="22" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="AI110" s="22" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="AJ110" s="22" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="AK110" s="22" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="111" ht="14.250000" customHeight="1">
       <c r="A111" s="1"/>
       <c r="B111" s="16" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="D111" s="18" t="str">
         <v/>
@@ -14334,100 +14304,100 @@
         <v>4.1127228262129396</v>
       </c>
       <c r="I111" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="J111" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="K111" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="L111" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="M111" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="N111" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="O111" s="20" t="s">
         <v>346</v>
       </c>
-      <c r="J111" s="20" t="s">
+      <c r="P111" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="K111" s="20" t="s">
+      <c r="Q111" s="20" t="s">
         <v>348</v>
       </c>
-      <c r="L111" s="20" t="s">
+      <c r="R111" s="20" t="s">
         <v>349</v>
       </c>
-      <c r="M111" s="20" t="s">
+      <c r="S111" s="20" t="s">
         <v>350</v>
       </c>
-      <c r="N111" s="20" t="s">
+      <c r="T111" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="O111" s="20" t="s">
+      <c r="U111" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="P111" s="20" t="s">
+      <c r="V111" s="20" t="s">
         <v>353</v>
       </c>
-      <c r="Q111" s="20" t="s">
+      <c r="W111" s="20" t="s">
         <v>354</v>
       </c>
-      <c r="R111" s="20" t="s">
+      <c r="X111" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="S111" s="20" t="s">
+      <c r="Y111" s="20" t="s">
         <v>356</v>
       </c>
-      <c r="T111" s="20" t="s">
+      <c r="Z111" s="20" t="s">
         <v>357</v>
       </c>
-      <c r="U111" s="20" t="s">
+      <c r="AA111" s="20" t="s">
         <v>358</v>
       </c>
-      <c r="V111" s="20" t="s">
+      <c r="AB111" s="20" t="s">
         <v>359</v>
       </c>
-      <c r="W111" s="20" t="s">
+      <c r="AC111" s="20" t="s">
         <v>360</v>
       </c>
-      <c r="X111" s="20" t="s">
+      <c r="AD111" s="20" t="s">
         <v>361</v>
       </c>
-      <c r="Y111" s="20" t="s">
+      <c r="AE111" s="20" t="s">
         <v>362</v>
       </c>
-      <c r="Z111" s="20" t="s">
+      <c r="AF111" s="20" t="s">
         <v>363</v>
       </c>
-      <c r="AA111" s="20" t="s">
+      <c r="AG111" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="AB111" s="20" t="s">
+      <c r="AH111" s="20" t="s">
         <v>365</v>
       </c>
-      <c r="AC111" s="20" t="s">
+      <c r="AI111" s="20" t="s">
         <v>366</v>
       </c>
-      <c r="AD111" s="20" t="s">
+      <c r="AJ111" s="20" t="s">
         <v>367</v>
       </c>
-      <c r="AE111" s="20" t="s">
+      <c r="AK111" s="20" t="s">
         <v>368</v>
-      </c>
-      <c r="AF111" s="20" t="s">
-        <v>369</v>
-      </c>
-      <c r="AG111" s="20" t="s">
-        <v>370</v>
-      </c>
-      <c r="AH111" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="AI111" s="20" t="s">
-        <v>372</v>
-      </c>
-      <c r="AJ111" s="20" t="s">
-        <v>373</v>
-      </c>
-      <c r="AK111" s="20" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="112" ht="14.250000" customHeight="1">
       <c r="A112" s="1"/>
       <c r="B112" s="16" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C112" s="17" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D112" s="18" t="str">
         <v/>
@@ -14535,10 +14505,10 @@
     <row r="113" ht="14.250000" customHeight="1">
       <c r="A113" s="1"/>
       <c r="B113" s="16" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C113" s="17" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D113" s="18" t="str">
         <v/>
@@ -14637,19 +14607,19 @@
         <v>1158.32539788188</v>
       </c>
       <c r="AJ113" s="20" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="AK113" s="20" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="114" ht="14.250000" customHeight="1">
       <c r="A114" s="1"/>
       <c r="B114" s="16" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D114" s="18" t="str">
         <v/>
@@ -14757,10 +14727,10 @@
     <row r="115" ht="14.250000" customHeight="1">
       <c r="A115" s="1"/>
       <c r="B115" s="16" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="D115" s="18" t="str">
         <v/>
@@ -14868,10 +14838,10 @@
     <row r="116" ht="14.250000" customHeight="1">
       <c r="A116" s="1"/>
       <c r="B116" s="16" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="D116" s="18" t="str">
         <v/>
@@ -14979,10 +14949,10 @@
     <row r="117" ht="14.250000" customHeight="1">
       <c r="A117" s="1"/>
       <c r="B117" s="16" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D117" s="18" t="str">
         <v/>
@@ -15075,25 +15045,25 @@
         <v>50.906091582779801</v>
       </c>
       <c r="AH117" s="20" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="AI117" s="20" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="AJ117" s="20" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="AK117" s="20" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="118" ht="14.250000" customHeight="1">
       <c r="A118" s="1"/>
       <c r="B118" s="16" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="D118" s="18" t="str">
         <v/>
@@ -15201,10 +15171,10 @@
     <row r="119" ht="14.250000" customHeight="1">
       <c r="A119" s="1"/>
       <c r="B119" s="16" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="D119" s="18" t="str">
         <v/>
@@ -15312,10 +15282,10 @@
     <row r="120" ht="24.000000" customHeight="1">
       <c r="A120" s="1"/>
       <c r="B120" s="16" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="D120" s="18" t="str">
         <v/>
@@ -15423,10 +15393,10 @@
     <row r="121" ht="14.250000" customHeight="1">
       <c r="A121" s="1"/>
       <c r="B121" s="16" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="D121" s="18" t="str">
         <v/>
@@ -15534,10 +15504,10 @@
     <row r="122" ht="14.250000" customHeight="1">
       <c r="A122" s="1"/>
       <c r="B122" s="16" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="D122" s="18" t="str">
         <v/>
@@ -15645,10 +15615,10 @@
     <row r="123" ht="14.250000" customHeight="1">
       <c r="A123" s="1"/>
       <c r="B123" s="16" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="C123" s="17" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D123" s="18" t="str">
         <v/>
@@ -15756,10 +15726,10 @@
     <row r="124" ht="14.250000" customHeight="1">
       <c r="A124" s="1"/>
       <c r="B124" s="16" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="D124" s="18" t="str">
         <v/>
@@ -15867,10 +15837,10 @@
     <row r="125" ht="14.250000" customHeight="1">
       <c r="A125" s="1"/>
       <c r="B125" s="16" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="D125" s="18" t="str">
         <v/>
@@ -15972,16 +15942,16 @@
         <v>12.988790652952501</v>
       </c>
       <c r="AK125" s="20">
-        <v>12.5253670270121</v>
+        <v>13.3512123641793</v>
       </c>
     </row>
     <row r="126" ht="14.250000" customHeight="1">
       <c r="A126" s="1"/>
       <c r="B126" s="16" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="C126" s="17" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="D126" s="18" t="str">
         <v/>
@@ -16089,10 +16059,10 @@
     <row r="127" ht="14.250000" customHeight="1">
       <c r="A127" s="1"/>
       <c r="B127" s="16" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D127" s="18" t="str">
         <v/>
@@ -16185,25 +16155,25 @@
         <v>2053.3918734490398</v>
       </c>
       <c r="AH127" s="20" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="AI127" s="20" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="AJ127" s="20" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="AK127" s="20" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="128" ht="14.250000" customHeight="1">
       <c r="A128" s="1"/>
       <c r="B128" s="16" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="D128" s="18" t="str">
         <v/>
@@ -16311,10 +16281,10 @@
     <row r="129" ht="14.250000" customHeight="1">
       <c r="A129" s="1"/>
       <c r="B129" s="16" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="D129" s="18" t="str">
         <v/>
@@ -16422,10 +16392,10 @@
     <row r="130" ht="14.250000" customHeight="1">
       <c r="A130" s="1"/>
       <c r="B130" s="16" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C130" s="17" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="D130" s="18" t="str">
         <v/>
@@ -16527,16 +16497,16 @@
         <v>169.89669597882701</v>
       </c>
       <c r="AK130" s="22" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="131" ht="14.250000" customHeight="1">
       <c r="A131" s="1"/>
       <c r="B131" s="16" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="D131" s="18" t="str">
         <v/>
@@ -16644,10 +16614,10 @@
     <row r="132" ht="14.250000" customHeight="1">
       <c r="A132" s="1"/>
       <c r="B132" s="16" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="D132" s="18" t="str">
         <v/>
@@ -16755,10 +16725,10 @@
     <row r="133" ht="14.250000" customHeight="1">
       <c r="A133" s="1"/>
       <c r="B133" s="16" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C133" s="17" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="D133" s="18" t="str">
         <v/>
@@ -16860,16 +16830,16 @@
         <v>49.714972714918098</v>
       </c>
       <c r="AK133" s="20" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="134" ht="14.250000" customHeight="1">
       <c r="A134" s="1"/>
       <c r="B134" s="16" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C134" s="17" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="D134" s="18" t="str">
         <v/>
@@ -16977,10 +16947,10 @@
     <row r="135" ht="14.250000" customHeight="1">
       <c r="A135" s="1"/>
       <c r="B135" s="16" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="C135" s="17" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="D135" s="18" t="str">
         <v/>
@@ -17079,19 +17049,19 @@
         <v>578.76436344373303</v>
       </c>
       <c r="AJ135" s="20" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="AK135" s="20" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="136" ht="14.250000" customHeight="1">
       <c r="A136" s="1"/>
       <c r="B136" s="16" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C136" s="17" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="D136" s="18" t="str">
         <v/>
@@ -17199,10 +17169,10 @@
     <row r="137" ht="14.250000" customHeight="1">
       <c r="A137" s="1"/>
       <c r="B137" s="16" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C137" s="17" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="D137" s="18" t="str">
         <v/>
@@ -17310,10 +17280,10 @@
     <row r="138" ht="14.250000" customHeight="1">
       <c r="A138" s="1"/>
       <c r="B138" s="16" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="C138" s="17" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="D138" s="18" t="str">
         <v/>
@@ -17421,10 +17391,10 @@
     <row r="139" ht="14.250000" customHeight="1">
       <c r="A139" s="1"/>
       <c r="B139" s="16" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C139" s="17" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D139" s="18" t="str">
         <v/>
@@ -17532,10 +17502,10 @@
     <row r="140" ht="14.250000" customHeight="1">
       <c r="A140" s="1"/>
       <c r="B140" s="16" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="C140" s="17" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="D140" s="18" t="str">
         <v/>
@@ -17643,10 +17613,10 @@
     <row r="141" ht="14.250000" customHeight="1">
       <c r="A141" s="1"/>
       <c r="B141" s="16" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="C141" s="17" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="D141" s="18" t="str">
         <v/>
@@ -17754,10 +17724,10 @@
     <row r="142" ht="14.250000" customHeight="1">
       <c r="A142" s="1"/>
       <c r="B142" s="16" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="C142" s="17" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="D142" s="18" t="str">
         <v/>
@@ -17859,16 +17829,16 @@
         <v>4.9108555714675397</v>
       </c>
       <c r="AK142" s="22" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="143" ht="14.250000" customHeight="1">
       <c r="A143" s="1"/>
       <c r="B143" s="16" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="C143" s="17" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="D143" s="18" t="str">
         <v/>
@@ -17976,10 +17946,10 @@
     <row r="144" ht="14.250000" customHeight="1">
       <c r="A144" s="1"/>
       <c r="B144" s="16" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="C144" s="17" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D144" s="18" t="str">
         <v/>
@@ -18087,10 +18057,10 @@
     <row r="145" ht="14.250000" customHeight="1">
       <c r="A145" s="1"/>
       <c r="B145" s="16" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C145" s="17" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="D145" s="18" t="str">
         <v/>
@@ -18198,10 +18168,10 @@
     <row r="146" ht="14.250000" customHeight="1">
       <c r="A146" s="1"/>
       <c r="B146" s="16" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="C146" s="17" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="D146" s="18" t="str">
         <v/>
@@ -18309,10 +18279,10 @@
     <row r="147" ht="14.250000" customHeight="1">
       <c r="A147" s="1"/>
       <c r="B147" s="16" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C147" s="17" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="D147" s="18" t="str">
         <v/>
@@ -18420,10 +18390,10 @@
     <row r="148" ht="14.250000" customHeight="1">
       <c r="A148" s="1"/>
       <c r="B148" s="16" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="C148" s="17" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="D148" s="18" t="str">
         <v/>
@@ -18531,10 +18501,10 @@
     <row r="149" ht="14.250000" customHeight="1">
       <c r="A149" s="1"/>
       <c r="B149" s="16" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="C149" s="17" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="D149" s="18" t="str">
         <v/>
@@ -18636,16 +18606,16 @@
         <v>103.979465159211</v>
       </c>
       <c r="AK149" s="20" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
     <row r="150" ht="14.250000" customHeight="1">
       <c r="A150" s="1"/>
       <c r="B150" s="16" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C150" s="17" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="D150" s="18" t="str">
         <v/>
@@ -18753,10 +18723,10 @@
     <row r="151" ht="14.250000" customHeight="1">
       <c r="A151" s="1"/>
       <c r="B151" s="16" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="C151" s="17" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="D151" s="18" t="str">
         <v/>
@@ -18864,10 +18834,10 @@
     <row r="152" ht="14.250000" customHeight="1">
       <c r="A152" s="1"/>
       <c r="B152" s="16" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="C152" s="17" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="D152" s="18" t="str">
         <v/>
@@ -18975,10 +18945,10 @@
     <row r="153" ht="24.000000" customHeight="1">
       <c r="A153" s="1"/>
       <c r="B153" s="16" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C153" s="17" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="D153" s="18" t="str">
         <v/>
@@ -19068,28 +19038,28 @@
         <v>28.732635763306298</v>
       </c>
       <c r="AG153" s="20" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="AH153" s="20" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="AI153" s="20" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="AJ153" s="20" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="AK153" s="20" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="154" ht="14.250000" customHeight="1">
       <c r="A154" s="1"/>
       <c r="B154" s="16" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C154" s="17" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="D154" s="18" t="str">
         <v/>
@@ -19197,10 +19167,10 @@
     <row r="155" ht="14.250000" customHeight="1">
       <c r="A155" s="1"/>
       <c r="B155" s="16" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="C155" s="17" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="D155" s="18" t="str">
         <v/>
@@ -19308,10 +19278,10 @@
     <row r="156" ht="14.250000" customHeight="1">
       <c r="A156" s="1"/>
       <c r="B156" s="16" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="C156" s="17" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="D156" s="18" t="str">
         <v/>
@@ -19419,10 +19389,10 @@
     <row r="157" ht="14.250000" customHeight="1">
       <c r="A157" s="1"/>
       <c r="B157" s="16" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="C157" s="17" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="D157" s="18" t="str">
         <v/>
@@ -19523,17 +19493,17 @@
       <c r="AJ157" s="20">
         <v>20.5727697822092</v>
       </c>
-      <c r="AK157" s="20" t="s">
-        <v>488</v>
+      <c r="AK157" s="20">
+        <v>19.7350726534068</v>
       </c>
     </row>
     <row r="158" ht="14.250000" customHeight="1">
       <c r="A158" s="1"/>
       <c r="B158" s="16" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="C158" s="17" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="D158" s="18" t="str">
         <v/>
@@ -19631,20 +19601,20 @@
       <c r="AI158" s="22">
         <v>14893.1511944412</v>
       </c>
-      <c r="AJ158" s="22" t="s">
-        <v>491</v>
-      </c>
-      <c r="AK158" s="22" t="s">
-        <v>492</v>
+      <c r="AJ158" s="22">
+        <v>15709.8879905052</v>
+      </c>
+      <c r="AK158" s="22">
+        <v>16435.594016975901</v>
       </c>
     </row>
     <row r="159" ht="14.250000" customHeight="1">
       <c r="A159" s="1"/>
       <c r="B159" s="16" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="C159" s="17" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="D159" s="18" t="str">
         <v/>
@@ -19752,10 +19722,10 @@
     <row r="160" ht="24.000000" customHeight="1">
       <c r="A160" s="1"/>
       <c r="B160" s="16" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="C160" s="17" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="D160" s="18" t="str">
         <v/>
@@ -19863,10 +19833,10 @@
     <row r="161" ht="14.250000" customHeight="1">
       <c r="A161" s="1"/>
       <c r="B161" s="16" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="C161" s="17" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="D161" s="18" t="str">
         <v/>
@@ -19974,10 +19944,10 @@
     <row r="162" ht="14.250000" customHeight="1">
       <c r="A162" s="1"/>
       <c r="B162" s="16" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="C162" s="17" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="D162" s="18" t="str">
         <v/>
@@ -20037,58 +20007,58 @@
         <v>34186.747835284703</v>
       </c>
       <c r="W162" s="22" t="s">
+        <v>492</v>
+      </c>
+      <c r="X162" s="22" t="s">
+        <v>493</v>
+      </c>
+      <c r="Y162" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="Z162" s="22" t="s">
+        <v>495</v>
+      </c>
+      <c r="AA162" s="22" t="s">
+        <v>496</v>
+      </c>
+      <c r="AB162" s="22" t="s">
+        <v>497</v>
+      </c>
+      <c r="AC162" s="22" t="s">
+        <v>498</v>
+      </c>
+      <c r="AD162" s="22" t="s">
+        <v>499</v>
+      </c>
+      <c r="AE162" s="22" t="s">
+        <v>500</v>
+      </c>
+      <c r="AF162" s="22" t="s">
         <v>501</v>
       </c>
-      <c r="X162" s="22" t="s">
+      <c r="AG162" s="22" t="s">
         <v>502</v>
       </c>
-      <c r="Y162" s="22" t="s">
+      <c r="AH162" s="22" t="s">
         <v>503</v>
       </c>
-      <c r="Z162" s="22" t="s">
+      <c r="AI162" s="22" t="s">
         <v>504</v>
       </c>
-      <c r="AA162" s="22" t="s">
+      <c r="AJ162" s="22" t="s">
         <v>505</v>
       </c>
-      <c r="AB162" s="22" t="s">
+      <c r="AK162" s="22" t="s">
         <v>506</v>
-      </c>
-      <c r="AC162" s="22" t="s">
-        <v>507</v>
-      </c>
-      <c r="AD162" s="22" t="s">
-        <v>508</v>
-      </c>
-      <c r="AE162" s="22" t="s">
-        <v>509</v>
-      </c>
-      <c r="AF162" s="22" t="s">
-        <v>510</v>
-      </c>
-      <c r="AG162" s="22" t="s">
-        <v>511</v>
-      </c>
-      <c r="AH162" s="22" t="s">
-        <v>512</v>
-      </c>
-      <c r="AI162" s="22" t="s">
-        <v>513</v>
-      </c>
-      <c r="AJ162" s="22" t="s">
-        <v>514</v>
-      </c>
-      <c r="AK162" s="22" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="163" ht="14.250000" customHeight="1">
       <c r="A163" s="1"/>
       <c r="B163" s="16" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="C163" s="17" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="D163" s="18" t="str">
         <v/>
@@ -20196,10 +20166,10 @@
     <row r="164" ht="14.250000" customHeight="1">
       <c r="A164" s="1"/>
       <c r="B164" s="16" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="C164" s="17" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="D164" s="18" t="str">
         <v/>
@@ -20301,16 +20271,16 @@
         <v>604.67212414957203</v>
       </c>
       <c r="AK164" s="22" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
     </row>
     <row r="165" ht="14.250000" customHeight="1">
       <c r="A165" s="1"/>
       <c r="B165" s="16" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="C165" s="17" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="D165" s="18" t="str">
         <v/>
@@ -20400,28 +20370,28 @@
         <v>268.47785227166298</v>
       </c>
       <c r="AG165" s="20" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="AH165" s="20" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="AI165" s="20" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="AJ165" s="20" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="AK165" s="20" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
     </row>
     <row r="166" ht="14.250000" customHeight="1">
       <c r="A166" s="1"/>
       <c r="B166" s="16" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="C166" s="17" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="D166" s="18" t="str">
         <v/>
@@ -20529,10 +20499,10 @@
     <row r="167" ht="14.250000" customHeight="1">
       <c r="A167" s="1"/>
       <c r="B167" s="16" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="C167" s="17" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="D167" s="18" t="str">
         <v/>
@@ -20640,10 +20610,10 @@
     <row r="168" ht="14.250000" customHeight="1">
       <c r="A168" s="1"/>
       <c r="B168" s="16" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="C168" s="17" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="D168" s="18" t="str">
         <v/>
@@ -20751,10 +20721,10 @@
     <row r="169" ht="14.250000" customHeight="1">
       <c r="A169" s="1"/>
       <c r="B169" s="16" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="C169" s="17" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="D169" s="18" t="str">
         <v/>
@@ -20847,25 +20817,25 @@
         <v>539.68676880953205</v>
       </c>
       <c r="AH169" s="20" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="AI169" s="20" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="AJ169" s="20" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="AK169" s="20" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
     </row>
     <row r="170" ht="14.250000" customHeight="1">
       <c r="A170" s="1"/>
       <c r="B170" s="16" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="C170" s="17" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="D170" s="18" t="str">
         <v/>
@@ -20973,10 +20943,10 @@
     <row r="171" ht="14.250000" customHeight="1">
       <c r="A171" s="1"/>
       <c r="B171" s="16" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="C171" s="17" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="D171" s="18" t="str">
         <v/>
@@ -21084,10 +21054,10 @@
     <row r="172" ht="14.250000" customHeight="1">
       <c r="A172" s="1"/>
       <c r="B172" s="16" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="C172" s="17" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="D172" s="18" t="str">
         <v/>
@@ -21195,10 +21165,10 @@
     <row r="173" ht="14.250000" customHeight="1">
       <c r="A173" s="1"/>
       <c r="B173" s="16" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="C173" s="17" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="D173" s="18" t="str">
         <v/>
@@ -21261,55 +21231,55 @@
         <v>609.02699391810199</v>
       </c>
       <c r="X173" s="20" t="s">
+        <v>539</v>
+      </c>
+      <c r="Y173" s="20" t="s">
+        <v>540</v>
+      </c>
+      <c r="Z173" s="20" t="s">
+        <v>541</v>
+      </c>
+      <c r="AA173" s="20" t="s">
+        <v>542</v>
+      </c>
+      <c r="AB173" s="20" t="s">
+        <v>543</v>
+      </c>
+      <c r="AC173" s="20" t="s">
+        <v>544</v>
+      </c>
+      <c r="AD173" s="20" t="s">
+        <v>545</v>
+      </c>
+      <c r="AE173" s="20" t="s">
+        <v>546</v>
+      </c>
+      <c r="AF173" s="20" t="s">
+        <v>547</v>
+      </c>
+      <c r="AG173" s="20" t="s">
         <v>548</v>
       </c>
-      <c r="Y173" s="20" t="s">
+      <c r="AH173" s="20" t="s">
         <v>549</v>
       </c>
-      <c r="Z173" s="20" t="s">
+      <c r="AI173" s="20" t="s">
         <v>550</v>
       </c>
-      <c r="AA173" s="20" t="s">
+      <c r="AJ173" s="20" t="s">
         <v>551</v>
       </c>
-      <c r="AB173" s="20" t="s">
+      <c r="AK173" s="20" t="s">
         <v>552</v>
-      </c>
-      <c r="AC173" s="20" t="s">
-        <v>553</v>
-      </c>
-      <c r="AD173" s="20" t="s">
-        <v>554</v>
-      </c>
-      <c r="AE173" s="20" t="s">
-        <v>555</v>
-      </c>
-      <c r="AF173" s="20" t="s">
-        <v>556</v>
-      </c>
-      <c r="AG173" s="20" t="s">
-        <v>557</v>
-      </c>
-      <c r="AH173" s="20" t="s">
-        <v>558</v>
-      </c>
-      <c r="AI173" s="20" t="s">
-        <v>559</v>
-      </c>
-      <c r="AJ173" s="20" t="s">
-        <v>560</v>
-      </c>
-      <c r="AK173" s="20" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="174" ht="14.250000" customHeight="1">
       <c r="A174" s="1"/>
       <c r="B174" s="16" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="C174" s="17" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="D174" s="18" t="str">
         <v/>
@@ -21410,17 +21380,17 @@
       <c r="AJ174" s="22">
         <v>38.754753370571898</v>
       </c>
-      <c r="AK174" s="22" t="s">
-        <v>564</v>
+      <c r="AK174" s="22">
+        <v>39.567032541679303</v>
       </c>
     </row>
     <row r="175" ht="14.250000" customHeight="1">
       <c r="A175" s="1"/>
       <c r="B175" s="16" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="C175" s="17" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="D175" s="18" t="str">
         <v/>
@@ -21528,10 +21498,10 @@
     <row r="176" ht="14.250000" customHeight="1">
       <c r="A176" s="1"/>
       <c r="B176" s="16" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="C176" s="17" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="D176" s="18" t="str">
         <v/>
@@ -21639,10 +21609,10 @@
     <row r="177" ht="14.250000" customHeight="1">
       <c r="A177" s="1"/>
       <c r="B177" s="16" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="C177" s="17" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="D177" s="18" t="str">
         <v/>
@@ -21750,10 +21720,10 @@
     <row r="178" ht="14.250000" customHeight="1">
       <c r="A178" s="1"/>
       <c r="B178" s="16" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="C178" s="17" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="D178" s="18" t="str">
         <v/>
@@ -21861,10 +21831,10 @@
     <row r="179" ht="14.250000" customHeight="1">
       <c r="A179" s="1"/>
       <c r="B179" s="16" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="C179" s="17" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="D179" s="18" t="str">
         <v/>
@@ -21972,10 +21942,10 @@
     <row r="180" ht="14.250000" customHeight="1">
       <c r="A180" s="1"/>
       <c r="B180" s="16" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="C180" s="17" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="D180" s="18" t="str">
         <v/>
@@ -22077,16 +22047,16 @@
         <v>3.1830653578991401</v>
       </c>
       <c r="AK180" s="22" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
     </row>
     <row r="181" ht="14.250000" customHeight="1">
       <c r="A181" s="1"/>
       <c r="B181" s="16" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="C181" s="17" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="D181" s="18" t="str">
         <v/>
@@ -22194,10 +22164,10 @@
     <row r="182" ht="14.250000" customHeight="1">
       <c r="A182" s="1"/>
       <c r="B182" s="16" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="C182" s="17" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="D182" s="18" t="str">
         <v/>
@@ -22305,10 +22275,10 @@
     <row r="183" ht="14.250000" customHeight="1">
       <c r="A183" s="1"/>
       <c r="B183" s="16" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="C183" s="17" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="D183" s="18" t="str">
         <v/>
@@ -22416,10 +22386,10 @@
     <row r="184" ht="14.250000" customHeight="1">
       <c r="A184" s="1"/>
       <c r="B184" s="16" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="C184" s="17" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="D184" s="18" t="str">
         <v/>
@@ -22527,10 +22497,10 @@
     <row r="185" ht="14.250000" customHeight="1">
       <c r="A185" s="1"/>
       <c r="B185" s="16" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="C185" s="17" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="D185" s="18" t="str">
         <v/>
@@ -22638,10 +22608,10 @@
     <row r="186" ht="14.250000" customHeight="1">
       <c r="A186" s="1"/>
       <c r="B186" s="16" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="C186" s="17" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="D186" s="18" t="str">
         <v/>
@@ -22749,10 +22719,10 @@
     <row r="187" ht="14.250000" customHeight="1">
       <c r="A187" s="1"/>
       <c r="B187" s="16" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="C187" s="17" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="D187" s="18" t="str">
         <v/>
@@ -22860,10 +22830,10 @@
     <row r="188" ht="14.250000" customHeight="1">
       <c r="A188" s="1"/>
       <c r="B188" s="16" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="C188" s="17" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="D188" s="18" t="str">
         <v/>
@@ -22971,10 +22941,10 @@
     <row r="189" ht="14.250000" customHeight="1">
       <c r="A189" s="1"/>
       <c r="B189" s="16" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="C189" s="17" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="D189" s="18" t="str">
         <v/>
@@ -23082,10 +23052,10 @@
     <row r="190" ht="14.250000" customHeight="1">
       <c r="A190" s="1"/>
       <c r="B190" s="16" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="C190" s="17" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="D190" s="18" t="str">
         <v/>
@@ -23193,10 +23163,10 @@
     <row r="191" ht="14.250000" customHeight="1">
       <c r="A191" s="1"/>
       <c r="B191" s="16" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="C191" s="17" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="D191" s="18" t="str">
         <v/>
@@ -23295,19 +23265,19 @@
         <v>158.28669969061201</v>
       </c>
       <c r="AJ191" s="20" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="AK191" s="20" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
     </row>
     <row r="192" ht="14.250000" customHeight="1">
       <c r="A192" s="1"/>
       <c r="B192" s="16" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="C192" s="17" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="D192" s="18" t="str">
         <v/>
@@ -23367,58 +23337,58 @@
         <v>134693.395297546</v>
       </c>
       <c r="W192" s="22" t="s">
+        <v>594</v>
+      </c>
+      <c r="X192" s="22" t="s">
+        <v>595</v>
+      </c>
+      <c r="Y192" s="22" t="s">
+        <v>596</v>
+      </c>
+      <c r="Z192" s="22" t="s">
+        <v>597</v>
+      </c>
+      <c r="AA192" s="22" t="s">
+        <v>598</v>
+      </c>
+      <c r="AB192" s="22" t="s">
+        <v>599</v>
+      </c>
+      <c r="AC192" s="22" t="s">
+        <v>600</v>
+      </c>
+      <c r="AD192" s="22" t="s">
+        <v>601</v>
+      </c>
+      <c r="AE192" s="22" t="s">
+        <v>602</v>
+      </c>
+      <c r="AF192" s="22" t="s">
+        <v>603</v>
+      </c>
+      <c r="AG192" s="22" t="s">
         <v>604</v>
       </c>
-      <c r="X192" s="22" t="s">
+      <c r="AH192" s="22" t="s">
         <v>605</v>
       </c>
-      <c r="Y192" s="22" t="s">
+      <c r="AI192" s="22" t="s">
         <v>606</v>
       </c>
-      <c r="Z192" s="22" t="s">
+      <c r="AJ192" s="22" t="s">
         <v>607</v>
       </c>
-      <c r="AA192" s="22" t="s">
+      <c r="AK192" s="22" t="s">
         <v>608</v>
-      </c>
-      <c r="AB192" s="22" t="s">
-        <v>609</v>
-      </c>
-      <c r="AC192" s="22" t="s">
-        <v>610</v>
-      </c>
-      <c r="AD192" s="22" t="s">
-        <v>611</v>
-      </c>
-      <c r="AE192" s="22" t="s">
-        <v>612</v>
-      </c>
-      <c r="AF192" s="22" t="s">
-        <v>613</v>
-      </c>
-      <c r="AG192" s="22" t="s">
-        <v>614</v>
-      </c>
-      <c r="AH192" s="22" t="s">
-        <v>615</v>
-      </c>
-      <c r="AI192" s="22" t="s">
-        <v>616</v>
-      </c>
-      <c r="AJ192" s="22" t="s">
-        <v>617</v>
-      </c>
-      <c r="AK192" s="22" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="193" ht="14.250000" customHeight="1">
       <c r="A193" s="1"/>
       <c r="B193" s="16" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="C193" s="17" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="D193" s="18" t="str">
         <v/>
@@ -23526,10 +23496,10 @@
     <row r="194" ht="14.250000" customHeight="1">
       <c r="A194" s="1"/>
       <c r="B194" s="16" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="C194" s="17" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="D194" s="18" t="str">
         <v/>
@@ -23637,10 +23607,10 @@
     <row r="195" ht="14.250000" customHeight="1">
       <c r="A195" s="1"/>
       <c r="B195" s="16" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="C195" s="17" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="D195" s="18" t="str">
         <v/>
@@ -23742,79 +23712,79 @@
         <v>23.335865431851701</v>
       </c>
       <c r="AK195" s="20" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
     </row>
     <row r="196" ht="14.250000" customHeight="1">
       <c r="A196" s="1"/>
       <c r="B196" s="16" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="C196" s="17" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="D196" s="18" t="str">
         <v/>
       </c>
       <c r="E196" s="21" t="s">
+        <v>618</v>
+      </c>
+      <c r="F196" s="22" t="s">
+        <v>619</v>
+      </c>
+      <c r="G196" s="22" t="s">
+        <v>620</v>
+      </c>
+      <c r="H196" s="22" t="s">
+        <v>621</v>
+      </c>
+      <c r="I196" s="22" t="s">
+        <v>622</v>
+      </c>
+      <c r="J196" s="22" t="s">
+        <v>623</v>
+      </c>
+      <c r="K196" s="22" t="s">
+        <v>624</v>
+      </c>
+      <c r="L196" s="22" t="s">
+        <v>625</v>
+      </c>
+      <c r="M196" s="22" t="s">
+        <v>626</v>
+      </c>
+      <c r="N196" s="22" t="s">
+        <v>627</v>
+      </c>
+      <c r="O196" s="22" t="s">
         <v>628</v>
       </c>
-      <c r="F196" s="22" t="s">
+      <c r="P196" s="22" t="s">
         <v>629</v>
       </c>
-      <c r="G196" s="22" t="s">
+      <c r="Q196" s="22" t="s">
         <v>630</v>
       </c>
-      <c r="H196" s="22" t="s">
+      <c r="R196" s="22" t="s">
         <v>631</v>
       </c>
-      <c r="I196" s="22" t="s">
+      <c r="S196" s="22" t="s">
         <v>632</v>
       </c>
-      <c r="J196" s="22" t="s">
+      <c r="T196" s="22" t="s">
         <v>633</v>
       </c>
-      <c r="K196" s="22" t="s">
+      <c r="U196" s="22" t="s">
         <v>634</v>
       </c>
-      <c r="L196" s="22" t="s">
+      <c r="V196" s="22" t="s">
         <v>635</v>
       </c>
-      <c r="M196" s="22" t="s">
+      <c r="W196" s="22" t="s">
         <v>636</v>
       </c>
-      <c r="N196" s="22" t="s">
+      <c r="X196" s="22" t="s">
         <v>637</v>
-      </c>
-      <c r="O196" s="22" t="s">
-        <v>638</v>
-      </c>
-      <c r="P196" s="22" t="s">
-        <v>639</v>
-      </c>
-      <c r="Q196" s="22" t="s">
-        <v>640</v>
-      </c>
-      <c r="R196" s="22" t="s">
-        <v>641</v>
-      </c>
-      <c r="S196" s="22" t="s">
-        <v>642</v>
-      </c>
-      <c r="T196" s="22" t="s">
-        <v>643</v>
-      </c>
-      <c r="U196" s="22" t="s">
-        <v>644</v>
-      </c>
-      <c r="V196" s="22" t="s">
-        <v>645</v>
-      </c>
-      <c r="W196" s="22" t="s">
-        <v>646</v>
-      </c>
-      <c r="X196" s="22" t="s">
-        <v>647</v>
       </c>
       <c r="Y196" s="22">
         <v>4.1814110457553504</v>
@@ -23859,10 +23829,10 @@
     <row r="197" ht="24.000000" customHeight="1">
       <c r="A197" s="1"/>
       <c r="B197" s="16" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="C197" s="17" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D197" s="18" t="str">
         <v/>
@@ -23970,10 +23940,10 @@
     <row r="198" ht="24.000000" customHeight="1">
       <c r="A198" s="1"/>
       <c r="B198" s="16" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="C198" s="17" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="D198" s="18" t="str">
         <v/>
@@ -24081,10 +24051,10 @@
     <row r="199" ht="24.000000" customHeight="1">
       <c r="A199" s="1"/>
       <c r="B199" s="23" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="C199" s="24" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="D199" s="25" t="str">
         <v/>

--- a/FOREX/data/FOREX_3Q.xlsx
+++ b/FOREX/data/FOREX_3Q.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="638">
   <si>
     <t xml:space="preserve"> Monetary and Financial Statistics by Indicator</t>
   </si>
@@ -1265,130 +1265,325 @@
     <t>Units</t>
   </si>
   <si>
+    <t>New Caledonia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>New Caledonia</t>
+    <t>Niger</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>New Zealand</t>
+    <t>Nigeria</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Nicaragua</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>North Macedonia, Republic of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Palau, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Niger</t>
+    <t>Paraguay</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Nigeria</t>
+    <t>Peru</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Poland, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>San Marino, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>São Tomé and Príncipe, Dem. Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
     <t>...</t>
   </si>
   <si>
-    <t>North Macedonia, Republic of</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Norway</t>
+    <t>Senegal</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Oman</t>
+    <t>Serbia, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Pakistan</t>
+    <t>Seychelles</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Palau, Rep. of</t>
+    <t>Sierra Leone</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Panama</t>
+    <t>Singapore</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Papua New Guinea</t>
+    <t>Sint Maarten, Kingdom of the Netherlands</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Paraguay</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>South Africa</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Peru</t>
+    <t>South Sudan, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Philippines</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Poland, Rep. of</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>St. Kitts and Nevis</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Qatar</t>
+    <t>St. Lucia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Romania</t>
+    <t>St. Vincent and the Grenadines</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Russian Federation</t>
+    <t>Sudan</t>
   </si>
   <si>
     <t>Units</t>
@@ -1397,25 +1592,34 @@
     <t>...</t>
   </si>
   <si>
-    <t>Rwanda</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Suriname</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Samoa</t>
+    <t>Sweden</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>San Marino, Rep. of</t>
+    <t>Switzerland</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>São Tomé and Príncipe, Dem. Rep. of</t>
+    <t>Syrian Arab Rep.</t>
   </si>
   <si>
     <t>Units</t>
@@ -1436,60 +1640,147 @@
     <t>...</t>
   </si>
   <si>
-    <t>Saudi Arabia</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Taiwan Province of China</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Senegal</t>
+    <t>Tajikistan, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Serbia, Rep. of</t>
+    <t>Tanzania, United Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Seychelles</t>
+    <t>Thailand</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Sierra Leone</t>
+    <t>Timor-Leste, Dem. Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Singapore</t>
+    <t>Togo</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Sint Maarten, Kingdom of the Netherlands</t>
+    <t>Tonga</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Solomon Islands</t>
+    <t>Trinidad and Tobago</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Somalia</t>
+    <t>Tunisia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Uzbekistan, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Venezuela, Rep. Bolivariana de</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
@@ -1535,331 +1826,22 @@
     <t>...</t>
   </si>
   <si>
-    <t>South Africa</t>
+    <t>Vietnam</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>South Sudan, Rep. of</t>
+    <t>Yemen, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
+    <t>Zambia</t>
   </si>
   <si>
     <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>St. Kitts and Nevis</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>St. Lucia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>St. Vincent and the Grenadines</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Sudan</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Suriname</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Syrian Arab Rep.</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Taiwan Province of China</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Tajikistan, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Tanzania, United Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Timor-Leste, Dem. Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Togo</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Tonga</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Trinidad and Tobago</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>United Arab Emirates</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Uruguay</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Uzbekistan, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Vanuatu</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Venezuela, Rep. Bolivariana de</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Vietnam</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Yemen, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Zambia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
   </si>
   <si>
     <t>Zimbabwe</t>
@@ -2451,7 +2433,7 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:AK199"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" showRowColHeaders="0" zoomScale="100">
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="0" showRowColHeaders="0" zoomScale="100">
       <pane xSplit="4" ySplit="7" state="frozen" topLeftCell="E8"/>
     </sheetView>
   </sheetViews>
@@ -13737,79 +13719,79 @@
         <v/>
       </c>
       <c r="E106" s="21">
-        <v>12420.5005981582</v>
+        <v>12431.490016785499</v>
       </c>
       <c r="F106" s="22">
-        <v>12439.4029149327</v>
+        <v>12427.420402055401</v>
       </c>
       <c r="G106" s="22">
-        <v>11938.6121233866</v>
+        <v>11927.388961864999</v>
       </c>
       <c r="H106" s="22">
-        <v>11732.0898722734</v>
+        <v>11715.0374371219</v>
       </c>
       <c r="I106" s="22">
-        <v>11198.3703165139</v>
+        <v>11180.775411950501</v>
       </c>
       <c r="J106" s="22">
-        <v>11420.3793457876</v>
+        <v>11403.031338646701</v>
       </c>
       <c r="K106" s="22">
-        <v>11507.2275609348</v>
+        <v>11433.4243421745</v>
       </c>
       <c r="L106" s="22">
-        <v>11325.0153520771</v>
+        <v>11290.932749109301</v>
       </c>
       <c r="M106" s="22">
-        <v>11463.5242471972</v>
+        <v>11438.207755834601</v>
       </c>
       <c r="N106" s="22">
-        <v>11364.5023752371</v>
+        <v>11323.6421421337</v>
       </c>
       <c r="O106" s="22">
-        <v>11482.507663017101</v>
+        <v>11317.257281959901</v>
       </c>
       <c r="P106" s="22">
-        <v>11208.782788251599</v>
+        <v>11002.0111203123</v>
       </c>
       <c r="Q106" s="22">
-        <v>11319.686220207501</v>
+        <v>11138.3686882804</v>
       </c>
       <c r="R106" s="22">
-        <v>11679.1084936442</v>
+        <v>11473.3820597267</v>
       </c>
       <c r="S106" s="22">
-        <v>11839.489711589</v>
+        <v>11720.461412786901</v>
       </c>
       <c r="T106" s="22">
-        <v>11830.649979436699</v>
+        <v>11810.3451958968</v>
       </c>
       <c r="U106" s="22">
-        <v>12091.4636751655</v>
+        <v>12056.898441748001</v>
       </c>
       <c r="V106" s="22">
-        <v>11977.5657522247</v>
+        <v>11841.934993839201</v>
       </c>
       <c r="W106" s="22">
-        <v>12038.9194573244</v>
+        <v>11855.4464314367</v>
       </c>
       <c r="X106" s="22">
-        <v>11955.489527351499</v>
+        <v>11863.4520837535</v>
       </c>
       <c r="Y106" s="22">
-        <v>12038.351061786099</v>
+        <v>11908.4143261917</v>
       </c>
       <c r="Z106" s="22">
-        <v>12144.6160592872</v>
+        <v>12012.8177502207</v>
       </c>
       <c r="AA106" s="22">
-        <v>12101.8781898329</v>
+        <v>12005.273267885599</v>
       </c>
       <c r="AB106" s="22">
-        <v>12471.8442226468</v>
+        <v>12253.2174894248</v>
       </c>
       <c r="AC106" s="22">
-        <v>12647.9245294826</v>
+        <v>12180.824856798499</v>
       </c>
       <c r="AD106" s="22">
         <v>12407.3984908619</v>
@@ -14055,7 +14037,7 @@
         <v>22.261110131716599</v>
       </c>
       <c r="AK108" s="22">
-        <v>20.154483120904601</v>
+        <v>20.1544723912682</v>
       </c>
     </row>
     <row r="109" ht="14.250000" customHeight="1">
@@ -16496,17 +16478,17 @@
       <c r="AJ130" s="22">
         <v>169.89669597882701</v>
       </c>
-      <c r="AK130" s="22" t="s">
-        <v>417</v>
+      <c r="AK130" s="22">
+        <v>169.41303326052699</v>
       </c>
     </row>
     <row r="131" ht="14.250000" customHeight="1">
       <c r="A131" s="1"/>
       <c r="B131" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="C131" s="17" t="s">
         <v>418</v>
-      </c>
-      <c r="C131" s="17" t="s">
-        <v>419</v>
       </c>
       <c r="D131" s="18" t="str">
         <v/>
@@ -16614,10 +16596,10 @@
     <row r="132" ht="14.250000" customHeight="1">
       <c r="A132" s="1"/>
       <c r="B132" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="C132" s="17" t="s">
         <v>420</v>
-      </c>
-      <c r="C132" s="17" t="s">
-        <v>421</v>
       </c>
       <c r="D132" s="18" t="str">
         <v/>
@@ -16725,10 +16707,10 @@
     <row r="133" ht="14.250000" customHeight="1">
       <c r="A133" s="1"/>
       <c r="B133" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="C133" s="17" t="s">
         <v>422</v>
-      </c>
-      <c r="C133" s="17" t="s">
-        <v>423</v>
       </c>
       <c r="D133" s="18" t="str">
         <v/>
@@ -16830,16 +16812,16 @@
         <v>49.714972714918098</v>
       </c>
       <c r="AK133" s="20" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="134" ht="14.250000" customHeight="1">
       <c r="A134" s="1"/>
       <c r="B134" s="16" t="s">
+        <v>424</v>
+      </c>
+      <c r="C134" s="17" t="s">
         <v>425</v>
-      </c>
-      <c r="C134" s="17" t="s">
-        <v>426</v>
       </c>
       <c r="D134" s="18" t="str">
         <v/>
@@ -16947,10 +16929,10 @@
     <row r="135" ht="14.250000" customHeight="1">
       <c r="A135" s="1"/>
       <c r="B135" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="C135" s="17" t="s">
         <v>427</v>
-      </c>
-      <c r="C135" s="17" t="s">
-        <v>428</v>
       </c>
       <c r="D135" s="18" t="str">
         <v/>
@@ -17049,19 +17031,19 @@
         <v>578.76436344373303</v>
       </c>
       <c r="AJ135" s="20" t="s">
+        <v>428</v>
+      </c>
+      <c r="AK135" s="20" t="s">
         <v>429</v>
-      </c>
-      <c r="AK135" s="20" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="136" ht="14.250000" customHeight="1">
       <c r="A136" s="1"/>
       <c r="B136" s="16" t="s">
+        <v>430</v>
+      </c>
+      <c r="C136" s="17" t="s">
         <v>431</v>
-      </c>
-      <c r="C136" s="17" t="s">
-        <v>432</v>
       </c>
       <c r="D136" s="18" t="str">
         <v/>
@@ -17169,10 +17151,10 @@
     <row r="137" ht="14.250000" customHeight="1">
       <c r="A137" s="1"/>
       <c r="B137" s="16" t="s">
+        <v>432</v>
+      </c>
+      <c r="C137" s="17" t="s">
         <v>433</v>
-      </c>
-      <c r="C137" s="17" t="s">
-        <v>434</v>
       </c>
       <c r="D137" s="18" t="str">
         <v/>
@@ -17280,10 +17262,10 @@
     <row r="138" ht="14.250000" customHeight="1">
       <c r="A138" s="1"/>
       <c r="B138" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="C138" s="17" t="s">
         <v>435</v>
-      </c>
-      <c r="C138" s="17" t="s">
-        <v>436</v>
       </c>
       <c r="D138" s="18" t="str">
         <v/>
@@ -17391,10 +17373,10 @@
     <row r="139" ht="14.250000" customHeight="1">
       <c r="A139" s="1"/>
       <c r="B139" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="C139" s="17" t="s">
         <v>437</v>
-      </c>
-      <c r="C139" s="17" t="s">
-        <v>438</v>
       </c>
       <c r="D139" s="18" t="str">
         <v/>
@@ -17502,10 +17484,10 @@
     <row r="140" ht="14.250000" customHeight="1">
       <c r="A140" s="1"/>
       <c r="B140" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="C140" s="17" t="s">
         <v>439</v>
-      </c>
-      <c r="C140" s="17" t="s">
-        <v>440</v>
       </c>
       <c r="D140" s="18" t="str">
         <v/>
@@ -17613,10 +17595,10 @@
     <row r="141" ht="14.250000" customHeight="1">
       <c r="A141" s="1"/>
       <c r="B141" s="16" t="s">
+        <v>440</v>
+      </c>
+      <c r="C141" s="17" t="s">
         <v>441</v>
-      </c>
-      <c r="C141" s="17" t="s">
-        <v>442</v>
       </c>
       <c r="D141" s="18" t="str">
         <v/>
@@ -17724,10 +17706,10 @@
     <row r="142" ht="14.250000" customHeight="1">
       <c r="A142" s="1"/>
       <c r="B142" s="16" t="s">
+        <v>442</v>
+      </c>
+      <c r="C142" s="17" t="s">
         <v>443</v>
-      </c>
-      <c r="C142" s="17" t="s">
-        <v>444</v>
       </c>
       <c r="D142" s="18" t="str">
         <v/>
@@ -17829,16 +17811,16 @@
         <v>4.9108555714675397</v>
       </c>
       <c r="AK142" s="22" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="143" ht="14.250000" customHeight="1">
       <c r="A143" s="1"/>
       <c r="B143" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="C143" s="17" t="s">
         <v>446</v>
-      </c>
-      <c r="C143" s="17" t="s">
-        <v>447</v>
       </c>
       <c r="D143" s="18" t="str">
         <v/>
@@ -17946,10 +17928,10 @@
     <row r="144" ht="14.250000" customHeight="1">
       <c r="A144" s="1"/>
       <c r="B144" s="16" t="s">
+        <v>447</v>
+      </c>
+      <c r="C144" s="17" t="s">
         <v>448</v>
-      </c>
-      <c r="C144" s="17" t="s">
-        <v>449</v>
       </c>
       <c r="D144" s="18" t="str">
         <v/>
@@ -18057,10 +18039,10 @@
     <row r="145" ht="14.250000" customHeight="1">
       <c r="A145" s="1"/>
       <c r="B145" s="16" t="s">
+        <v>449</v>
+      </c>
+      <c r="C145" s="17" t="s">
         <v>450</v>
-      </c>
-      <c r="C145" s="17" t="s">
-        <v>451</v>
       </c>
       <c r="D145" s="18" t="str">
         <v/>
@@ -18168,10 +18150,10 @@
     <row r="146" ht="14.250000" customHeight="1">
       <c r="A146" s="1"/>
       <c r="B146" s="16" t="s">
+        <v>451</v>
+      </c>
+      <c r="C146" s="17" t="s">
         <v>452</v>
-      </c>
-      <c r="C146" s="17" t="s">
-        <v>453</v>
       </c>
       <c r="D146" s="18" t="str">
         <v/>
@@ -18279,10 +18261,10 @@
     <row r="147" ht="14.250000" customHeight="1">
       <c r="A147" s="1"/>
       <c r="B147" s="16" t="s">
+        <v>453</v>
+      </c>
+      <c r="C147" s="17" t="s">
         <v>454</v>
-      </c>
-      <c r="C147" s="17" t="s">
-        <v>455</v>
       </c>
       <c r="D147" s="18" t="str">
         <v/>
@@ -18390,10 +18372,10 @@
     <row r="148" ht="14.250000" customHeight="1">
       <c r="A148" s="1"/>
       <c r="B148" s="16" t="s">
+        <v>455</v>
+      </c>
+      <c r="C148" s="17" t="s">
         <v>456</v>
-      </c>
-      <c r="C148" s="17" t="s">
-        <v>457</v>
       </c>
       <c r="D148" s="18" t="str">
         <v/>
@@ -18501,10 +18483,10 @@
     <row r="149" ht="14.250000" customHeight="1">
       <c r="A149" s="1"/>
       <c r="B149" s="16" t="s">
+        <v>457</v>
+      </c>
+      <c r="C149" s="17" t="s">
         <v>458</v>
-      </c>
-      <c r="C149" s="17" t="s">
-        <v>459</v>
       </c>
       <c r="D149" s="18" t="str">
         <v/>
@@ -18605,17 +18587,17 @@
       <c r="AJ149" s="20">
         <v>103.979465159211</v>
       </c>
-      <c r="AK149" s="20" t="s">
-        <v>460</v>
+      <c r="AK149" s="20">
+        <v>116.239182725538</v>
       </c>
     </row>
     <row r="150" ht="14.250000" customHeight="1">
       <c r="A150" s="1"/>
       <c r="B150" s="16" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C150" s="17" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D150" s="18" t="str">
         <v/>
@@ -18723,10 +18705,10 @@
     <row r="151" ht="14.250000" customHeight="1">
       <c r="A151" s="1"/>
       <c r="B151" s="16" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C151" s="17" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D151" s="18" t="str">
         <v/>
@@ -18834,10 +18816,10 @@
     <row r="152" ht="14.250000" customHeight="1">
       <c r="A152" s="1"/>
       <c r="B152" s="16" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C152" s="17" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D152" s="18" t="str">
         <v/>
@@ -18945,10 +18927,10 @@
     <row r="153" ht="24.000000" customHeight="1">
       <c r="A153" s="1"/>
       <c r="B153" s="16" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C153" s="17" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D153" s="18" t="str">
         <v/>
@@ -19038,28 +19020,28 @@
         <v>28.732635763306298</v>
       </c>
       <c r="AG153" s="20" t="s">
+        <v>467</v>
+      </c>
+      <c r="AH153" s="20" t="s">
+        <v>468</v>
+      </c>
+      <c r="AI153" s="20" t="s">
         <v>469</v>
       </c>
-      <c r="AH153" s="20" t="s">
+      <c r="AJ153" s="20" t="s">
         <v>470</v>
       </c>
-      <c r="AI153" s="20" t="s">
+      <c r="AK153" s="20" t="s">
         <v>471</v>
-      </c>
-      <c r="AJ153" s="20" t="s">
-        <v>472</v>
-      </c>
-      <c r="AK153" s="20" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="154" ht="14.250000" customHeight="1">
       <c r="A154" s="1"/>
       <c r="B154" s="16" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C154" s="17" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D154" s="18" t="str">
         <v/>
@@ -19167,10 +19149,10 @@
     <row r="155" ht="14.250000" customHeight="1">
       <c r="A155" s="1"/>
       <c r="B155" s="16" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C155" s="17" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D155" s="18" t="str">
         <v/>
@@ -19278,10 +19260,10 @@
     <row r="156" ht="14.250000" customHeight="1">
       <c r="A156" s="1"/>
       <c r="B156" s="16" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C156" s="17" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D156" s="18" t="str">
         <v/>
@@ -19389,10 +19371,10 @@
     <row r="157" ht="14.250000" customHeight="1">
       <c r="A157" s="1"/>
       <c r="B157" s="16" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C157" s="17" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D157" s="18" t="str">
         <v/>
@@ -19500,10 +19482,10 @@
     <row r="158" ht="14.250000" customHeight="1">
       <c r="A158" s="1"/>
       <c r="B158" s="16" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C158" s="17" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D158" s="18" t="str">
         <v/>
@@ -19611,10 +19593,10 @@
     <row r="159" ht="14.250000" customHeight="1">
       <c r="A159" s="1"/>
       <c r="B159" s="16" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C159" s="17" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D159" s="18" t="str">
         <v/>
@@ -19722,10 +19704,10 @@
     <row r="160" ht="24.000000" customHeight="1">
       <c r="A160" s="1"/>
       <c r="B160" s="16" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C160" s="17" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D160" s="18" t="str">
         <v/>
@@ -19833,10 +19815,10 @@
     <row r="161" ht="14.250000" customHeight="1">
       <c r="A161" s="1"/>
       <c r="B161" s="16" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C161" s="17" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D161" s="18" t="str">
         <v/>
@@ -19944,10 +19926,10 @@
     <row r="162" ht="14.250000" customHeight="1">
       <c r="A162" s="1"/>
       <c r="B162" s="16" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C162" s="17" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D162" s="18" t="str">
         <v/>
@@ -20007,58 +19989,58 @@
         <v>34186.747835284703</v>
       </c>
       <c r="W162" s="22" t="s">
+        <v>490</v>
+      </c>
+      <c r="X162" s="22" t="s">
+        <v>491</v>
+      </c>
+      <c r="Y162" s="22" t="s">
         <v>492</v>
       </c>
-      <c r="X162" s="22" t="s">
+      <c r="Z162" s="22" t="s">
         <v>493</v>
       </c>
-      <c r="Y162" s="22" t="s">
+      <c r="AA162" s="22" t="s">
         <v>494</v>
       </c>
-      <c r="Z162" s="22" t="s">
+      <c r="AB162" s="22" t="s">
         <v>495</v>
       </c>
-      <c r="AA162" s="22" t="s">
+      <c r="AC162" s="22" t="s">
         <v>496</v>
       </c>
-      <c r="AB162" s="22" t="s">
+      <c r="AD162" s="22" t="s">
         <v>497</v>
       </c>
-      <c r="AC162" s="22" t="s">
+      <c r="AE162" s="22" t="s">
         <v>498</v>
       </c>
-      <c r="AD162" s="22" t="s">
+      <c r="AF162" s="22" t="s">
         <v>499</v>
       </c>
-      <c r="AE162" s="22" t="s">
+      <c r="AG162" s="22" t="s">
         <v>500</v>
       </c>
-      <c r="AF162" s="22" t="s">
+      <c r="AH162" s="22" t="s">
         <v>501</v>
       </c>
-      <c r="AG162" s="22" t="s">
+      <c r="AI162" s="22" t="s">
         <v>502</v>
       </c>
-      <c r="AH162" s="22" t="s">
+      <c r="AJ162" s="22" t="s">
         <v>503</v>
       </c>
-      <c r="AI162" s="22" t="s">
+      <c r="AK162" s="22" t="s">
         <v>504</v>
-      </c>
-      <c r="AJ162" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="AK162" s="22" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="163" ht="14.250000" customHeight="1">
       <c r="A163" s="1"/>
       <c r="B163" s="16" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C163" s="17" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D163" s="18" t="str">
         <v/>
@@ -20166,10 +20148,10 @@
     <row r="164" ht="14.250000" customHeight="1">
       <c r="A164" s="1"/>
       <c r="B164" s="16" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C164" s="17" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D164" s="18" t="str">
         <v/>
@@ -20271,16 +20253,16 @@
         <v>604.67212414957203</v>
       </c>
       <c r="AK164" s="22" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="165" ht="14.250000" customHeight="1">
       <c r="A165" s="1"/>
       <c r="B165" s="16" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C165" s="17" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D165" s="18" t="str">
         <v/>
@@ -20370,28 +20352,28 @@
         <v>268.47785227166298</v>
       </c>
       <c r="AG165" s="20" t="s">
+        <v>512</v>
+      </c>
+      <c r="AH165" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="AI165" s="20" t="s">
         <v>514</v>
       </c>
-      <c r="AH165" s="20" t="s">
+      <c r="AJ165" s="20" t="s">
         <v>515</v>
       </c>
-      <c r="AI165" s="20" t="s">
+      <c r="AK165" s="20" t="s">
         <v>516</v>
-      </c>
-      <c r="AJ165" s="20" t="s">
-        <v>517</v>
-      </c>
-      <c r="AK165" s="20" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="166" ht="14.250000" customHeight="1">
       <c r="A166" s="1"/>
       <c r="B166" s="16" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C166" s="17" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D166" s="18" t="str">
         <v/>
@@ -20499,10 +20481,10 @@
     <row r="167" ht="14.250000" customHeight="1">
       <c r="A167" s="1"/>
       <c r="B167" s="16" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C167" s="17" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D167" s="18" t="str">
         <v/>
@@ -20610,10 +20592,10 @@
     <row r="168" ht="14.250000" customHeight="1">
       <c r="A168" s="1"/>
       <c r="B168" s="16" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C168" s="17" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D168" s="18" t="str">
         <v/>
@@ -20721,10 +20703,10 @@
     <row r="169" ht="14.250000" customHeight="1">
       <c r="A169" s="1"/>
       <c r="B169" s="16" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C169" s="17" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D169" s="18" t="str">
         <v/>
@@ -20817,25 +20799,25 @@
         <v>539.68676880953205</v>
       </c>
       <c r="AH169" s="20" t="s">
+        <v>525</v>
+      </c>
+      <c r="AI169" s="20" t="s">
+        <v>526</v>
+      </c>
+      <c r="AJ169" s="20" t="s">
         <v>527</v>
       </c>
-      <c r="AI169" s="20" t="s">
+      <c r="AK169" s="20" t="s">
         <v>528</v>
-      </c>
-      <c r="AJ169" s="20" t="s">
-        <v>529</v>
-      </c>
-      <c r="AK169" s="20" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="170" ht="14.250000" customHeight="1">
       <c r="A170" s="1"/>
       <c r="B170" s="16" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C170" s="17" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D170" s="18" t="str">
         <v/>
@@ -20943,10 +20925,10 @@
     <row r="171" ht="14.250000" customHeight="1">
       <c r="A171" s="1"/>
       <c r="B171" s="16" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C171" s="17" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D171" s="18" t="str">
         <v/>
@@ -21054,10 +21036,10 @@
     <row r="172" ht="14.250000" customHeight="1">
       <c r="A172" s="1"/>
       <c r="B172" s="16" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C172" s="17" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D172" s="18" t="str">
         <v/>
@@ -21165,10 +21147,10 @@
     <row r="173" ht="14.250000" customHeight="1">
       <c r="A173" s="1"/>
       <c r="B173" s="16" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C173" s="17" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D173" s="18" t="str">
         <v/>
@@ -21231,55 +21213,55 @@
         <v>609.02699391810199</v>
       </c>
       <c r="X173" s="20" t="s">
+        <v>537</v>
+      </c>
+      <c r="Y173" s="20" t="s">
+        <v>538</v>
+      </c>
+      <c r="Z173" s="20" t="s">
         <v>539</v>
       </c>
-      <c r="Y173" s="20" t="s">
+      <c r="AA173" s="20" t="s">
         <v>540</v>
       </c>
-      <c r="Z173" s="20" t="s">
+      <c r="AB173" s="20" t="s">
         <v>541</v>
       </c>
-      <c r="AA173" s="20" t="s">
+      <c r="AC173" s="20" t="s">
         <v>542</v>
       </c>
-      <c r="AB173" s="20" t="s">
+      <c r="AD173" s="20" t="s">
         <v>543</v>
       </c>
-      <c r="AC173" s="20" t="s">
+      <c r="AE173" s="20" t="s">
         <v>544</v>
       </c>
-      <c r="AD173" s="20" t="s">
+      <c r="AF173" s="20" t="s">
         <v>545</v>
       </c>
-      <c r="AE173" s="20" t="s">
+      <c r="AG173" s="20" t="s">
         <v>546</v>
       </c>
-      <c r="AF173" s="20" t="s">
+      <c r="AH173" s="20" t="s">
         <v>547</v>
       </c>
-      <c r="AG173" s="20" t="s">
+      <c r="AI173" s="20" t="s">
         <v>548</v>
       </c>
-      <c r="AH173" s="20" t="s">
+      <c r="AJ173" s="20" t="s">
         <v>549</v>
       </c>
-      <c r="AI173" s="20" t="s">
+      <c r="AK173" s="20" t="s">
         <v>550</v>
-      </c>
-      <c r="AJ173" s="20" t="s">
-        <v>551</v>
-      </c>
-      <c r="AK173" s="20" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="174" ht="14.250000" customHeight="1">
       <c r="A174" s="1"/>
       <c r="B174" s="16" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C174" s="17" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D174" s="18" t="str">
         <v/>
@@ -21387,10 +21369,10 @@
     <row r="175" ht="14.250000" customHeight="1">
       <c r="A175" s="1"/>
       <c r="B175" s="16" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C175" s="17" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D175" s="18" t="str">
         <v/>
@@ -21498,10 +21480,10 @@
     <row r="176" ht="14.250000" customHeight="1">
       <c r="A176" s="1"/>
       <c r="B176" s="16" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C176" s="17" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D176" s="18" t="str">
         <v/>
@@ -21609,10 +21591,10 @@
     <row r="177" ht="14.250000" customHeight="1">
       <c r="A177" s="1"/>
       <c r="B177" s="16" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C177" s="17" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D177" s="18" t="str">
         <v/>
@@ -21720,10 +21702,10 @@
     <row r="178" ht="14.250000" customHeight="1">
       <c r="A178" s="1"/>
       <c r="B178" s="16" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C178" s="17" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D178" s="18" t="str">
         <v/>
@@ -21831,10 +21813,10 @@
     <row r="179" ht="14.250000" customHeight="1">
       <c r="A179" s="1"/>
       <c r="B179" s="16" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C179" s="17" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D179" s="18" t="str">
         <v/>
@@ -21942,10 +21924,10 @@
     <row r="180" ht="14.250000" customHeight="1">
       <c r="A180" s="1"/>
       <c r="B180" s="16" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C180" s="17" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D180" s="18" t="str">
         <v/>
@@ -22046,17 +22028,17 @@
       <c r="AJ180" s="22">
         <v>3.1830653578991401</v>
       </c>
-      <c r="AK180" s="22" t="s">
-        <v>567</v>
+      <c r="AK180" s="22">
+        <v>3.1079120778137601</v>
       </c>
     </row>
     <row r="181" ht="14.250000" customHeight="1">
       <c r="A181" s="1"/>
       <c r="B181" s="16" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C181" s="17" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D181" s="18" t="str">
         <v/>
@@ -22164,10 +22146,10 @@
     <row r="182" ht="14.250000" customHeight="1">
       <c r="A182" s="1"/>
       <c r="B182" s="16" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C182" s="17" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D182" s="18" t="str">
         <v/>
@@ -22275,10 +22257,10 @@
     <row r="183" ht="14.250000" customHeight="1">
       <c r="A183" s="1"/>
       <c r="B183" s="16" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C183" s="17" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D183" s="18" t="str">
         <v/>
@@ -22386,10 +22368,10 @@
     <row r="184" ht="14.250000" customHeight="1">
       <c r="A184" s="1"/>
       <c r="B184" s="16" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C184" s="17" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D184" s="18" t="str">
         <v/>
@@ -22497,10 +22479,10 @@
     <row r="185" ht="14.250000" customHeight="1">
       <c r="A185" s="1"/>
       <c r="B185" s="16" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C185" s="17" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D185" s="18" t="str">
         <v/>
@@ -22608,10 +22590,10 @@
     <row r="186" ht="14.250000" customHeight="1">
       <c r="A186" s="1"/>
       <c r="B186" s="16" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C186" s="17" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D186" s="18" t="str">
         <v/>
@@ -22719,10 +22701,10 @@
     <row r="187" ht="14.250000" customHeight="1">
       <c r="A187" s="1"/>
       <c r="B187" s="16" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C187" s="17" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D187" s="18" t="str">
         <v/>
@@ -22830,10 +22812,10 @@
     <row r="188" ht="14.250000" customHeight="1">
       <c r="A188" s="1"/>
       <c r="B188" s="16" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C188" s="17" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D188" s="18" t="str">
         <v/>
@@ -22941,10 +22923,10 @@
     <row r="189" ht="14.250000" customHeight="1">
       <c r="A189" s="1"/>
       <c r="B189" s="16" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C189" s="17" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D189" s="18" t="str">
         <v/>
@@ -23052,10 +23034,10 @@
     <row r="190" ht="14.250000" customHeight="1">
       <c r="A190" s="1"/>
       <c r="B190" s="16" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C190" s="17" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D190" s="18" t="str">
         <v/>
@@ -23163,10 +23145,10 @@
     <row r="191" ht="14.250000" customHeight="1">
       <c r="A191" s="1"/>
       <c r="B191" s="16" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C191" s="17" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D191" s="18" t="str">
         <v/>
@@ -23264,20 +23246,20 @@
       <c r="AI191" s="20">
         <v>158.28669969061201</v>
       </c>
-      <c r="AJ191" s="20" t="s">
-        <v>590</v>
-      </c>
-      <c r="AK191" s="20" t="s">
-        <v>591</v>
+      <c r="AJ191" s="20">
+        <v>157.03442860881799</v>
+      </c>
+      <c r="AK191" s="20">
+        <v>152.50628991677999</v>
       </c>
     </row>
     <row r="192" ht="14.250000" customHeight="1">
       <c r="A192" s="1"/>
       <c r="B192" s="16" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="C192" s="17" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="D192" s="18" t="str">
         <v/>
@@ -23337,58 +23319,58 @@
         <v>134693.395297546</v>
       </c>
       <c r="W192" s="22" t="s">
+        <v>589</v>
+      </c>
+      <c r="X192" s="22" t="s">
+        <v>590</v>
+      </c>
+      <c r="Y192" s="22" t="s">
+        <v>591</v>
+      </c>
+      <c r="Z192" s="22" t="s">
+        <v>592</v>
+      </c>
+      <c r="AA192" s="22" t="s">
+        <v>593</v>
+      </c>
+      <c r="AB192" s="22" t="s">
         <v>594</v>
       </c>
-      <c r="X192" s="22" t="s">
+      <c r="AC192" s="22" t="s">
         <v>595</v>
       </c>
-      <c r="Y192" s="22" t="s">
+      <c r="AD192" s="22" t="s">
         <v>596</v>
       </c>
-      <c r="Z192" s="22" t="s">
+      <c r="AE192" s="22" t="s">
         <v>597</v>
       </c>
-      <c r="AA192" s="22" t="s">
+      <c r="AF192" s="22" t="s">
         <v>598</v>
       </c>
-      <c r="AB192" s="22" t="s">
+      <c r="AG192" s="22" t="s">
         <v>599</v>
       </c>
-      <c r="AC192" s="22" t="s">
+      <c r="AH192" s="22" t="s">
         <v>600</v>
       </c>
-      <c r="AD192" s="22" t="s">
+      <c r="AI192" s="22" t="s">
         <v>601</v>
       </c>
-      <c r="AE192" s="22" t="s">
+      <c r="AJ192" s="22" t="s">
         <v>602</v>
       </c>
-      <c r="AF192" s="22" t="s">
+      <c r="AK192" s="22" t="s">
         <v>603</v>
-      </c>
-      <c r="AG192" s="22" t="s">
-        <v>604</v>
-      </c>
-      <c r="AH192" s="22" t="s">
-        <v>605</v>
-      </c>
-      <c r="AI192" s="22" t="s">
-        <v>606</v>
-      </c>
-      <c r="AJ192" s="22" t="s">
-        <v>607</v>
-      </c>
-      <c r="AK192" s="22" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="193" ht="14.250000" customHeight="1">
       <c r="A193" s="1"/>
       <c r="B193" s="16" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="C193" s="17" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="D193" s="18" t="str">
         <v/>
@@ -23496,10 +23478,10 @@
     <row r="194" ht="14.250000" customHeight="1">
       <c r="A194" s="1"/>
       <c r="B194" s="16" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="C194" s="17" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="D194" s="18" t="str">
         <v/>
@@ -23607,10 +23589,10 @@
     <row r="195" ht="14.250000" customHeight="1">
       <c r="A195" s="1"/>
       <c r="B195" s="16" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="C195" s="17" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="D195" s="18" t="str">
         <v/>
@@ -23711,80 +23693,80 @@
       <c r="AJ195" s="20">
         <v>23.335865431851701</v>
       </c>
-      <c r="AK195" s="20" t="s">
-        <v>615</v>
+      <c r="AK195" s="20">
+        <v>25.010238394757899</v>
       </c>
     </row>
     <row r="196" ht="14.250000" customHeight="1">
       <c r="A196" s="1"/>
       <c r="B196" s="16" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="C196" s="17" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D196" s="18" t="str">
         <v/>
       </c>
       <c r="E196" s="21" t="s">
+        <v>612</v>
+      </c>
+      <c r="F196" s="22" t="s">
+        <v>613</v>
+      </c>
+      <c r="G196" s="22" t="s">
+        <v>614</v>
+      </c>
+      <c r="H196" s="22" t="s">
+        <v>615</v>
+      </c>
+      <c r="I196" s="22" t="s">
+        <v>616</v>
+      </c>
+      <c r="J196" s="22" t="s">
+        <v>617</v>
+      </c>
+      <c r="K196" s="22" t="s">
         <v>618</v>
       </c>
-      <c r="F196" s="22" t="s">
+      <c r="L196" s="22" t="s">
         <v>619</v>
       </c>
-      <c r="G196" s="22" t="s">
+      <c r="M196" s="22" t="s">
         <v>620</v>
       </c>
-      <c r="H196" s="22" t="s">
+      <c r="N196" s="22" t="s">
         <v>621</v>
       </c>
-      <c r="I196" s="22" t="s">
+      <c r="O196" s="22" t="s">
         <v>622</v>
       </c>
-      <c r="J196" s="22" t="s">
+      <c r="P196" s="22" t="s">
         <v>623</v>
       </c>
-      <c r="K196" s="22" t="s">
+      <c r="Q196" s="22" t="s">
         <v>624</v>
       </c>
-      <c r="L196" s="22" t="s">
+      <c r="R196" s="22" t="s">
         <v>625</v>
       </c>
-      <c r="M196" s="22" t="s">
+      <c r="S196" s="22" t="s">
         <v>626</v>
       </c>
-      <c r="N196" s="22" t="s">
+      <c r="T196" s="22" t="s">
         <v>627</v>
       </c>
-      <c r="O196" s="22" t="s">
+      <c r="U196" s="22" t="s">
         <v>628</v>
       </c>
-      <c r="P196" s="22" t="s">
+      <c r="V196" s="22" t="s">
         <v>629</v>
       </c>
-      <c r="Q196" s="22" t="s">
+      <c r="W196" s="22" t="s">
         <v>630</v>
       </c>
-      <c r="R196" s="22" t="s">
+      <c r="X196" s="22" t="s">
         <v>631</v>
-      </c>
-      <c r="S196" s="22" t="s">
-        <v>632</v>
-      </c>
-      <c r="T196" s="22" t="s">
-        <v>633</v>
-      </c>
-      <c r="U196" s="22" t="s">
-        <v>634</v>
-      </c>
-      <c r="V196" s="22" t="s">
-        <v>635</v>
-      </c>
-      <c r="W196" s="22" t="s">
-        <v>636</v>
-      </c>
-      <c r="X196" s="22" t="s">
-        <v>637</v>
       </c>
       <c r="Y196" s="22">
         <v>4.1814110457553504</v>
@@ -23829,10 +23811,10 @@
     <row r="197" ht="24.000000" customHeight="1">
       <c r="A197" s="1"/>
       <c r="B197" s="16" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="C197" s="17" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="D197" s="18" t="str">
         <v/>
@@ -23940,10 +23922,10 @@
     <row r="198" ht="24.000000" customHeight="1">
       <c r="A198" s="1"/>
       <c r="B198" s="16" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="C198" s="17" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="D198" s="18" t="str">
         <v/>
@@ -24051,10 +24033,10 @@
     <row r="199" ht="24.000000" customHeight="1">
       <c r="A199" s="1"/>
       <c r="B199" s="23" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="C199" s="24" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="D199" s="25" t="str">
         <v/>

--- a/FOREX/data/FOREX_3Q.xlsx
+++ b/FOREX/data/FOREX_3Q.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="634">
   <si>
     <t xml:space="preserve"> Monetary and Financial Statistics by Indicator</t>
   </si>
@@ -701,28 +701,106 @@
     <t>Units</t>
   </si>
   <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Greenland</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Georgia</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Grenada</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Ghana</t>
+    <t>Guatemala</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Gibraltar</t>
+    <t>Guernsey</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Greenland</t>
+    <t>Guinea</t>
   </si>
   <si>
     <t>Units</t>
@@ -740,175 +818,85 @@
     <t>...</t>
   </si>
   <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Iran, Islamic Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Grenada</t>
+    <t>Isle of Man</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Guatemala</t>
+    <t>Israel</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Guernsey</t>
+    <t>Jamaica</t>
   </si>
   <si>
     <t>Units</t>
-  </si>
-  <si>
-    <t>Guinea</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Guinea-Bissau</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Guyana</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Haiti</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Honduras</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Hungary</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Iceland</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Iran, Islamic Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Isle of Man</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
   </si>
   <si>
     <t>Japan</t>
@@ -2433,7 +2421,7 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:AK199"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="0" showRowColHeaders="0" zoomScale="100">
+    <sheetView workbookViewId="0" showGridLines="0" showRowColHeaders="0" zoomScale="100">
       <pane xSplit="4" ySplit="7" state="frozen" topLeftCell="E8"/>
     </sheetView>
   </sheetViews>
@@ -10262,17 +10250,17 @@
       <c r="AJ74" s="22">
         <v>73.632631810248697</v>
       </c>
-      <c r="AK74" s="22" t="s">
-        <v>229</v>
+      <c r="AK74" s="22">
+        <v>73.239514501368603</v>
       </c>
     </row>
     <row r="75" ht="14.250000" customHeight="1">
       <c r="A75" s="1"/>
       <c r="B75" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C75" s="17" t="s">
         <v>230</v>
-      </c>
-      <c r="C75" s="17" t="s">
-        <v>231</v>
       </c>
       <c r="D75" s="18" t="str">
         <v/>
@@ -10380,10 +10368,10 @@
     <row r="76" ht="14.250000" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="C76" s="17" t="s">
         <v>232</v>
-      </c>
-      <c r="C76" s="17" t="s">
-        <v>233</v>
       </c>
       <c r="D76" s="18" t="str">
         <v/>
@@ -10491,10 +10479,10 @@
     <row r="77" ht="14.250000" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="C77" s="17" t="s">
         <v>234</v>
-      </c>
-      <c r="C77" s="17" t="s">
-        <v>235</v>
       </c>
       <c r="D77" s="18" t="str">
         <v/>
@@ -10602,10 +10590,10 @@
     <row r="78" ht="14.250000" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="C78" s="17" t="s">
         <v>236</v>
-      </c>
-      <c r="C78" s="17" t="s">
-        <v>237</v>
       </c>
       <c r="D78" s="18" t="str">
         <v/>
@@ -10653,70 +10641,70 @@
         <v>9.0669772243765507</v>
       </c>
       <c r="S78" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="T78" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="T78" s="22" t="s">
+      <c r="U78" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="U78" s="22" t="s">
+      <c r="V78" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="V78" s="22" t="s">
+      <c r="W78" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="W78" s="22" t="s">
+      <c r="X78" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="X78" s="22" t="s">
+      <c r="Y78" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="Y78" s="22" t="s">
+      <c r="Z78" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="Z78" s="22" t="s">
+      <c r="AA78" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="AA78" s="22" t="s">
+      <c r="AB78" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="AB78" s="22" t="s">
+      <c r="AC78" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="AC78" s="22" t="s">
+      <c r="AD78" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="AD78" s="22" t="s">
+      <c r="AE78" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="AE78" s="22" t="s">
+      <c r="AF78" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="AF78" s="22" t="s">
+      <c r="AG78" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="AG78" s="22" t="s">
+      <c r="AH78" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="AH78" s="22" t="s">
+      <c r="AI78" s="22" t="s">
         <v>253</v>
       </c>
-      <c r="AI78" s="22" t="s">
+      <c r="AJ78" s="22" t="s">
         <v>254</v>
       </c>
-      <c r="AJ78" s="22" t="s">
+      <c r="AK78" s="22" t="s">
         <v>255</v>
-      </c>
-      <c r="AK78" s="22" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="79" ht="14.250000" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="C79" s="17" t="s">
         <v>257</v>
-      </c>
-      <c r="C79" s="17" t="s">
-        <v>258</v>
       </c>
       <c r="D79" s="18" t="str">
         <v/>
@@ -10824,10 +10812,10 @@
     <row r="80" ht="14.250000" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="C80" s="17" t="s">
         <v>259</v>
-      </c>
-      <c r="C80" s="17" t="s">
-        <v>260</v>
       </c>
       <c r="D80" s="18" t="str">
         <v/>
@@ -10935,10 +10923,10 @@
     <row r="81" ht="14.250000" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="C81" s="17" t="s">
         <v>261</v>
-      </c>
-      <c r="C81" s="17" t="s">
-        <v>262</v>
       </c>
       <c r="D81" s="18" t="str">
         <v/>
@@ -11046,10 +11034,10 @@
     <row r="82" ht="14.250000" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="C82" s="17" t="s">
         <v>263</v>
-      </c>
-      <c r="C82" s="17" t="s">
-        <v>264</v>
       </c>
       <c r="D82" s="18" t="str">
         <v/>
@@ -11142,25 +11130,25 @@
         <v>14112.511532525599</v>
       </c>
       <c r="AH82" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="AI82" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="AI82" s="22" t="s">
+      <c r="AJ82" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="AJ82" s="22" t="s">
+      <c r="AK82" s="22" t="s">
         <v>267</v>
-      </c>
-      <c r="AK82" s="22" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="83" ht="14.250000" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="C83" s="17" t="s">
         <v>269</v>
-      </c>
-      <c r="C83" s="17" t="s">
-        <v>270</v>
       </c>
       <c r="D83" s="18" t="str">
         <v/>
@@ -11268,10 +11256,10 @@
     <row r="84" ht="14.250000" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="C84" s="17" t="s">
         <v>271</v>
-      </c>
-      <c r="C84" s="17" t="s">
-        <v>272</v>
       </c>
       <c r="D84" s="18" t="str">
         <v/>
@@ -11379,10 +11367,10 @@
     <row r="85" ht="14.250000" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="C85" s="17" t="s">
         <v>273</v>
-      </c>
-      <c r="C85" s="17" t="s">
-        <v>274</v>
       </c>
       <c r="D85" s="18" t="str">
         <v/>
@@ -11490,10 +11478,10 @@
     <row r="86" ht="14.250000" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C86" s="17" t="s">
         <v>275</v>
-      </c>
-      <c r="C86" s="17" t="s">
-        <v>276</v>
       </c>
       <c r="D86" s="18" t="str">
         <v/>
@@ -11601,10 +11589,10 @@
     <row r="87" ht="14.250000" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="C87" s="17" t="s">
         <v>277</v>
-      </c>
-      <c r="C87" s="17" t="s">
-        <v>278</v>
       </c>
       <c r="D87" s="18" t="str">
         <v/>
@@ -11712,10 +11700,10 @@
     <row r="88" ht="14.250000" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="C88" s="17" t="s">
         <v>279</v>
-      </c>
-      <c r="C88" s="17" t="s">
-        <v>280</v>
       </c>
       <c r="D88" s="18" t="str">
         <v/>
@@ -11823,10 +11811,10 @@
     <row r="89" ht="14.250000" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="C89" s="17" t="s">
         <v>281</v>
-      </c>
-      <c r="C89" s="17" t="s">
-        <v>282</v>
       </c>
       <c r="D89" s="18" t="str">
         <v/>
@@ -11934,10 +11922,10 @@
     <row r="90" ht="14.250000" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="C90" s="17" t="s">
         <v>283</v>
-      </c>
-      <c r="C90" s="17" t="s">
-        <v>284</v>
       </c>
       <c r="D90" s="18" t="str">
         <v/>
@@ -12045,10 +12033,10 @@
     <row r="91" ht="14.250000" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="C91" s="17" t="s">
         <v>285</v>
-      </c>
-      <c r="C91" s="17" t="s">
-        <v>286</v>
       </c>
       <c r="D91" s="18" t="str">
         <v/>
@@ -12156,10 +12144,10 @@
     <row r="92" ht="14.250000" customHeight="1">
       <c r="A92" s="1"/>
       <c r="B92" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="C92" s="17" t="s">
         <v>287</v>
-      </c>
-      <c r="C92" s="17" t="s">
-        <v>288</v>
       </c>
       <c r="D92" s="18" t="str">
         <v/>
@@ -12261,16 +12249,16 @@
         <v>2029.41106490896</v>
       </c>
       <c r="AK92" s="22" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="93" ht="14.250000" customHeight="1">
       <c r="A93" s="1"/>
       <c r="B93" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C93" s="17" t="s">
         <v>290</v>
-      </c>
-      <c r="C93" s="17" t="s">
-        <v>291</v>
       </c>
       <c r="D93" s="18" t="str">
         <v/>
@@ -12378,10 +12366,10 @@
     <row r="94" ht="14.250000" customHeight="1">
       <c r="A94" s="1"/>
       <c r="B94" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="C94" s="17" t="s">
         <v>292</v>
-      </c>
-      <c r="C94" s="17" t="s">
-        <v>293</v>
       </c>
       <c r="D94" s="18" t="str">
         <v/>
@@ -12489,10 +12477,10 @@
     <row r="95" ht="14.250000" customHeight="1">
       <c r="A95" s="1"/>
       <c r="B95" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="C95" s="17" t="s">
         <v>294</v>
-      </c>
-      <c r="C95" s="17" t="s">
-        <v>295</v>
       </c>
       <c r="D95" s="18" t="str">
         <v/>
@@ -12587,23 +12575,23 @@
       <c r="AH95" s="20">
         <v>209.28972661164499</v>
       </c>
-      <c r="AI95" s="20" t="s">
-        <v>296</v>
-      </c>
-      <c r="AJ95" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="AK95" s="20" t="s">
-        <v>298</v>
+      <c r="AI95" s="20">
+        <v>206.18325471831</v>
+      </c>
+      <c r="AJ95" s="20">
+        <v>215.425413544989</v>
+      </c>
+      <c r="AK95" s="20">
+        <v>211.92989853189201</v>
       </c>
     </row>
     <row r="96" ht="14.250000" customHeight="1">
       <c r="A96" s="1"/>
       <c r="B96" s="16" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D96" s="18" t="str">
         <v/>
@@ -12711,10 +12699,10 @@
     <row r="97" ht="14.250000" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="16" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D97" s="18" t="str">
         <v/>
@@ -12822,10 +12810,10 @@
     <row r="98" ht="14.250000" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="16" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D98" s="18" t="str">
         <v/>
@@ -12933,10 +12921,10 @@
     <row r="99" ht="14.250000" customHeight="1">
       <c r="A99" s="1"/>
       <c r="B99" s="16" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D99" s="18" t="str">
         <v/>
@@ -13044,10 +13032,10 @@
     <row r="100" ht="14.250000" customHeight="1">
       <c r="A100" s="1"/>
       <c r="B100" s="16" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D100" s="18" t="str">
         <v/>
@@ -13155,10 +13143,10 @@
     <row r="101" ht="14.250000" customHeight="1">
       <c r="A101" s="1"/>
       <c r="B101" s="16" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D101" s="18" t="str">
         <v/>
@@ -13266,10 +13254,10 @@
     <row r="102" ht="14.250000" customHeight="1">
       <c r="A102" s="1"/>
       <c r="B102" s="16" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D102" s="18" t="str">
         <v/>
@@ -13377,10 +13365,10 @@
     <row r="103" ht="14.250000" customHeight="1">
       <c r="A103" s="1"/>
       <c r="B103" s="16" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D103" s="18" t="str">
         <v/>
@@ -13488,10 +13476,10 @@
     <row r="104" ht="14.250000" customHeight="1">
       <c r="A104" s="1"/>
       <c r="B104" s="16" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D104" s="18" t="str">
         <v/>
@@ -13599,10 +13587,10 @@
     <row r="105" ht="14.250000" customHeight="1">
       <c r="A105" s="1"/>
       <c r="B105" s="16" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D105" s="18" t="str">
         <v/>
@@ -13710,10 +13698,10 @@
     <row r="106" ht="14.250000" customHeight="1">
       <c r="A106" s="1"/>
       <c r="B106" s="16" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D106" s="18" t="str">
         <v/>
@@ -13821,10 +13809,10 @@
     <row r="107" ht="14.250000" customHeight="1">
       <c r="A107" s="1"/>
       <c r="B107" s="16" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D107" s="18" t="str">
         <v/>
@@ -13932,10 +13920,10 @@
     <row r="108" ht="14.250000" customHeight="1">
       <c r="A108" s="1"/>
       <c r="B108" s="16" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D108" s="18" t="str">
         <v/>
@@ -14043,10 +14031,10 @@
     <row r="109" ht="14.250000" customHeight="1">
       <c r="A109" s="1"/>
       <c r="B109" s="16" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C109" s="17" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D109" s="18" t="str">
         <v/>
@@ -14142,22 +14130,22 @@
         <v>244.51511581133499</v>
       </c>
       <c r="AI109" s="20" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="AJ109" s="20" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="AK109" s="20" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="110" ht="14.250000" customHeight="1">
       <c r="A110" s="1"/>
       <c r="B110" s="16" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D110" s="18" t="str">
         <v/>
@@ -14244,31 +14232,31 @@
         <v>1.9361409072547899</v>
       </c>
       <c r="AF110" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="AG110" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="AH110" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="AI110" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="AJ110" s="22" t="s">
         <v>332</v>
       </c>
-      <c r="AG110" s="22" t="s">
+      <c r="AK110" s="22" t="s">
         <v>333</v>
-      </c>
-      <c r="AH110" s="22" t="s">
-        <v>334</v>
-      </c>
-      <c r="AI110" s="22" t="s">
-        <v>335</v>
-      </c>
-      <c r="AJ110" s="22" t="s">
-        <v>336</v>
-      </c>
-      <c r="AK110" s="22" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="111" ht="14.250000" customHeight="1">
       <c r="A111" s="1"/>
       <c r="B111" s="16" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D111" s="18" t="str">
         <v/>
@@ -14286,100 +14274,100 @@
         <v>4.1127228262129396</v>
       </c>
       <c r="I111" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="J111" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="K111" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="L111" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="M111" s="20" t="s">
         <v>340</v>
       </c>
-      <c r="J111" s="20" t="s">
+      <c r="N111" s="20" t="s">
         <v>341</v>
       </c>
-      <c r="K111" s="20" t="s">
+      <c r="O111" s="20" t="s">
         <v>342</v>
       </c>
-      <c r="L111" s="20" t="s">
+      <c r="P111" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="M111" s="20" t="s">
+      <c r="Q111" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="N111" s="20" t="s">
+      <c r="R111" s="20" t="s">
         <v>345</v>
       </c>
-      <c r="O111" s="20" t="s">
+      <c r="S111" s="20" t="s">
         <v>346</v>
       </c>
-      <c r="P111" s="20" t="s">
+      <c r="T111" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="Q111" s="20" t="s">
+      <c r="U111" s="20" t="s">
         <v>348</v>
       </c>
-      <c r="R111" s="20" t="s">
+      <c r="V111" s="20" t="s">
         <v>349</v>
       </c>
-      <c r="S111" s="20" t="s">
+      <c r="W111" s="20" t="s">
         <v>350</v>
       </c>
-      <c r="T111" s="20" t="s">
+      <c r="X111" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="U111" s="20" t="s">
+      <c r="Y111" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="V111" s="20" t="s">
+      <c r="Z111" s="20" t="s">
         <v>353</v>
       </c>
-      <c r="W111" s="20" t="s">
+      <c r="AA111" s="20" t="s">
         <v>354</v>
       </c>
-      <c r="X111" s="20" t="s">
+      <c r="AB111" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="Y111" s="20" t="s">
+      <c r="AC111" s="20" t="s">
         <v>356</v>
       </c>
-      <c r="Z111" s="20" t="s">
+      <c r="AD111" s="20" t="s">
         <v>357</v>
       </c>
-      <c r="AA111" s="20" t="s">
+      <c r="AE111" s="20" t="s">
         <v>358</v>
       </c>
-      <c r="AB111" s="20" t="s">
+      <c r="AF111" s="20" t="s">
         <v>359</v>
       </c>
-      <c r="AC111" s="20" t="s">
+      <c r="AG111" s="20" t="s">
         <v>360</v>
       </c>
-      <c r="AD111" s="20" t="s">
+      <c r="AH111" s="20" t="s">
         <v>361</v>
       </c>
-      <c r="AE111" s="20" t="s">
+      <c r="AI111" s="20" t="s">
         <v>362</v>
       </c>
-      <c r="AF111" s="20" t="s">
+      <c r="AJ111" s="20" t="s">
         <v>363</v>
       </c>
-      <c r="AG111" s="20" t="s">
+      <c r="AK111" s="20" t="s">
         <v>364</v>
-      </c>
-      <c r="AH111" s="20" t="s">
-        <v>365</v>
-      </c>
-      <c r="AI111" s="20" t="s">
-        <v>366</v>
-      </c>
-      <c r="AJ111" s="20" t="s">
-        <v>367</v>
-      </c>
-      <c r="AK111" s="20" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="112" ht="14.250000" customHeight="1">
       <c r="A112" s="1"/>
       <c r="B112" s="16" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C112" s="17" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D112" s="18" t="str">
         <v/>
@@ -14487,10 +14475,10 @@
     <row r="113" ht="14.250000" customHeight="1">
       <c r="A113" s="1"/>
       <c r="B113" s="16" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C113" s="17" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D113" s="18" t="str">
         <v/>
@@ -14589,19 +14577,19 @@
         <v>1158.32539788188</v>
       </c>
       <c r="AJ113" s="20" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="AK113" s="20" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="114" ht="14.250000" customHeight="1">
       <c r="A114" s="1"/>
       <c r="B114" s="16" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D114" s="18" t="str">
         <v/>
@@ -14709,10 +14697,10 @@
     <row r="115" ht="14.250000" customHeight="1">
       <c r="A115" s="1"/>
       <c r="B115" s="16" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D115" s="18" t="str">
         <v/>
@@ -14820,10 +14808,10 @@
     <row r="116" ht="14.250000" customHeight="1">
       <c r="A116" s="1"/>
       <c r="B116" s="16" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D116" s="18" t="str">
         <v/>
@@ -14931,10 +14919,10 @@
     <row r="117" ht="14.250000" customHeight="1">
       <c r="A117" s="1"/>
       <c r="B117" s="16" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D117" s="18" t="str">
         <v/>
@@ -15027,25 +15015,25 @@
         <v>50.906091582779801</v>
       </c>
       <c r="AH117" s="20" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="AI117" s="20" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="AJ117" s="20" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="AK117" s="20" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="118" ht="14.250000" customHeight="1">
       <c r="A118" s="1"/>
       <c r="B118" s="16" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D118" s="18" t="str">
         <v/>
@@ -15153,10 +15141,10 @@
     <row r="119" ht="14.250000" customHeight="1">
       <c r="A119" s="1"/>
       <c r="B119" s="16" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D119" s="18" t="str">
         <v/>
@@ -15264,10 +15252,10 @@
     <row r="120" ht="24.000000" customHeight="1">
       <c r="A120" s="1"/>
       <c r="B120" s="16" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D120" s="18" t="str">
         <v/>
@@ -15375,10 +15363,10 @@
     <row r="121" ht="14.250000" customHeight="1">
       <c r="A121" s="1"/>
       <c r="B121" s="16" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D121" s="18" t="str">
         <v/>
@@ -15486,10 +15474,10 @@
     <row r="122" ht="14.250000" customHeight="1">
       <c r="A122" s="1"/>
       <c r="B122" s="16" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D122" s="18" t="str">
         <v/>
@@ -15597,10 +15585,10 @@
     <row r="123" ht="14.250000" customHeight="1">
       <c r="A123" s="1"/>
       <c r="B123" s="16" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C123" s="17" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D123" s="18" t="str">
         <v/>
@@ -15708,10 +15696,10 @@
     <row r="124" ht="14.250000" customHeight="1">
       <c r="A124" s="1"/>
       <c r="B124" s="16" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D124" s="18" t="str">
         <v/>
@@ -15819,10 +15807,10 @@
     <row r="125" ht="14.250000" customHeight="1">
       <c r="A125" s="1"/>
       <c r="B125" s="16" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D125" s="18" t="str">
         <v/>
@@ -15930,10 +15918,10 @@
     <row r="126" ht="14.250000" customHeight="1">
       <c r="A126" s="1"/>
       <c r="B126" s="16" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C126" s="17" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D126" s="18" t="str">
         <v/>
@@ -16041,10 +16029,10 @@
     <row r="127" ht="14.250000" customHeight="1">
       <c r="A127" s="1"/>
       <c r="B127" s="16" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D127" s="18" t="str">
         <v/>
@@ -16137,25 +16125,25 @@
         <v>2053.3918734490398</v>
       </c>
       <c r="AH127" s="20" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="AI127" s="20" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="AJ127" s="20" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="AK127" s="20" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="128" ht="14.250000" customHeight="1">
       <c r="A128" s="1"/>
       <c r="B128" s="16" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D128" s="18" t="str">
         <v/>
@@ -16263,10 +16251,10 @@
     <row r="129" ht="14.250000" customHeight="1">
       <c r="A129" s="1"/>
       <c r="B129" s="16" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D129" s="18" t="str">
         <v/>
@@ -16374,10 +16362,10 @@
     <row r="130" ht="14.250000" customHeight="1">
       <c r="A130" s="1"/>
       <c r="B130" s="16" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C130" s="17" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D130" s="18" t="str">
         <v/>
@@ -16485,10 +16473,10 @@
     <row r="131" ht="14.250000" customHeight="1">
       <c r="A131" s="1"/>
       <c r="B131" s="16" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D131" s="18" t="str">
         <v/>
@@ -16596,10 +16584,10 @@
     <row r="132" ht="14.250000" customHeight="1">
       <c r="A132" s="1"/>
       <c r="B132" s="16" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="D132" s="18" t="str">
         <v/>
@@ -16707,10 +16695,10 @@
     <row r="133" ht="14.250000" customHeight="1">
       <c r="A133" s="1"/>
       <c r="B133" s="16" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C133" s="17" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D133" s="18" t="str">
         <v/>
@@ -16812,16 +16800,16 @@
         <v>49.714972714918098</v>
       </c>
       <c r="AK133" s="20" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="134" ht="14.250000" customHeight="1">
       <c r="A134" s="1"/>
       <c r="B134" s="16" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C134" s="17" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D134" s="18" t="str">
         <v/>
@@ -16929,10 +16917,10 @@
     <row r="135" ht="14.250000" customHeight="1">
       <c r="A135" s="1"/>
       <c r="B135" s="16" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C135" s="17" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D135" s="18" t="str">
         <v/>
@@ -17031,19 +17019,19 @@
         <v>578.76436344373303</v>
       </c>
       <c r="AJ135" s="20" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="AK135" s="20" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="136" ht="14.250000" customHeight="1">
       <c r="A136" s="1"/>
       <c r="B136" s="16" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C136" s="17" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D136" s="18" t="str">
         <v/>
@@ -17151,10 +17139,10 @@
     <row r="137" ht="14.250000" customHeight="1">
       <c r="A137" s="1"/>
       <c r="B137" s="16" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C137" s="17" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D137" s="18" t="str">
         <v/>
@@ -17262,10 +17250,10 @@
     <row r="138" ht="14.250000" customHeight="1">
       <c r="A138" s="1"/>
       <c r="B138" s="16" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C138" s="17" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D138" s="18" t="str">
         <v/>
@@ -17373,10 +17361,10 @@
     <row r="139" ht="14.250000" customHeight="1">
       <c r="A139" s="1"/>
       <c r="B139" s="16" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C139" s="17" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D139" s="18" t="str">
         <v/>
@@ -17484,10 +17472,10 @@
     <row r="140" ht="14.250000" customHeight="1">
       <c r="A140" s="1"/>
       <c r="B140" s="16" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C140" s="17" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D140" s="18" t="str">
         <v/>
@@ -17595,10 +17583,10 @@
     <row r="141" ht="14.250000" customHeight="1">
       <c r="A141" s="1"/>
       <c r="B141" s="16" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C141" s="17" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D141" s="18" t="str">
         <v/>
@@ -17706,10 +17694,10 @@
     <row r="142" ht="14.250000" customHeight="1">
       <c r="A142" s="1"/>
       <c r="B142" s="16" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C142" s="17" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D142" s="18" t="str">
         <v/>
@@ -17811,16 +17799,16 @@
         <v>4.9108555714675397</v>
       </c>
       <c r="AK142" s="22" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="143" ht="14.250000" customHeight="1">
       <c r="A143" s="1"/>
       <c r="B143" s="16" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C143" s="17" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D143" s="18" t="str">
         <v/>
@@ -17928,10 +17916,10 @@
     <row r="144" ht="14.250000" customHeight="1">
       <c r="A144" s="1"/>
       <c r="B144" s="16" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C144" s="17" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D144" s="18" t="str">
         <v/>
@@ -18039,10 +18027,10 @@
     <row r="145" ht="14.250000" customHeight="1">
       <c r="A145" s="1"/>
       <c r="B145" s="16" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C145" s="17" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D145" s="18" t="str">
         <v/>
@@ -18150,10 +18138,10 @@
     <row r="146" ht="14.250000" customHeight="1">
       <c r="A146" s="1"/>
       <c r="B146" s="16" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C146" s="17" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D146" s="18" t="str">
         <v/>
@@ -18261,10 +18249,10 @@
     <row r="147" ht="14.250000" customHeight="1">
       <c r="A147" s="1"/>
       <c r="B147" s="16" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C147" s="17" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D147" s="18" t="str">
         <v/>
@@ -18372,10 +18360,10 @@
     <row r="148" ht="14.250000" customHeight="1">
       <c r="A148" s="1"/>
       <c r="B148" s="16" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C148" s="17" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D148" s="18" t="str">
         <v/>
@@ -18483,10 +18471,10 @@
     <row r="149" ht="14.250000" customHeight="1">
       <c r="A149" s="1"/>
       <c r="B149" s="16" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C149" s="17" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D149" s="18" t="str">
         <v/>
@@ -18594,10 +18582,10 @@
     <row r="150" ht="14.250000" customHeight="1">
       <c r="A150" s="1"/>
       <c r="B150" s="16" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C150" s="17" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D150" s="18" t="str">
         <v/>
@@ -18705,10 +18693,10 @@
     <row r="151" ht="14.250000" customHeight="1">
       <c r="A151" s="1"/>
       <c r="B151" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C151" s="17" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D151" s="18" t="str">
         <v/>
@@ -18816,10 +18804,10 @@
     <row r="152" ht="14.250000" customHeight="1">
       <c r="A152" s="1"/>
       <c r="B152" s="16" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C152" s="17" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D152" s="18" t="str">
         <v/>
@@ -18927,10 +18915,10 @@
     <row r="153" ht="24.000000" customHeight="1">
       <c r="A153" s="1"/>
       <c r="B153" s="16" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C153" s="17" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D153" s="18" t="str">
         <v/>
@@ -19020,28 +19008,28 @@
         <v>28.732635763306298</v>
       </c>
       <c r="AG153" s="20" t="s">
+        <v>463</v>
+      </c>
+      <c r="AH153" s="20" t="s">
+        <v>464</v>
+      </c>
+      <c r="AI153" s="20" t="s">
+        <v>465</v>
+      </c>
+      <c r="AJ153" s="20" t="s">
+        <v>466</v>
+      </c>
+      <c r="AK153" s="20" t="s">
         <v>467</v>
-      </c>
-      <c r="AH153" s="20" t="s">
-        <v>468</v>
-      </c>
-      <c r="AI153" s="20" t="s">
-        <v>469</v>
-      </c>
-      <c r="AJ153" s="20" t="s">
-        <v>470</v>
-      </c>
-      <c r="AK153" s="20" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="154" ht="14.250000" customHeight="1">
       <c r="A154" s="1"/>
       <c r="B154" s="16" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C154" s="17" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D154" s="18" t="str">
         <v/>
@@ -19149,10 +19137,10 @@
     <row r="155" ht="14.250000" customHeight="1">
       <c r="A155" s="1"/>
       <c r="B155" s="16" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C155" s="17" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="D155" s="18" t="str">
         <v/>
@@ -19260,10 +19248,10 @@
     <row r="156" ht="14.250000" customHeight="1">
       <c r="A156" s="1"/>
       <c r="B156" s="16" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C156" s="17" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D156" s="18" t="str">
         <v/>
@@ -19371,10 +19359,10 @@
     <row r="157" ht="14.250000" customHeight="1">
       <c r="A157" s="1"/>
       <c r="B157" s="16" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C157" s="17" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="D157" s="18" t="str">
         <v/>
@@ -19482,10 +19470,10 @@
     <row r="158" ht="14.250000" customHeight="1">
       <c r="A158" s="1"/>
       <c r="B158" s="16" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C158" s="17" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D158" s="18" t="str">
         <v/>
@@ -19593,10 +19581,10 @@
     <row r="159" ht="14.250000" customHeight="1">
       <c r="A159" s="1"/>
       <c r="B159" s="16" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C159" s="17" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D159" s="18" t="str">
         <v/>
@@ -19704,10 +19692,10 @@
     <row r="160" ht="24.000000" customHeight="1">
       <c r="A160" s="1"/>
       <c r="B160" s="16" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C160" s="17" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D160" s="18" t="str">
         <v/>
@@ -19815,10 +19803,10 @@
     <row r="161" ht="14.250000" customHeight="1">
       <c r="A161" s="1"/>
       <c r="B161" s="16" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C161" s="17" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D161" s="18" t="str">
         <v/>
@@ -19926,10 +19914,10 @@
     <row r="162" ht="14.250000" customHeight="1">
       <c r="A162" s="1"/>
       <c r="B162" s="16" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C162" s="17" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D162" s="18" t="str">
         <v/>
@@ -19989,58 +19977,58 @@
         <v>34186.747835284703</v>
       </c>
       <c r="W162" s="22" t="s">
+        <v>486</v>
+      </c>
+      <c r="X162" s="22" t="s">
+        <v>487</v>
+      </c>
+      <c r="Y162" s="22" t="s">
+        <v>488</v>
+      </c>
+      <c r="Z162" s="22" t="s">
+        <v>489</v>
+      </c>
+      <c r="AA162" s="22" t="s">
         <v>490</v>
       </c>
-      <c r="X162" s="22" t="s">
+      <c r="AB162" s="22" t="s">
         <v>491</v>
       </c>
-      <c r="Y162" s="22" t="s">
+      <c r="AC162" s="22" t="s">
         <v>492</v>
       </c>
-      <c r="Z162" s="22" t="s">
+      <c r="AD162" s="22" t="s">
         <v>493</v>
       </c>
-      <c r="AA162" s="22" t="s">
+      <c r="AE162" s="22" t="s">
         <v>494</v>
       </c>
-      <c r="AB162" s="22" t="s">
+      <c r="AF162" s="22" t="s">
         <v>495</v>
       </c>
-      <c r="AC162" s="22" t="s">
+      <c r="AG162" s="22" t="s">
         <v>496</v>
       </c>
-      <c r="AD162" s="22" t="s">
+      <c r="AH162" s="22" t="s">
         <v>497</v>
       </c>
-      <c r="AE162" s="22" t="s">
+      <c r="AI162" s="22" t="s">
         <v>498</v>
       </c>
-      <c r="AF162" s="22" t="s">
+      <c r="AJ162" s="22" t="s">
         <v>499</v>
       </c>
-      <c r="AG162" s="22" t="s">
+      <c r="AK162" s="22" t="s">
         <v>500</v>
-      </c>
-      <c r="AH162" s="22" t="s">
-        <v>501</v>
-      </c>
-      <c r="AI162" s="22" t="s">
-        <v>502</v>
-      </c>
-      <c r="AJ162" s="22" t="s">
-        <v>503</v>
-      </c>
-      <c r="AK162" s="22" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="163" ht="14.250000" customHeight="1">
       <c r="A163" s="1"/>
       <c r="B163" s="16" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C163" s="17" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D163" s="18" t="str">
         <v/>
@@ -20148,10 +20136,10 @@
     <row r="164" ht="14.250000" customHeight="1">
       <c r="A164" s="1"/>
       <c r="B164" s="16" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C164" s="17" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D164" s="18" t="str">
         <v/>
@@ -20253,16 +20241,16 @@
         <v>604.67212414957203</v>
       </c>
       <c r="AK164" s="22" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="165" ht="14.250000" customHeight="1">
       <c r="A165" s="1"/>
       <c r="B165" s="16" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C165" s="17" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D165" s="18" t="str">
         <v/>
@@ -20352,28 +20340,28 @@
         <v>268.47785227166298</v>
       </c>
       <c r="AG165" s="20" t="s">
+        <v>508</v>
+      </c>
+      <c r="AH165" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="AI165" s="20" t="s">
+        <v>510</v>
+      </c>
+      <c r="AJ165" s="20" t="s">
+        <v>511</v>
+      </c>
+      <c r="AK165" s="20" t="s">
         <v>512</v>
-      </c>
-      <c r="AH165" s="20" t="s">
-        <v>513</v>
-      </c>
-      <c r="AI165" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="AJ165" s="20" t="s">
-        <v>515</v>
-      </c>
-      <c r="AK165" s="20" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="166" ht="14.250000" customHeight="1">
       <c r="A166" s="1"/>
       <c r="B166" s="16" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C166" s="17" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="D166" s="18" t="str">
         <v/>
@@ -20481,10 +20469,10 @@
     <row r="167" ht="14.250000" customHeight="1">
       <c r="A167" s="1"/>
       <c r="B167" s="16" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C167" s="17" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D167" s="18" t="str">
         <v/>
@@ -20592,10 +20580,10 @@
     <row r="168" ht="14.250000" customHeight="1">
       <c r="A168" s="1"/>
       <c r="B168" s="16" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C168" s="17" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="D168" s="18" t="str">
         <v/>
@@ -20703,10 +20691,10 @@
     <row r="169" ht="14.250000" customHeight="1">
       <c r="A169" s="1"/>
       <c r="B169" s="16" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C169" s="17" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="D169" s="18" t="str">
         <v/>
@@ -20799,25 +20787,25 @@
         <v>539.68676880953205</v>
       </c>
       <c r="AH169" s="20" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="AI169" s="20" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="AJ169" s="20" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="AK169" s="20" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="170" ht="14.250000" customHeight="1">
       <c r="A170" s="1"/>
       <c r="B170" s="16" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C170" s="17" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D170" s="18" t="str">
         <v/>
@@ -20925,10 +20913,10 @@
     <row r="171" ht="14.250000" customHeight="1">
       <c r="A171" s="1"/>
       <c r="B171" s="16" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C171" s="17" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D171" s="18" t="str">
         <v/>
@@ -21036,10 +21024,10 @@
     <row r="172" ht="14.250000" customHeight="1">
       <c r="A172" s="1"/>
       <c r="B172" s="16" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C172" s="17" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="D172" s="18" t="str">
         <v/>
@@ -21147,10 +21135,10 @@
     <row r="173" ht="14.250000" customHeight="1">
       <c r="A173" s="1"/>
       <c r="B173" s="16" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C173" s="17" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="D173" s="18" t="str">
         <v/>
@@ -21213,55 +21201,55 @@
         <v>609.02699391810199</v>
       </c>
       <c r="X173" s="20" t="s">
+        <v>533</v>
+      </c>
+      <c r="Y173" s="20" t="s">
+        <v>534</v>
+      </c>
+      <c r="Z173" s="20" t="s">
+        <v>535</v>
+      </c>
+      <c r="AA173" s="20" t="s">
+        <v>536</v>
+      </c>
+      <c r="AB173" s="20" t="s">
         <v>537</v>
       </c>
-      <c r="Y173" s="20" t="s">
+      <c r="AC173" s="20" t="s">
         <v>538</v>
       </c>
-      <c r="Z173" s="20" t="s">
+      <c r="AD173" s="20" t="s">
         <v>539</v>
       </c>
-      <c r="AA173" s="20" t="s">
+      <c r="AE173" s="20" t="s">
         <v>540</v>
       </c>
-      <c r="AB173" s="20" t="s">
+      <c r="AF173" s="20" t="s">
         <v>541</v>
       </c>
-      <c r="AC173" s="20" t="s">
+      <c r="AG173" s="20" t="s">
         <v>542</v>
       </c>
-      <c r="AD173" s="20" t="s">
+      <c r="AH173" s="20" t="s">
         <v>543</v>
       </c>
-      <c r="AE173" s="20" t="s">
+      <c r="AI173" s="20" t="s">
         <v>544</v>
       </c>
-      <c r="AF173" s="20" t="s">
+      <c r="AJ173" s="20" t="s">
         <v>545</v>
       </c>
-      <c r="AG173" s="20" t="s">
+      <c r="AK173" s="20" t="s">
         <v>546</v>
-      </c>
-      <c r="AH173" s="20" t="s">
-        <v>547</v>
-      </c>
-      <c r="AI173" s="20" t="s">
-        <v>548</v>
-      </c>
-      <c r="AJ173" s="20" t="s">
-        <v>549</v>
-      </c>
-      <c r="AK173" s="20" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="174" ht="14.250000" customHeight="1">
       <c r="A174" s="1"/>
       <c r="B174" s="16" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="C174" s="17" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="D174" s="18" t="str">
         <v/>
@@ -21369,10 +21357,10 @@
     <row r="175" ht="14.250000" customHeight="1">
       <c r="A175" s="1"/>
       <c r="B175" s="16" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="C175" s="17" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D175" s="18" t="str">
         <v/>
@@ -21480,10 +21468,10 @@
     <row r="176" ht="14.250000" customHeight="1">
       <c r="A176" s="1"/>
       <c r="B176" s="16" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="C176" s="17" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="D176" s="18" t="str">
         <v/>
@@ -21591,10 +21579,10 @@
     <row r="177" ht="14.250000" customHeight="1">
       <c r="A177" s="1"/>
       <c r="B177" s="16" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="C177" s="17" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="D177" s="18" t="str">
         <v/>
@@ -21702,10 +21690,10 @@
     <row r="178" ht="14.250000" customHeight="1">
       <c r="A178" s="1"/>
       <c r="B178" s="16" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="C178" s="17" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="D178" s="18" t="str">
         <v/>
@@ -21813,10 +21801,10 @@
     <row r="179" ht="14.250000" customHeight="1">
       <c r="A179" s="1"/>
       <c r="B179" s="16" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="C179" s="17" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="D179" s="18" t="str">
         <v/>
@@ -21924,10 +21912,10 @@
     <row r="180" ht="14.250000" customHeight="1">
       <c r="A180" s="1"/>
       <c r="B180" s="16" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="C180" s="17" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D180" s="18" t="str">
         <v/>
@@ -22035,10 +22023,10 @@
     <row r="181" ht="14.250000" customHeight="1">
       <c r="A181" s="1"/>
       <c r="B181" s="16" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="C181" s="17" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="D181" s="18" t="str">
         <v/>
@@ -22146,10 +22134,10 @@
     <row r="182" ht="14.250000" customHeight="1">
       <c r="A182" s="1"/>
       <c r="B182" s="16" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C182" s="17" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="D182" s="18" t="str">
         <v/>
@@ -22257,10 +22245,10 @@
     <row r="183" ht="14.250000" customHeight="1">
       <c r="A183" s="1"/>
       <c r="B183" s="16" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="C183" s="17" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="D183" s="18" t="str">
         <v/>
@@ -22368,10 +22356,10 @@
     <row r="184" ht="14.250000" customHeight="1">
       <c r="A184" s="1"/>
       <c r="B184" s="16" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="C184" s="17" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="D184" s="18" t="str">
         <v/>
@@ -22479,10 +22467,10 @@
     <row r="185" ht="14.250000" customHeight="1">
       <c r="A185" s="1"/>
       <c r="B185" s="16" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="C185" s="17" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="D185" s="18" t="str">
         <v/>
@@ -22590,10 +22578,10 @@
     <row r="186" ht="14.250000" customHeight="1">
       <c r="A186" s="1"/>
       <c r="B186" s="16" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C186" s="17" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="D186" s="18" t="str">
         <v/>
@@ -22701,10 +22689,10 @@
     <row r="187" ht="14.250000" customHeight="1">
       <c r="A187" s="1"/>
       <c r="B187" s="16" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="C187" s="17" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D187" s="18" t="str">
         <v/>
@@ -22812,10 +22800,10 @@
     <row r="188" ht="14.250000" customHeight="1">
       <c r="A188" s="1"/>
       <c r="B188" s="16" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C188" s="17" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="D188" s="18" t="str">
         <v/>
@@ -22923,10 +22911,10 @@
     <row r="189" ht="14.250000" customHeight="1">
       <c r="A189" s="1"/>
       <c r="B189" s="16" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C189" s="17" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D189" s="18" t="str">
         <v/>
@@ -23034,10 +23022,10 @@
     <row r="190" ht="14.250000" customHeight="1">
       <c r="A190" s="1"/>
       <c r="B190" s="16" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C190" s="17" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="D190" s="18" t="str">
         <v/>
@@ -23145,10 +23133,10 @@
     <row r="191" ht="14.250000" customHeight="1">
       <c r="A191" s="1"/>
       <c r="B191" s="16" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="C191" s="17" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="D191" s="18" t="str">
         <v/>
@@ -23256,10 +23244,10 @@
     <row r="192" ht="14.250000" customHeight="1">
       <c r="A192" s="1"/>
       <c r="B192" s="16" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C192" s="17" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="D192" s="18" t="str">
         <v/>
@@ -23319,58 +23307,58 @@
         <v>134693.395297546</v>
       </c>
       <c r="W192" s="22" t="s">
+        <v>585</v>
+      </c>
+      <c r="X192" s="22" t="s">
+        <v>586</v>
+      </c>
+      <c r="Y192" s="22" t="s">
+        <v>587</v>
+      </c>
+      <c r="Z192" s="22" t="s">
+        <v>588</v>
+      </c>
+      <c r="AA192" s="22" t="s">
         <v>589</v>
       </c>
-      <c r="X192" s="22" t="s">
+      <c r="AB192" s="22" t="s">
         <v>590</v>
       </c>
-      <c r="Y192" s="22" t="s">
+      <c r="AC192" s="22" t="s">
         <v>591</v>
       </c>
-      <c r="Z192" s="22" t="s">
+      <c r="AD192" s="22" t="s">
         <v>592</v>
       </c>
-      <c r="AA192" s="22" t="s">
+      <c r="AE192" s="22" t="s">
         <v>593</v>
       </c>
-      <c r="AB192" s="22" t="s">
+      <c r="AF192" s="22" t="s">
         <v>594</v>
       </c>
-      <c r="AC192" s="22" t="s">
+      <c r="AG192" s="22" t="s">
         <v>595</v>
       </c>
-      <c r="AD192" s="22" t="s">
+      <c r="AH192" s="22" t="s">
         <v>596</v>
       </c>
-      <c r="AE192" s="22" t="s">
+      <c r="AI192" s="22" t="s">
         <v>597</v>
       </c>
-      <c r="AF192" s="22" t="s">
+      <c r="AJ192" s="22" t="s">
         <v>598</v>
       </c>
-      <c r="AG192" s="22" t="s">
+      <c r="AK192" s="22" t="s">
         <v>599</v>
-      </c>
-      <c r="AH192" s="22" t="s">
-        <v>600</v>
-      </c>
-      <c r="AI192" s="22" t="s">
-        <v>601</v>
-      </c>
-      <c r="AJ192" s="22" t="s">
-        <v>602</v>
-      </c>
-      <c r="AK192" s="22" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="193" ht="14.250000" customHeight="1">
       <c r="A193" s="1"/>
       <c r="B193" s="16" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="C193" s="17" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="D193" s="18" t="str">
         <v/>
@@ -23478,10 +23466,10 @@
     <row r="194" ht="14.250000" customHeight="1">
       <c r="A194" s="1"/>
       <c r="B194" s="16" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="C194" s="17" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D194" s="18" t="str">
         <v/>
@@ -23589,10 +23577,10 @@
     <row r="195" ht="14.250000" customHeight="1">
       <c r="A195" s="1"/>
       <c r="B195" s="16" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C195" s="17" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="D195" s="18" t="str">
         <v/>
@@ -23700,73 +23688,73 @@
     <row r="196" ht="14.250000" customHeight="1">
       <c r="A196" s="1"/>
       <c r="B196" s="16" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="C196" s="17" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="D196" s="18" t="str">
         <v/>
       </c>
       <c r="E196" s="21" t="s">
+        <v>608</v>
+      </c>
+      <c r="F196" s="22" t="s">
+        <v>609</v>
+      </c>
+      <c r="G196" s="22" t="s">
+        <v>610</v>
+      </c>
+      <c r="H196" s="22" t="s">
+        <v>611</v>
+      </c>
+      <c r="I196" s="22" t="s">
         <v>612</v>
       </c>
-      <c r="F196" s="22" t="s">
+      <c r="J196" s="22" t="s">
         <v>613</v>
       </c>
-      <c r="G196" s="22" t="s">
+      <c r="K196" s="22" t="s">
         <v>614</v>
       </c>
-      <c r="H196" s="22" t="s">
+      <c r="L196" s="22" t="s">
         <v>615</v>
       </c>
-      <c r="I196" s="22" t="s">
+      <c r="M196" s="22" t="s">
         <v>616</v>
       </c>
-      <c r="J196" s="22" t="s">
+      <c r="N196" s="22" t="s">
         <v>617</v>
       </c>
-      <c r="K196" s="22" t="s">
+      <c r="O196" s="22" t="s">
         <v>618</v>
       </c>
-      <c r="L196" s="22" t="s">
+      <c r="P196" s="22" t="s">
         <v>619</v>
       </c>
-      <c r="M196" s="22" t="s">
+      <c r="Q196" s="22" t="s">
         <v>620</v>
       </c>
-      <c r="N196" s="22" t="s">
+      <c r="R196" s="22" t="s">
         <v>621</v>
       </c>
-      <c r="O196" s="22" t="s">
+      <c r="S196" s="22" t="s">
         <v>622</v>
       </c>
-      <c r="P196" s="22" t="s">
+      <c r="T196" s="22" t="s">
         <v>623</v>
       </c>
-      <c r="Q196" s="22" t="s">
+      <c r="U196" s="22" t="s">
         <v>624</v>
       </c>
-      <c r="R196" s="22" t="s">
+      <c r="V196" s="22" t="s">
         <v>625</v>
       </c>
-      <c r="S196" s="22" t="s">
+      <c r="W196" s="22" t="s">
         <v>626</v>
       </c>
-      <c r="T196" s="22" t="s">
+      <c r="X196" s="22" t="s">
         <v>627</v>
-      </c>
-      <c r="U196" s="22" t="s">
-        <v>628</v>
-      </c>
-      <c r="V196" s="22" t="s">
-        <v>629</v>
-      </c>
-      <c r="W196" s="22" t="s">
-        <v>630</v>
-      </c>
-      <c r="X196" s="22" t="s">
-        <v>631</v>
       </c>
       <c r="Y196" s="22">
         <v>4.1814110457553504</v>
@@ -23811,10 +23799,10 @@
     <row r="197" ht="24.000000" customHeight="1">
       <c r="A197" s="1"/>
       <c r="B197" s="16" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="C197" s="17" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="D197" s="18" t="str">
         <v/>
@@ -23922,10 +23910,10 @@
     <row r="198" ht="24.000000" customHeight="1">
       <c r="A198" s="1"/>
       <c r="B198" s="16" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="C198" s="17" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="D198" s="18" t="str">
         <v/>
@@ -24033,10 +24021,10 @@
     <row r="199" ht="24.000000" customHeight="1">
       <c r="A199" s="1"/>
       <c r="B199" s="23" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="C199" s="24" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="D199" s="25" t="str">
         <v/>

--- a/FOREX/data/FOREX_3Q.xlsx
+++ b/FOREX/data/FOREX_3Q.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="641">
   <si>
     <t xml:space="preserve"> Monetary and Financial Statistics by Indicator</t>
   </si>
@@ -131,6 +131,9 @@
     <t>2022Q1</t>
   </si>
   <si>
+    <t>2022Q2</t>
+  </si>
+  <si>
     <t>Afghanistan, Islamic Rep. of</t>
   </si>
   <si>
@@ -149,6 +152,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Albania</t>
   </si>
   <si>
@@ -398,204 +404,591 @@
     <t>Units</t>
   </si>
   <si>
+    <t>Cabo Verde</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Central African Rep.</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>China, P.R.: Hong Kong</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>China, P.R.: Macao</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>China, P.R.: Mainland</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Cabo Verde</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Comoros, Union of the</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Cambodia</t>
+    <t>Congo, Dem. Rep. of the</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Cameroon</t>
+    <t>Congo, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Canada</t>
+    <t>Costa Rica</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Cayman Islands</t>
+    <t>Côte d'Ivoire</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Central African Rep.</t>
+    <t>Croatia, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Chad</t>
+    <t>Curaçao and Sint Maarten</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Chile</t>
+    <t>Curaçao, Kingdom of the Netherlands</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>China, P.R.: Hong Kong</t>
+    <t>Czech Rep.</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>China, P.R.: Macao</t>
+    <t>Denmark</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>China, P.R.: Mainland</t>
+    <t>Djibouti</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Colombia</t>
+    <t>Dominica</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Dominican Rep.</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Egypt, Arab Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Eritrea, The State of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Eswatini, Kingdom of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Ethiopia, The Federal Dem. Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Euro Area</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Comoros, Union of the</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Fiji, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Congo, Dem. Rep. of the</t>
+    <t>French Polynesia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Congo, Rep. of</t>
+    <t>Gabon</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Costa Rica</t>
+    <t>Gambia, The</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Côte d'Ivoire</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Georgia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Croatia, Rep. of</t>
+    <t>Ghana</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Curaçao and Sint Maarten</t>
+    <t>Gibraltar</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Curaçao, Kingdom of the Netherlands</t>
+    <t>Greenland</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Czech Rep.</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Grenada</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Denmark</t>
+    <t>Guatemala</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Djibouti</t>
+    <t>Guernsey</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Dominica</t>
+    <t>Guinea</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Dominican Rep.</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Ecuador</t>
+    <t>Guyana</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Egypt, Arab Rep. of</t>
+    <t>Haiti</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>El Salvador</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Honduras</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Equatorial Guinea, Rep. of</t>
+    <t>Hungary</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Eritrea, The State of</t>
+    <t>Iceland</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Eswatini, Kingdom of</t>
+    <t>India</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Ethiopia, The Federal Dem. Rep. of</t>
+    <t>Indonesia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Iran, Islamic Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Isle of Man</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Jersey</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Kazakhstan, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Korea, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Kosovo, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Kyrgyz Rep.</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Lao People's Dem. Rep.</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Lesotho, Kingdom of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
@@ -608,13 +1001,16 @@
     <t>...</t>
   </si>
   <si>
-    <t>Euro Area</t>
+    <t>Libya</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Faroe Islands</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
   </si>
   <si>
     <t>Units</t>
@@ -677,54 +1073,144 @@
     <t>...</t>
   </si>
   <si>
-    <t>Fiji, Rep. of</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Madagascar, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>French Polynesia</t>
+    <t>Malawi</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Gabon</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Gambia, The</t>
+    <t>Maldives</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Georgia</t>
+    <t>Mali</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Ghana</t>
+    <t>Mauritania, Islamic Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Gibraltar</t>
+    <t>Mauritius</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Greenland</t>
+    <t>Mexico</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Micronesia, Federated States of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Moldova, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Mozambique, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
@@ -740,6 +1226,54 @@
     <t>...</t>
   </si>
   <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Nauru, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
@@ -749,15 +1283,123 @@
     <t>...</t>
   </si>
   <si>
+    <t>North Macedonia, Republic of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Palau, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
     <t>...</t>
   </si>
   <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Poland, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>San Marino, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>São Tomé and Príncipe, Dem. Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
@@ -776,36 +1418,171 @@
     <t>...</t>
   </si>
   <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Serbia, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Sint Maarten, Kingdom of the Netherlands</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Grenada</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>South Africa</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Guatemala</t>
+    <t>South Sudan, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Guernsey</t>
+    <t>Sri Lanka</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Guinea</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>St. Kitts and Nevis</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>St. Lucia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>St. Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
@@ -818,955 +1595,199 @@
     <t>...</t>
   </si>
   <si>
-    <t>Guinea-Bissau</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Suriname</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Guyana</t>
+    <t>Sweden</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Haiti</t>
+    <t>Switzerland</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Honduras</t>
+    <t>Syrian Arab Rep.</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Hungary</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Taiwan Province of China</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Iceland</t>
+    <t>Tajikistan, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>India</t>
+    <t>Tanzania, United Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Indonesia</t>
+    <t>Thailand</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Iran, Islamic Rep. of</t>
+    <t>Timor-Leste, Dem. Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Iraq</t>
+    <t>Togo</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Isle of Man</t>
+    <t>Trinidad and Tobago</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Israel</t>
+    <t>Tunisia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Jamaica</t>
+    <t>Turkey</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Japan</t>
+    <t>Uganda</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Jersey</t>
+    <t>Ukraine</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Jordan</t>
+    <t>United Arab Emirates</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Kazakhstan, Rep. of</t>
+    <t>United Kingdom</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Kenya</t>
+    <t>United States</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Kiribati</t>
+    <t>Uruguay</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Korea, Rep. of</t>
+    <t>Uzbekistan, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Kosovo, Rep. of</t>
+    <t>Vanuatu</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Kuwait</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Venezuela, Rep. Bolivariana de</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Kyrgyz Rep.</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Lao People's Dem. Rep.</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Lesotho, Kingdom of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Liberia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
     <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Libya</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Lithuania</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Madagascar, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Malawi</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Maldives</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Mali</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Mauritania, Islamic Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Mauritius</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Micronesia, Federated States of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Moldova, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Mongolia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Montenegro</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Montserrat</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Morocco</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Mozambique, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Namibia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Nauru, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Nepal</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>New Caledonia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Nicaragua</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Niger</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>North Macedonia, Republic of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Oman</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Palau, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Panama</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Papua New Guinea</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Paraguay</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Poland, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Qatar</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Russian Federation</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Samoa</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>San Marino, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>São Tomé and Príncipe, Dem. Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Senegal</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Serbia, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Seychelles</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Sierra Leone</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Sint Maarten, Kingdom of the Netherlands</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Solomon Islands</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Somalia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>South Sudan, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>St. Kitts and Nevis</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>St. Lucia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>St. Vincent and the Grenadines</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Sudan</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Suriname</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Syrian Arab Rep.</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Taiwan Province of China</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Tajikistan, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Tanzania, United Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Timor-Leste, Dem. Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Togo</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Tonga</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Trinidad and Tobago</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>United Arab Emirates</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Uruguay</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Uzbekistan, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Vanuatu</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Venezuela, Rep. Bolivariana de</t>
-  </si>
-  <si>
-    <t>Units</t>
   </si>
   <si>
     <t>...</t>
@@ -2419,7 +2440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK199"/>
+  <dimension ref="A1:AL199"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" showRowColHeaders="0" zoomScale="100">
       <pane xSplit="4" ySplit="7" state="frozen" topLeftCell="E8"/>
@@ -2464,6 +2485,7 @@
     <col min="35" max="35" width="9.710938" customWidth="1"/>
     <col min="36" max="36" width="9.710938" customWidth="1"/>
     <col min="37" max="37" width="9.710938" customWidth="1"/>
+    <col min="38" max="38" width="9.710938" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.500000" customHeight="1">
@@ -2504,6 +2526,7 @@
       <c r="AI1" s="1"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
     </row>
     <row r="2" ht="18.750000" customHeight="1">
       <c r="A2" s="1"/>
@@ -2545,6 +2568,7 @@
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
     </row>
     <row r="3" ht="31.500000" customHeight="1">
       <c r="A3" s="1"/>
@@ -2586,6 +2610,7 @@
       <c r="AI3" s="1"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
     </row>
     <row r="4" ht="13.500000" customHeight="1">
       <c r="A4" s="1"/>
@@ -2625,6 +2650,7 @@
       <c r="AI4" s="1"/>
       <c r="AJ4" s="1"/>
       <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
     </row>
     <row r="5" ht="14.250000" customHeight="1">
       <c r="A5" s="1"/>
@@ -2666,6 +2692,7 @@
       <c r="AI5" s="1"/>
       <c r="AJ5" s="1"/>
       <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
     </row>
     <row r="6" ht="13.500000" customHeight="1">
       <c r="A6" s="1"/>
@@ -2705,6 +2732,7 @@
       <c r="AI6" s="1"/>
       <c r="AJ6" s="1"/>
       <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
     </row>
     <row r="7" ht="24.000000" customHeight="1">
       <c r="A7" s="1"/>
@@ -2813,17 +2841,20 @@
       <c r="AJ7" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="AK7" s="10" t="s">
+      <c r="AK7" s="9" t="s">
         <v>38</v>
+      </c>
+      <c r="AL7" s="10" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8" ht="14.250000" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D8" s="13" t="str">
         <v/>
@@ -2916,25 +2947,28 @@
         <v>109.39778603852299</v>
       </c>
       <c r="AH8" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI8" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AJ8" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AK8" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="AL8" s="15" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="9" ht="14.250000" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D9" s="18" t="str">
         <v/>
@@ -3037,15 +3071,18 @@
       </c>
       <c r="AK9" s="20">
         <v>151.06859465287999</v>
+      </c>
+      <c r="AL9" s="20">
+        <v>151.65919568311699</v>
       </c>
     </row>
     <row r="10" ht="14.250000" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D10" s="18" t="str">
         <v/>
@@ -3148,99 +3185,102 @@
       </c>
       <c r="AK10" s="22">
         <v>196.93660316845899</v>
+      </c>
+      <c r="AL10" s="22">
+        <v>194.218441290816</v>
       </c>
     </row>
     <row r="11" ht="14.250000" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D11" s="18" t="str">
         <v/>
       </c>
       <c r="E11" s="19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J11" s="20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K11" s="20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L11" s="20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M11" s="20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="N11" s="20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O11" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P11" s="20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q11" s="20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="R11" s="20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="S11" s="20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="T11" s="20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="U11" s="20" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="V11" s="20" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="W11" s="20" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="X11" s="20" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y11" s="20" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Z11" s="20" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AA11" s="20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB11" s="20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AC11" s="20" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD11" s="20" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AE11" s="20" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AF11" s="20">
         <v>1.17371727328015</v>
@@ -3259,15 +3299,18 @@
       </c>
       <c r="AK11" s="20">
         <v>1.24529257923751</v>
+      </c>
+      <c r="AL11" s="20">
+        <v>1.27831080827312</v>
       </c>
     </row>
     <row r="12" ht="14.250000" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D12" s="18" t="str">
         <v/>
@@ -3370,15 +3413,18 @@
       </c>
       <c r="AK12" s="22">
         <v>617.15647377588505</v>
+      </c>
+      <c r="AL12" s="22">
+        <v>568.56743005247404</v>
       </c>
     </row>
     <row r="13" ht="14.250000" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D13" s="18" t="str">
         <v/>
@@ -3481,15 +3527,18 @@
       </c>
       <c r="AK13" s="20">
         <v>3.7324780889712201</v>
+      </c>
+      <c r="AL13" s="20">
+        <v>3.58500987869389</v>
       </c>
     </row>
     <row r="14" ht="14.250000" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D14" s="18" t="str">
         <v/>
@@ -3592,15 +3641,18 @@
       </c>
       <c r="AK14" s="22">
         <v>3.7324780889712201</v>
+      </c>
+      <c r="AL14" s="22">
+        <v>3.58500987869389</v>
       </c>
     </row>
     <row r="15" ht="14.250000" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D15" s="18" t="str">
         <v/>
@@ -3703,15 +3755,18 @@
       </c>
       <c r="AK15" s="20">
         <v>153.321905499184</v>
+      </c>
+      <c r="AL15" s="20">
+        <v>166.14529115591299</v>
       </c>
     </row>
     <row r="16" ht="14.250000" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D16" s="18" t="str">
         <v/>
@@ -3814,15 +3869,18 @@
       </c>
       <c r="AK16" s="22">
         <v>671.72164007851995</v>
+      </c>
+      <c r="AL16" s="22">
+        <v>540.68587877886603</v>
       </c>
     </row>
     <row r="17" ht="24.000000" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D17" s="18" t="str">
         <v/>
@@ -3925,15 +3983,18 @@
       </c>
       <c r="AK17" s="20">
         <v>2.4744947330586999</v>
+      </c>
+      <c r="AL17" s="20">
+        <v>2.3767287714303902</v>
       </c>
     </row>
     <row r="18" ht="14.250000" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="16" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D18" s="18" t="str">
         <v/>
@@ -4036,15 +4097,18 @@
       </c>
       <c r="AK18" s="22">
         <v>1.84763337638541</v>
+      </c>
+      <c r="AL18" s="22">
+        <v>1.92739357897125</v>
       </c>
     </row>
     <row r="19" ht="14.250000" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D19" s="18" t="str">
         <v/>
@@ -4147,15 +4211,18 @@
       </c>
       <c r="AK19" s="20">
         <v>2.3500787967596599</v>
+      </c>
+      <c r="AL19" s="20">
+        <v>2.2572284421406001</v>
       </c>
     </row>
     <row r="20" ht="14.250000" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="16" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D20" s="18" t="str">
         <v/>
@@ -4258,15 +4325,18 @@
       </c>
       <c r="AK20" s="22">
         <v>1.38239929221156</v>
+      </c>
+      <c r="AL20" s="22">
+        <v>1.3277814365532901</v>
       </c>
     </row>
     <row r="21" ht="14.250000" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="16" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D21" s="18" t="str">
         <v/>
@@ -4369,15 +4439,18 @@
       </c>
       <c r="AK21" s="20">
         <v>0.51978213387154704</v>
+      </c>
+      <c r="AL21" s="20">
+        <v>0.49924582014403801</v>
       </c>
     </row>
     <row r="22" ht="14.250000" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="16" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D22" s="18" t="str">
         <v/>
@@ -4480,15 +4553,18 @@
       </c>
       <c r="AK22" s="22">
         <v>119.162818988637</v>
+      </c>
+      <c r="AL22" s="22">
+        <v>124.081175245905</v>
       </c>
     </row>
     <row r="23" ht="14.250000" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="16" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D23" s="18" t="str">
         <v/>
@@ -4591,15 +4667,18 @@
       </c>
       <c r="AK23" s="20">
         <v>2.76479858442312</v>
+      </c>
+      <c r="AL23" s="20">
+        <v>2.6555628731065801</v>
       </c>
     </row>
     <row r="24" ht="14.250000" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="16" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D24" s="18" t="str">
         <v/>
@@ -4702,15 +4781,18 @@
       </c>
       <c r="AK24" s="22">
         <v>4.1101495756034199</v>
+      </c>
+      <c r="AL24" s="22">
+        <v>3.35065645514223</v>
       </c>
     </row>
     <row r="25" ht="14.250000" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="16" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D25" s="18" t="str">
         <v/>
@@ -4813,15 +4895,18 @@
       </c>
       <c r="AK25" s="20">
         <v>2.76479858442312</v>
+      </c>
+      <c r="AL25" s="20">
+        <v>2.6555628731065801</v>
       </c>
     </row>
     <row r="26" ht="14.250000" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="16" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D26" s="18" t="str">
         <v/>
@@ -4924,15 +5009,18 @@
       </c>
       <c r="AK26" s="22">
         <v>816.85838439890097</v>
+      </c>
+      <c r="AL26" s="22">
+        <v>838.516922862412</v>
       </c>
     </row>
     <row r="27" ht="14.250000" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="16" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D27" s="18" t="str">
         <v/>
@@ -5035,15 +5123,18 @@
       </c>
       <c r="AK27" s="20">
         <v>1.38239929221156</v>
+      </c>
+      <c r="AL27" s="20">
+        <v>1.3277814365532901</v>
       </c>
     </row>
     <row r="28" ht="14.250000" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="16" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D28" s="18" t="str">
         <v/>
@@ -5146,15 +5237,18 @@
       </c>
       <c r="AK28" s="22">
         <v>104.795681384611</v>
+      </c>
+      <c r="AL28" s="22">
+        <v>104.817854942534</v>
       </c>
     </row>
     <row r="29" ht="14.250000" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="16" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D29" s="18" t="str">
         <v/>
@@ -5257,15 +5351,18 @@
       </c>
       <c r="AK29" s="20">
         <v>9.5523791091818993</v>
+      </c>
+      <c r="AL29" s="20">
+        <v>9.1749697265832495</v>
       </c>
     </row>
     <row r="30" ht="14.250000" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="16" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D30" s="18" t="str">
         <v/>
@@ -5368,15 +5465,18 @@
       </c>
       <c r="AK30" s="22">
         <v>2.43010727418508</v>
+      </c>
+      <c r="AL30" s="22">
+        <v>2.46925389305517</v>
       </c>
     </row>
     <row r="31" ht="14.250000" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="16" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D31" s="18" t="str">
         <v/>
@@ -5479,15 +5579,18 @@
       </c>
       <c r="AK31" s="20">
         <v>15.7746965633554</v>
+      </c>
+      <c r="AL31" s="20">
+        <v>16.406067430052499</v>
       </c>
     </row>
     <row r="32" ht="14.250000" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="16" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D32" s="18" t="str">
         <v/>
@@ -5590,15 +5693,18 @@
       </c>
       <c r="AK32" s="22">
         <v>6.5487019270646103</v>
+      </c>
+      <c r="AL32" s="22">
+        <v>6.95412249580421</v>
       </c>
     </row>
     <row r="33" ht="14.250000" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="16" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D33" s="18" t="str">
         <v/>
@@ -5701,15 +5807,18 @@
       </c>
       <c r="AK33" s="20">
         <v>1.87093920207913</v>
+      </c>
+      <c r="AL33" s="20">
+        <v>1.8480062033948701</v>
       </c>
     </row>
     <row r="34" ht="14.250000" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="16" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D34" s="18" t="str">
         <v/>
@@ -5812,15 +5921,18 @@
       </c>
       <c r="AK34" s="22">
         <v>2.4356493129475498</v>
+      </c>
+      <c r="AL34" s="22">
+        <v>2.5002124450298502</v>
       </c>
     </row>
     <row r="35" ht="14.250000" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="16" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D35" s="18" t="str">
         <v/>
@@ -5923,15 +6035,18 @@
       </c>
       <c r="AK35" s="20">
         <v>816.85838439890097</v>
+      </c>
+      <c r="AL35" s="20">
+        <v>838.516922862412</v>
       </c>
     </row>
     <row r="36" ht="14.250000" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="16" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D36" s="18" t="str">
         <v/>
@@ -6032,17 +6147,20 @@
       <c r="AJ36" s="22">
         <v>2807.7251981475001</v>
       </c>
-      <c r="AK36" s="22" t="s">
-        <v>128</v>
+      <c r="AK36" s="22">
+        <v>2792.93041001963</v>
+      </c>
+      <c r="AL36" s="22">
+        <v>2700.1099403029498</v>
       </c>
     </row>
     <row r="37" ht="14.250000" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D37" s="18" t="str">
         <v/>
@@ -6145,15 +6263,18 @@
       </c>
       <c r="AK37" s="20">
         <v>138.54820426331901</v>
+      </c>
+      <c r="AL37" s="20">
+        <v>139.21063393596901</v>
       </c>
     </row>
     <row r="38" ht="14.250000" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D38" s="18" t="str">
         <v/>
@@ -6256,15 +6377,18 @@
       </c>
       <c r="AK38" s="22">
         <v>5630.5123171776904</v>
+      </c>
+      <c r="AL38" s="22">
+        <v>5437.9288734040101</v>
       </c>
     </row>
     <row r="39" ht="14.250000" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="16" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D39" s="18" t="str">
         <v/>
@@ -6367,15 +6491,18 @@
       </c>
       <c r="AK39" s="20">
         <v>816.85838439890097</v>
+      </c>
+      <c r="AL39" s="20">
+        <v>838.516922862412</v>
       </c>
     </row>
     <row r="40" ht="14.250000" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="16" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D40" s="18" t="str">
         <v/>
@@ -6478,15 +6605,18 @@
       </c>
       <c r="AK40" s="22">
         <v>1.72744615554757</v>
+      </c>
+      <c r="AL40" s="22">
+        <v>1.71097915914257</v>
       </c>
     </row>
     <row r="41" ht="14.250000" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="16" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D41" s="18" t="str">
         <v/>
@@ -6589,15 +6719,18 @@
       </c>
       <c r="AK41" s="20">
         <v>1.1519948021786599</v>
+      </c>
+      <c r="AL41" s="20">
+        <v>1.10648010452295</v>
       </c>
     </row>
     <row r="42" ht="14.250000" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D42" s="18" t="str">
         <v/>
@@ -6700,15 +6833,18 @@
       </c>
       <c r="AK42" s="22">
         <v>816.85838439890097</v>
+      </c>
+      <c r="AL42" s="22">
+        <v>838.516922862412</v>
       </c>
     </row>
     <row r="43" ht="14.250000" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D43" s="18" t="str">
         <v/>
@@ -6811,15 +6947,18 @@
       </c>
       <c r="AK43" s="20">
         <v>816.85838439890097</v>
+      </c>
+      <c r="AL43" s="20">
+        <v>838.516922862412</v>
       </c>
     </row>
     <row r="44" ht="14.250000" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D44" s="18" t="str">
         <v/>
@@ -6922,15 +7061,18 @@
       </c>
       <c r="AK44" s="22">
         <v>1088.1694268572501</v>
+      </c>
+      <c r="AL44" s="22">
+        <v>1221.5190881859301</v>
       </c>
     </row>
     <row r="45" ht="14.250000" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="16" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D45" s="18" t="str">
         <v/>
@@ -7033,15 +7175,18 @@
       </c>
       <c r="AK45" s="20">
         <v>10.825568857308699</v>
+      </c>
+      <c r="AL45" s="20">
+        <v>10.4191009326337</v>
       </c>
     </row>
     <row r="46" ht="14.250000" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="16" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D46" s="18" t="str">
         <v/>
@@ -7144,15 +7289,18 @@
       </c>
       <c r="AK46" s="22">
         <v>11.1453178135973</v>
+      </c>
+      <c r="AL46" s="22">
+        <v>10.7329884642349</v>
       </c>
     </row>
     <row r="47" ht="14.250000" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D47" s="18" t="str">
         <v/>
@@ -7255,15 +7403,18 @@
       </c>
       <c r="AK47" s="20">
         <v>8.7681439907102803</v>
+      </c>
+      <c r="AL47" s="20">
+        <v>8.8892311614369799</v>
       </c>
     </row>
     <row r="48" ht="14.250000" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D48" s="18" t="str">
         <v/>
@@ -7365,16 +7516,19 @@
         <v>5595.17028158428</v>
       </c>
       <c r="AK48" s="22" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AL48" s="22" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="49" ht="14.250000" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="16" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D49" s="18" t="str">
         <v/>
@@ -7477,15 +7631,18 @@
       </c>
       <c r="AK49" s="20">
         <v>612.64378829917598</v>
+      </c>
+      <c r="AL49" s="20">
+        <v>628.88769214680894</v>
       </c>
     </row>
     <row r="50" ht="14.250000" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="16" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D50" s="18" t="str">
         <v/>
@@ -7588,15 +7745,18 @@
       </c>
       <c r="AK50" s="22">
         <v>2764.45422875944</v>
+      </c>
+      <c r="AL50" s="22">
+        <v>2661.8574865628502</v>
       </c>
     </row>
     <row r="51" ht="14.250000" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="16" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D51" s="18" t="str">
         <v/>
@@ -7699,15 +7859,18 @@
       </c>
       <c r="AK51" s="20">
         <v>816.85838439890097</v>
+      </c>
+      <c r="AL51" s="20">
+        <v>838.516922862412</v>
       </c>
     </row>
     <row r="52" ht="14.250000" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="16" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D52" s="18" t="str">
         <v/>
@@ -7810,15 +7973,18 @@
       </c>
       <c r="AK52" s="22">
         <v>917.62282617711298</v>
+      </c>
+      <c r="AL52" s="22">
+        <v>914.18415797412399</v>
       </c>
     </row>
     <row r="53" ht="14.250000" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="16" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D53" s="18" t="str">
         <v/>
@@ -7921,15 +8087,18 @@
       </c>
       <c r="AK53" s="20">
         <v>816.85838439890097</v>
+      </c>
+      <c r="AL53" s="20">
+        <v>838.516922862412</v>
       </c>
     </row>
     <row r="54" ht="14.250000" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="16" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D54" s="18" t="str">
         <v/>
@@ -8032,15 +8201,18 @@
       </c>
       <c r="AK54" s="22">
         <v>9.4089123282368892</v>
+      </c>
+      <c r="AL54" s="22">
+        <v>9.5115211595249693</v>
       </c>
     </row>
     <row r="55" ht="14.250000" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="16" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D55" s="18" t="str">
         <v/>
@@ -8143,15 +8315,18 @@
       </c>
       <c r="AK55" s="20">
         <v>2.4744947330586999</v>
+      </c>
+      <c r="AL55" s="20">
+        <v>2.3767287714303902</v>
       </c>
     </row>
     <row r="56" ht="24.000000" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="16" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D56" s="18" t="str">
         <v/>
@@ -8254,15 +8429,18 @@
       </c>
       <c r="AK56" s="22">
         <v>2.4744947330586999</v>
+      </c>
+      <c r="AL56" s="22">
+        <v>2.3767287714303902</v>
       </c>
     </row>
     <row r="57" ht="14.250000" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="16" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D57" s="18" t="str">
         <v/>
@@ -8365,15 +8543,18 @@
       </c>
       <c r="AK57" s="20">
         <v>30.361635654842502</v>
+      </c>
+      <c r="AL57" s="20">
+        <v>31.629081600136001</v>
       </c>
     </row>
     <row r="58" ht="14.250000" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="16" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D58" s="18" t="str">
         <v/>
@@ -8476,15 +8657,18 @@
       </c>
       <c r="AK58" s="22">
         <v>9.2623517376759104</v>
+      </c>
+      <c r="AL58" s="22">
+        <v>9.5095706485946803</v>
       </c>
     </row>
     <row r="59" ht="14.250000" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="16" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D59" s="18" t="str">
         <v/>
@@ -8587,15 +8771,18 @@
       </c>
       <c r="AK59" s="20">
         <v>245.68138461113099</v>
+      </c>
+      <c r="AL59" s="20">
+        <v>235.97464468568799</v>
       </c>
     </row>
     <row r="60" ht="14.250000" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="16" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D60" s="18" t="str">
         <v/>
@@ -8698,15 +8885,18 @@
       </c>
       <c r="AK60" s="22">
         <v>3.7324780889712201</v>
+      </c>
+      <c r="AL60" s="22">
+        <v>3.58500987869389</v>
       </c>
     </row>
     <row r="61" ht="14.250000" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="16" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D61" s="18" t="str">
         <v/>
@@ -8809,15 +8999,18 @@
       </c>
       <c r="AK61" s="20">
         <v>76.240012165113797</v>
+      </c>
+      <c r="AL61" s="20">
+        <v>72.916710926047898</v>
       </c>
     </row>
     <row r="62" ht="14.250000" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="16" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D62" s="18" t="str">
         <v/>
@@ -8920,15 +9113,18 @@
       </c>
       <c r="AK62" s="22">
         <v>1.38239929221156</v>
+      </c>
+      <c r="AL62" s="22">
+        <v>1.3277814365532901</v>
       </c>
     </row>
     <row r="63" ht="14.250000" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="16" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D63" s="18" t="str">
         <v/>
@@ -9031,15 +9227,18 @@
       </c>
       <c r="AK63" s="20">
         <v>25.185379745085601</v>
+      </c>
+      <c r="AL63" s="20">
+        <v>24.891121922202601</v>
       </c>
     </row>
     <row r="64" ht="14.250000" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="16" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D64" s="18" t="str">
         <v/>
@@ -9142,15 +9341,18 @@
       </c>
       <c r="AK64" s="22">
         <v>1.38239929221156</v>
+      </c>
+      <c r="AL64" s="22">
+        <v>1.3277814365532901</v>
       </c>
     </row>
     <row r="65" ht="14.250000" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="16" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D65" s="18" t="str">
         <v/>
@@ -9253,15 +9455,18 @@
       </c>
       <c r="AK65" s="20">
         <v>816.85838439890097</v>
+      </c>
+      <c r="AL65" s="20">
+        <v>838.516922862412</v>
       </c>
     </row>
     <row r="66" ht="14.250000" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="16" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D66" s="18" t="str">
         <v/>
@@ -9364,15 +9569,18 @@
       </c>
       <c r="AK66" s="22">
         <v>20.839669330089301</v>
+      </c>
+      <c r="AL66" s="22">
+        <v>20.0163051560409</v>
       </c>
     </row>
     <row r="67" ht="14.250000" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="16" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D67" s="18" t="str">
         <v/>
@@ -9475,15 +9683,18 @@
       </c>
       <c r="AK67" s="20">
         <v>20.154483120904601</v>
+      </c>
+      <c r="AL67" s="20">
+        <v>21.725558199315898</v>
       </c>
     </row>
     <row r="68" ht="24.000000" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="16" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D68" s="18" t="str">
         <v/>
@@ -9575,26 +9786,29 @@
       <c r="AG68" s="22">
         <v>58.554051583516703</v>
       </c>
-      <c r="AH68" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="AI68" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="AJ68" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="AK68" s="22" t="s">
-        <v>197</v>
+      <c r="AH68" s="22">
+        <v>62.321875347690799</v>
+      </c>
+      <c r="AI68" s="22">
+        <v>64.949956888535695</v>
+      </c>
+      <c r="AJ68" s="22">
+        <v>68.851059422555593</v>
+      </c>
+      <c r="AK68" s="22">
+        <v>70.483977992203293</v>
+      </c>
+      <c r="AL68" s="22">
+        <v>69.036402455864504</v>
       </c>
     </row>
     <row r="69" ht="14.250000" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D69" s="18" t="str">
         <v/>
@@ -9697,15 +9911,18 @@
       </c>
       <c r="AK69" s="20">
         <v>1.24529257923751</v>
+      </c>
+      <c r="AL69" s="20">
+        <v>1.27831080827312</v>
       </c>
     </row>
     <row r="70" ht="14.250000" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="16" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D70" s="18" t="str">
         <v/>
@@ -9753,70 +9970,73 @@
         <v>9.0669772243765507</v>
       </c>
       <c r="S70" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="T70" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="U70" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="T70" s="22" t="s">
+      <c r="V70" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="U70" s="22" t="s">
+      <c r="W70" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="V70" s="22" t="s">
+      <c r="X70" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="W70" s="22" t="s">
+      <c r="Y70" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="X70" s="22" t="s">
+      <c r="Z70" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="Y70" s="22" t="s">
+      <c r="AA70" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="Z70" s="22" t="s">
+      <c r="AB70" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="AA70" s="22" t="s">
+      <c r="AC70" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="AB70" s="22" t="s">
+      <c r="AD70" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="AC70" s="22" t="s">
+      <c r="AE70" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="AD70" s="22" t="s">
+      <c r="AF70" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="AE70" s="22" t="s">
+      <c r="AG70" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="AF70" s="22" t="s">
+      <c r="AH70" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="AG70" s="22" t="s">
+      <c r="AI70" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="AH70" s="22" t="s">
+      <c r="AJ70" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="AI70" s="22" t="s">
+      <c r="AK70" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="AJ70" s="22" t="s">
+      <c r="AL70" s="22" t="s">
         <v>219</v>
-      </c>
-      <c r="AK70" s="22" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="71" ht="14.250000" customHeight="1">
       <c r="A71" s="1"/>
       <c r="B71" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="C71" s="17" t="s">
         <v>221</v>
-      </c>
-      <c r="C71" s="17" t="s">
-        <v>222</v>
       </c>
       <c r="D71" s="18" t="str">
         <v/>
@@ -9919,15 +10139,18 @@
       </c>
       <c r="AK71" s="20">
         <v>2.8914263595896998</v>
+      </c>
+      <c r="AL71" s="20">
+        <v>2.9486042361539</v>
       </c>
     </row>
     <row r="72" ht="14.250000" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="C72" s="17" t="s">
         <v>223</v>
-      </c>
-      <c r="C72" s="17" t="s">
-        <v>224</v>
       </c>
       <c r="D72" s="18" t="str">
         <v/>
@@ -10030,15 +10253,18 @@
       </c>
       <c r="AK72" s="22">
         <v>148.60288047779699</v>
+      </c>
+      <c r="AL72" s="22">
+        <v>152.54300187960601</v>
       </c>
     </row>
     <row r="73" ht="14.250000" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="C73" s="17" t="s">
         <v>225</v>
-      </c>
-      <c r="C73" s="17" t="s">
-        <v>226</v>
       </c>
       <c r="D73" s="18" t="str">
         <v/>
@@ -10141,15 +10367,18 @@
       </c>
       <c r="AK73" s="20">
         <v>816.85838439890097</v>
+      </c>
+      <c r="AL73" s="20">
+        <v>838.516922862412</v>
       </c>
     </row>
     <row r="74" ht="14.250000" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="C74" s="17" t="s">
         <v>227</v>
-      </c>
-      <c r="C74" s="17" t="s">
-        <v>228</v>
       </c>
       <c r="D74" s="18" t="str">
         <v/>
@@ -10252,6 +10481,9 @@
       </c>
       <c r="AK74" s="22">
         <v>73.239514501368603</v>
+      </c>
+      <c r="AL74" s="22" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="75" ht="14.250000" customHeight="1">
@@ -10364,6 +10596,9 @@
       <c r="AK75" s="20">
         <v>4.2872349249357198</v>
       </c>
+      <c r="AL75" s="20">
+        <v>3.8889390495209399</v>
+      </c>
     </row>
     <row r="76" ht="14.250000" customHeight="1">
       <c r="A76" s="1"/>
@@ -10475,6 +10710,9 @@
       <c r="AK76" s="22">
         <v>9.8319002460670699</v>
       </c>
+      <c r="AL76" s="22">
+        <v>9.6005236769985807</v>
+      </c>
     </row>
     <row r="77" ht="14.250000" customHeight="1">
       <c r="A77" s="1"/>
@@ -10586,6 +10824,9 @@
       <c r="AK77" s="20">
         <v>1.05321648105715</v>
       </c>
+      <c r="AL77" s="20">
+        <v>1.09652443352324</v>
+      </c>
     </row>
     <row r="78" ht="14.250000" customHeight="1">
       <c r="A78" s="1"/>
@@ -10697,14 +10938,17 @@
       <c r="AK78" s="22" t="s">
         <v>255</v>
       </c>
+      <c r="AL78" s="22" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="79" ht="14.250000" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="16" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D79" s="18" t="str">
         <v/>
@@ -10807,15 +11051,18 @@
       </c>
       <c r="AK79" s="20">
         <v>3.7324780889712201</v>
+      </c>
+      <c r="AL79" s="20">
+        <v>3.58500987869389</v>
       </c>
     </row>
     <row r="80" ht="14.250000" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="16" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D80" s="18" t="str">
         <v/>
@@ -10918,15 +11165,18 @@
       </c>
       <c r="AK80" s="22">
         <v>10.6137161657773</v>
+      </c>
+      <c r="AL80" s="22">
+        <v>10.296925123749199</v>
       </c>
     </row>
     <row r="81" ht="14.250000" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="16" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D81" s="18" t="str">
         <v/>
@@ -11029,15 +11279,18 @@
       </c>
       <c r="AK81" s="20">
         <v>1.05321648105715</v>
+      </c>
+      <c r="AL81" s="20">
+        <v>1.09652443352324</v>
       </c>
     </row>
     <row r="82" ht="14.250000" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="16" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D82" s="18" t="str">
         <v/>
@@ -11130,25 +11383,28 @@
         <v>14112.511532525599</v>
       </c>
       <c r="AH82" s="22" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AI82" s="22" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AJ82" s="22" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AK82" s="22" t="s">
-        <v>267</v>
+        <v>268</v>
+      </c>
+      <c r="AL82" s="22" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="83" ht="14.250000" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="16" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D83" s="18" t="str">
         <v/>
@@ -11251,15 +11507,18 @@
       </c>
       <c r="AK83" s="20">
         <v>816.85838439890097</v>
+      </c>
+      <c r="AL83" s="20">
+        <v>838.516922862412</v>
       </c>
     </row>
     <row r="84" ht="14.250000" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="16" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D84" s="18" t="str">
         <v/>
@@ -11362,15 +11621,18 @@
       </c>
       <c r="AK84" s="22">
         <v>288.23025242611101</v>
+      </c>
+      <c r="AL84" s="22">
+        <v>276.842429521361</v>
       </c>
     </row>
     <row r="85" ht="14.250000" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="16" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D85" s="18" t="str">
         <v/>
@@ -11473,15 +11735,18 @@
       </c>
       <c r="AK85" s="20">
         <v>144.98603776714901</v>
+      </c>
+      <c r="AL85" s="20" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="86" ht="14.250000" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="16" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D86" s="18" t="str">
         <v/>
@@ -11584,15 +11849,18 @@
       </c>
       <c r="AK86" s="22">
         <v>33.648428212004802</v>
+      </c>
+      <c r="AL86" s="22">
+        <v>32.414331541713601</v>
       </c>
     </row>
     <row r="87" ht="14.250000" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="16" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D87" s="18" t="str">
         <v/>
@@ -11695,15 +11963,18 @@
       </c>
       <c r="AK87" s="20">
         <v>459.08098095053799</v>
+      </c>
+      <c r="AL87" s="20">
+        <v>504.54366807588502</v>
       </c>
     </row>
     <row r="88" ht="14.250000" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="16" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D88" s="18" t="str">
         <v/>
@@ -11806,15 +12077,18 @@
       </c>
       <c r="AK88" s="22">
         <v>176.836517459703</v>
+      </c>
+      <c r="AL88" s="22">
+        <v>177.550933695906</v>
       </c>
     </row>
     <row r="89" ht="14.250000" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="16" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D89" s="18" t="str">
         <v/>
@@ -11917,15 +12191,18 @@
       </c>
       <c r="AK89" s="20">
         <v>104.795681384611</v>
+      </c>
+      <c r="AL89" s="20">
+        <v>104.817854942534</v>
       </c>
     </row>
     <row r="90" ht="14.250000" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="16" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D90" s="18" t="str">
         <v/>
@@ -12028,15 +12305,18 @@
       </c>
       <c r="AK90" s="22">
         <v>19836.054355940199</v>
+      </c>
+      <c r="AL90" s="22">
+        <v>19714.898769943298</v>
       </c>
     </row>
     <row r="91" ht="14.250000" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="16" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D91" s="18" t="str">
         <v/>
@@ -12139,15 +12419,18 @@
       </c>
       <c r="AK91" s="20">
         <v>58060.770272885602</v>
+      </c>
+      <c r="AL91" s="20">
+        <v>55766.820335238299</v>
       </c>
     </row>
     <row r="92" ht="14.250000" customHeight="1">
       <c r="A92" s="1"/>
       <c r="B92" s="16" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D92" s="18" t="str">
         <v/>
@@ -12248,17 +12531,20 @@
       <c r="AJ92" s="22">
         <v>2029.41106490896</v>
       </c>
-      <c r="AK92" s="22" t="s">
-        <v>288</v>
+      <c r="AK92" s="22">
+        <v>2004.4789737067699</v>
+      </c>
+      <c r="AL92" s="22">
+        <v>1925.2830830022699</v>
       </c>
     </row>
     <row r="93" ht="14.250000" customHeight="1">
       <c r="A93" s="1"/>
       <c r="B93" s="16" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C93" s="17" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D93" s="18" t="str">
         <v/>
@@ -12361,15 +12647,18 @@
       </c>
       <c r="AK93" s="20">
         <v>1.05321648105715</v>
+      </c>
+      <c r="AL93" s="20">
+        <v>1.09652443352324</v>
       </c>
     </row>
     <row r="94" ht="14.250000" customHeight="1">
       <c r="A94" s="1"/>
       <c r="B94" s="16" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D94" s="18" t="str">
         <v/>
@@ -12472,15 +12761,18 @@
       </c>
       <c r="AK94" s="22">
         <v>4.39050015206392</v>
+      </c>
+      <c r="AL94" s="22">
+        <v>4.64723502793652</v>
       </c>
     </row>
     <row r="95" ht="14.250000" customHeight="1">
       <c r="A95" s="1"/>
       <c r="B95" s="16" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D95" s="18" t="str">
         <v/>
@@ -12583,15 +12875,18 @@
       </c>
       <c r="AK95" s="20">
         <v>211.92989853189201</v>
+      </c>
+      <c r="AL95" s="20">
+        <v>199.88966136262201</v>
       </c>
     </row>
     <row r="96" ht="14.250000" customHeight="1">
       <c r="A96" s="1"/>
       <c r="B96" s="16" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D96" s="18" t="str">
         <v/>
@@ -12694,15 +12989,18 @@
       </c>
       <c r="AK96" s="22">
         <v>169.20567336669501</v>
+      </c>
+      <c r="AL96" s="22">
+        <v>181.414777676276</v>
       </c>
     </row>
     <row r="97" ht="14.250000" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="16" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D97" s="18" t="str">
         <v/>
@@ -12805,15 +13103,18 @@
       </c>
       <c r="AK97" s="20">
         <v>1.05321648105715</v>
+      </c>
+      <c r="AL97" s="20">
+        <v>1.09652443352324</v>
       </c>
     </row>
     <row r="98" ht="14.250000" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="16" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D98" s="18" t="str">
         <v/>
@@ -12916,15 +13217,18 @@
       </c>
       <c r="AK98" s="22">
         <v>0.98150349747020904</v>
+      </c>
+      <c r="AL98" s="22">
+        <v>0.94272481995283697</v>
       </c>
     </row>
     <row r="99" ht="14.250000" customHeight="1">
       <c r="A99" s="1"/>
       <c r="B99" s="16" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D99" s="18" t="str">
         <v/>
@@ -13027,15 +13331,18 @@
       </c>
       <c r="AK99" s="20">
         <v>644.62661395117402</v>
+      </c>
+      <c r="AL99" s="20">
+        <v>624.50872086847505</v>
       </c>
     </row>
     <row r="100" ht="14.250000" customHeight="1">
       <c r="A100" s="1"/>
       <c r="B100" s="16" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D100" s="18" t="str">
         <v/>
@@ -13138,15 +13445,18 @@
       </c>
       <c r="AK100" s="22">
         <v>158.90852663883399</v>
+      </c>
+      <c r="AL100" s="22">
+        <v>156.45561086068901</v>
       </c>
     </row>
     <row r="101" ht="14.250000" customHeight="1">
       <c r="A101" s="1"/>
       <c r="B101" s="16" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D101" s="18" t="str">
         <v/>
@@ -13249,15 +13559,18 @@
       </c>
       <c r="AK101" s="20">
         <v>1.84763337638541</v>
+      </c>
+      <c r="AL101" s="20">
+        <v>1.92739357897125</v>
       </c>
     </row>
     <row r="102" ht="14.250000" customHeight="1">
       <c r="A102" s="1"/>
       <c r="B102" s="16" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D102" s="18" t="str">
         <v/>
@@ -13360,15 +13673,18 @@
       </c>
       <c r="AK102" s="22">
         <v>1673.8090630097599</v>
+      </c>
+      <c r="AL102" s="22">
+        <v>1716.6886193197499</v>
       </c>
     </row>
     <row r="103" ht="14.250000" customHeight="1">
       <c r="A103" s="1"/>
       <c r="B103" s="16" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D103" s="18" t="str">
         <v/>
@@ -13471,15 +13787,18 @@
       </c>
       <c r="AK103" s="20">
         <v>1.24529257923751</v>
+      </c>
+      <c r="AL103" s="20">
+        <v>1.27831080827312</v>
       </c>
     </row>
     <row r="104" ht="14.250000" customHeight="1">
       <c r="A104" s="1"/>
       <c r="B104" s="16" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D104" s="18" t="str">
         <v/>
@@ -13582,15 +13901,18 @@
       </c>
       <c r="AK104" s="22">
         <v>0.42011114490309398</v>
+      </c>
+      <c r="AL104" s="22">
+        <v>0.40723056659089502</v>
       </c>
     </row>
     <row r="105" ht="14.250000" customHeight="1">
       <c r="A105" s="1"/>
       <c r="B105" s="16" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D105" s="18" t="str">
         <v/>
@@ -13693,15 +14015,18 @@
       </c>
       <c r="AK105" s="20">
         <v>115.166302634853</v>
+      </c>
+      <c r="AL105" s="20">
+        <v>105.558624205987</v>
       </c>
     </row>
     <row r="106" ht="14.250000" customHeight="1">
       <c r="A106" s="1"/>
       <c r="B106" s="16" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D106" s="18" t="str">
         <v/>
@@ -13804,15 +14129,18 @@
       </c>
       <c r="AK106" s="22">
         <v>16012.3310016865</v>
+      </c>
+      <c r="AL106" s="22">
+        <v>19667.098638227399</v>
       </c>
     </row>
     <row r="107" ht="14.250000" customHeight="1">
       <c r="A107" s="1"/>
       <c r="B107" s="16" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D107" s="18" t="str">
         <v/>
@@ -13915,15 +14243,18 @@
       </c>
       <c r="AK107" s="20">
         <v>2083.96693300893</v>
+      </c>
+      <c r="AL107" s="20">
+        <v>2001.6305156040901</v>
       </c>
     </row>
     <row r="108" ht="14.250000" customHeight="1">
       <c r="A108" s="1"/>
       <c r="B108" s="16" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D108" s="18" t="str">
         <v/>
@@ -14026,15 +14357,18 @@
       </c>
       <c r="AK108" s="22">
         <v>20.1544723912682</v>
+      </c>
+      <c r="AL108" s="22">
+        <v>21.7255590025099</v>
       </c>
     </row>
     <row r="109" ht="14.250000" customHeight="1">
       <c r="A109" s="1"/>
       <c r="B109" s="16" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C109" s="17" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D109" s="18" t="str">
         <v/>
@@ -14130,22 +14464,25 @@
         <v>244.51511581133499</v>
       </c>
       <c r="AI109" s="20" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AJ109" s="20" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AK109" s="20" t="s">
-        <v>325</v>
+        <v>327</v>
+      </c>
+      <c r="AL109" s="20" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="110" ht="14.250000" customHeight="1">
       <c r="A110" s="1"/>
       <c r="B110" s="16" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D110" s="18" t="str">
         <v/>
@@ -14231,32 +14568,35 @@
       <c r="AE110" s="22">
         <v>1.9361409072547899</v>
       </c>
-      <c r="AF110" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="AG110" s="22" t="s">
-        <v>329</v>
-      </c>
-      <c r="AH110" s="22" t="s">
-        <v>330</v>
-      </c>
-      <c r="AI110" s="22" t="s">
+      <c r="AF110" s="22">
+        <v>1.9250628317118299</v>
+      </c>
+      <c r="AG110" s="22">
+        <v>6.4359641900021698</v>
+      </c>
+      <c r="AH110" s="22">
+        <v>6.4281781431958196</v>
+      </c>
+      <c r="AI110" s="22">
+        <v>6.4243126116530602</v>
+      </c>
+      <c r="AJ110" s="22">
+        <v>6.4326732382262701</v>
+      </c>
+      <c r="AK110" s="22">
+        <v>6.4180651939506204</v>
+      </c>
+      <c r="AL110" s="22" t="s">
         <v>331</v>
-      </c>
-      <c r="AJ110" s="22" t="s">
-        <v>332</v>
-      </c>
-      <c r="AK110" s="22" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="111" ht="14.250000" customHeight="1">
       <c r="A111" s="1"/>
       <c r="B111" s="16" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D111" s="18" t="str">
         <v/>
@@ -14274,100 +14614,103 @@
         <v>4.1127228262129396</v>
       </c>
       <c r="I111" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="J111" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="K111" s="20" t="s">
         <v>336</v>
       </c>
-      <c r="J111" s="20" t="s">
+      <c r="L111" s="20" t="s">
         <v>337</v>
       </c>
-      <c r="K111" s="20" t="s">
+      <c r="M111" s="20" t="s">
         <v>338</v>
       </c>
-      <c r="L111" s="20" t="s">
+      <c r="N111" s="20" t="s">
         <v>339</v>
       </c>
-      <c r="M111" s="20" t="s">
+      <c r="O111" s="20" t="s">
         <v>340</v>
       </c>
-      <c r="N111" s="20" t="s">
+      <c r="P111" s="20" t="s">
         <v>341</v>
       </c>
-      <c r="O111" s="20" t="s">
+      <c r="Q111" s="20" t="s">
         <v>342</v>
       </c>
-      <c r="P111" s="20" t="s">
+      <c r="R111" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="Q111" s="20" t="s">
+      <c r="S111" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="R111" s="20" t="s">
+      <c r="T111" s="20" t="s">
         <v>345</v>
       </c>
-      <c r="S111" s="20" t="s">
+      <c r="U111" s="20" t="s">
         <v>346</v>
       </c>
-      <c r="T111" s="20" t="s">
+      <c r="V111" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="U111" s="20" t="s">
+      <c r="W111" s="20" t="s">
         <v>348</v>
       </c>
-      <c r="V111" s="20" t="s">
+      <c r="X111" s="20" t="s">
         <v>349</v>
       </c>
-      <c r="W111" s="20" t="s">
+      <c r="Y111" s="20" t="s">
         <v>350</v>
       </c>
-      <c r="X111" s="20" t="s">
+      <c r="Z111" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="Y111" s="20" t="s">
+      <c r="AA111" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="Z111" s="20" t="s">
+      <c r="AB111" s="20" t="s">
         <v>353</v>
       </c>
-      <c r="AA111" s="20" t="s">
+      <c r="AC111" s="20" t="s">
         <v>354</v>
       </c>
-      <c r="AB111" s="20" t="s">
+      <c r="AD111" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="AC111" s="20" t="s">
+      <c r="AE111" s="20" t="s">
         <v>356</v>
       </c>
-      <c r="AD111" s="20" t="s">
+      <c r="AF111" s="20" t="s">
         <v>357</v>
       </c>
-      <c r="AE111" s="20" t="s">
+      <c r="AG111" s="20" t="s">
         <v>358</v>
       </c>
-      <c r="AF111" s="20" t="s">
+      <c r="AH111" s="20" t="s">
         <v>359</v>
       </c>
-      <c r="AG111" s="20" t="s">
+      <c r="AI111" s="20" t="s">
         <v>360</v>
       </c>
-      <c r="AH111" s="20" t="s">
+      <c r="AJ111" s="20" t="s">
         <v>361</v>
       </c>
-      <c r="AI111" s="20" t="s">
+      <c r="AK111" s="20" t="s">
         <v>362</v>
       </c>
-      <c r="AJ111" s="20" t="s">
+      <c r="AL111" s="20" t="s">
         <v>363</v>
-      </c>
-      <c r="AK111" s="20" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="112" ht="14.250000" customHeight="1">
       <c r="A112" s="1"/>
       <c r="B112" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="C112" s="17" t="s">
         <v>365</v>
-      </c>
-      <c r="C112" s="17" t="s">
-        <v>366</v>
       </c>
       <c r="D112" s="18" t="str">
         <v/>
@@ -14470,15 +14813,18 @@
       </c>
       <c r="AK112" s="22">
         <v>5494.9957145621902</v>
+      </c>
+      <c r="AL112" s="22">
+        <v>5410.13840793695</v>
       </c>
     </row>
     <row r="113" ht="14.250000" customHeight="1">
       <c r="A113" s="1"/>
       <c r="B113" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="C113" s="17" t="s">
         <v>367</v>
-      </c>
-      <c r="C113" s="17" t="s">
-        <v>368</v>
       </c>
       <c r="D113" s="18" t="str">
         <v/>
@@ -14577,9 +14923,12 @@
         <v>1158.32539788188</v>
       </c>
       <c r="AJ113" s="20" t="s">
+        <v>368</v>
+      </c>
+      <c r="AK113" s="20" t="s">
         <v>369</v>
       </c>
-      <c r="AK113" s="20" t="s">
+      <c r="AL113" s="20" t="s">
         <v>370</v>
       </c>
     </row>
@@ -14693,6 +15042,9 @@
       <c r="AK114" s="22">
         <v>5.8116066244574096</v>
       </c>
+      <c r="AL114" s="22">
+        <v>5.8495411187355302</v>
+      </c>
     </row>
     <row r="115" ht="14.250000" customHeight="1">
       <c r="A115" s="1"/>
@@ -14804,6 +15156,9 @@
       <c r="AK115" s="20">
         <v>21.247477121291698</v>
       </c>
+      <c r="AL115" s="20">
+        <v>20.461111937286201</v>
+      </c>
     </row>
     <row r="116" ht="14.250000" customHeight="1">
       <c r="A116" s="1"/>
@@ -14915,6 +15270,9 @@
       <c r="AK116" s="22">
         <v>816.85838439890097</v>
       </c>
+      <c r="AL116" s="22">
+        <v>838.516922862412</v>
+      </c>
     </row>
     <row r="117" ht="14.250000" customHeight="1">
       <c r="A117" s="1"/>
@@ -15014,26 +15372,29 @@
       <c r="AG117" s="20">
         <v>50.906091582779801</v>
       </c>
-      <c r="AH117" s="20" t="s">
-        <v>379</v>
-      </c>
-      <c r="AI117" s="20" t="s">
-        <v>380</v>
-      </c>
-      <c r="AJ117" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="AK117" s="20" t="s">
-        <v>382</v>
+      <c r="AH117" s="20">
+        <v>51.522421953230399</v>
+      </c>
+      <c r="AI117" s="20">
+        <v>50.888434293056498</v>
+      </c>
+      <c r="AJ117" s="20">
+        <v>50.693288807587997</v>
+      </c>
+      <c r="AK117" s="20">
+        <v>50.1810943072797</v>
+      </c>
+      <c r="AL117" s="20">
+        <v>48.251577404346598</v>
       </c>
     </row>
     <row r="118" ht="14.250000" customHeight="1">
       <c r="A118" s="1"/>
       <c r="B118" s="16" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D118" s="18" t="str">
         <v/>
@@ -15136,15 +15497,18 @@
       </c>
       <c r="AK118" s="22">
         <v>61.494511874809902</v>
+      </c>
+      <c r="AL118" s="22">
+        <v>60.143187950117898</v>
       </c>
     </row>
     <row r="119" ht="14.250000" customHeight="1">
       <c r="A119" s="1"/>
       <c r="B119" s="16" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D119" s="18" t="str">
         <v/>
@@ -15247,15 +15611,18 @@
       </c>
       <c r="AK119" s="20">
         <v>27.6399679283364</v>
+      </c>
+      <c r="AL119" s="20">
+        <v>26.535313675086599</v>
       </c>
     </row>
     <row r="120" ht="24.000000" customHeight="1">
       <c r="A120" s="1"/>
       <c r="B120" s="16" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D120" s="18" t="str">
         <v/>
@@ -15358,15 +15725,18 @@
       </c>
       <c r="AK120" s="22">
         <v>1.38239929221156</v>
+      </c>
+      <c r="AL120" s="22">
+        <v>1.3277814365532901</v>
       </c>
     </row>
     <row r="121" ht="14.250000" customHeight="1">
       <c r="A121" s="1"/>
       <c r="B121" s="16" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D121" s="18" t="str">
         <v/>
@@ -15469,15 +15839,18 @@
       </c>
       <c r="AK121" s="20">
         <v>25.328734551687901</v>
+      </c>
+      <c r="AL121" s="20">
+        <v>25.3893055171974</v>
       </c>
     </row>
     <row r="122" ht="14.250000" customHeight="1">
       <c r="A122" s="1"/>
       <c r="B122" s="16" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D122" s="18" t="str">
         <v/>
@@ -15580,15 +15953,18 @@
       </c>
       <c r="AK122" s="22">
         <v>4075.9490171141001</v>
+      </c>
+      <c r="AL122" s="22">
+        <v>4161.3998003016704</v>
       </c>
     </row>
     <row r="123" ht="14.250000" customHeight="1">
       <c r="A123" s="1"/>
       <c r="B123" s="16" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C123" s="17" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D123" s="18" t="str">
         <v/>
@@ -15691,15 +16067,18 @@
       </c>
       <c r="AK123" s="20">
         <v>1.24529257923751</v>
+      </c>
+      <c r="AL123" s="20">
+        <v>1.27831080827312</v>
       </c>
     </row>
     <row r="124" ht="14.250000" customHeight="1">
       <c r="A124" s="1"/>
       <c r="B124" s="16" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D124" s="18" t="str">
         <v/>
@@ -15802,15 +16181,18 @@
       </c>
       <c r="AK124" s="22">
         <v>3.7324780889712201</v>
+      </c>
+      <c r="AL124" s="22">
+        <v>3.58500987869389</v>
       </c>
     </row>
     <row r="125" ht="14.250000" customHeight="1">
       <c r="A125" s="1"/>
       <c r="B125" s="16" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D125" s="18" t="str">
         <v/>
@@ -15913,15 +16295,18 @@
       </c>
       <c r="AK125" s="20">
         <v>13.3512123641793</v>
+      </c>
+      <c r="AL125" s="20">
+        <v>13.482292706762101</v>
       </c>
     </row>
     <row r="126" ht="14.250000" customHeight="1">
       <c r="A126" s="1"/>
       <c r="B126" s="16" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C126" s="17" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D126" s="18" t="str">
         <v/>
@@ -16024,15 +16409,18 @@
       </c>
       <c r="AK126" s="22">
         <v>88.238546821864006</v>
+      </c>
+      <c r="AL126" s="22">
+        <v>84.792122538293199</v>
       </c>
     </row>
     <row r="127" ht="14.250000" customHeight="1">
       <c r="A127" s="1"/>
       <c r="B127" s="16" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D127" s="18" t="str">
         <v/>
@@ -16125,25 +16513,28 @@
         <v>2053.3918734490398</v>
       </c>
       <c r="AH127" s="20" t="s">
+        <v>399</v>
+      </c>
+      <c r="AI127" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="AJ127" s="20" t="s">
+        <v>401</v>
+      </c>
+      <c r="AK127" s="20" t="s">
+        <v>402</v>
+      </c>
+      <c r="AL127" s="20" t="s">
         <v>403</v>
-      </c>
-      <c r="AI127" s="20" t="s">
-        <v>404</v>
-      </c>
-      <c r="AJ127" s="20" t="s">
-        <v>405</v>
-      </c>
-      <c r="AK127" s="20" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="128" ht="14.250000" customHeight="1">
       <c r="A128" s="1"/>
       <c r="B128" s="16" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D128" s="18" t="str">
         <v/>
@@ -16246,15 +16637,18 @@
       </c>
       <c r="AK128" s="22">
         <v>20.064696286875499</v>
+      </c>
+      <c r="AL128" s="22">
+        <v>21.570938051029302</v>
       </c>
     </row>
     <row r="129" ht="14.250000" customHeight="1">
       <c r="A129" s="1"/>
       <c r="B129" s="16" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D129" s="18" t="str">
         <v/>
@@ -16357,15 +16751,18 @@
       </c>
       <c r="AK129" s="20">
         <v>1.84763337638541</v>
+      </c>
+      <c r="AL129" s="20">
+        <v>1.92739357897125</v>
       </c>
     </row>
     <row r="130" ht="14.250000" customHeight="1">
       <c r="A130" s="1"/>
       <c r="B130" s="16" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C130" s="17" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D130" s="18" t="str">
         <v/>
@@ -16468,15 +16865,18 @@
       </c>
       <c r="AK130" s="22">
         <v>169.41303326052699</v>
+      </c>
+      <c r="AL130" s="22">
+        <v>165.78679016804401</v>
       </c>
     </row>
     <row r="131" ht="14.250000" customHeight="1">
       <c r="A131" s="1"/>
       <c r="B131" s="16" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D131" s="18" t="str">
         <v/>
@@ -16579,15 +16979,18 @@
       </c>
       <c r="AK131" s="20">
         <v>148.60288047779699</v>
+      </c>
+      <c r="AL131" s="20">
+        <v>152.54300187960601</v>
       </c>
     </row>
     <row r="132" ht="14.250000" customHeight="1">
       <c r="A132" s="1"/>
       <c r="B132" s="16" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D132" s="18" t="str">
         <v/>
@@ -16690,15 +17093,18 @@
       </c>
       <c r="AK132" s="22">
         <v>1.9819458652437201</v>
+      </c>
+      <c r="AL132" s="22">
+        <v>2.1367986658452098</v>
       </c>
     </row>
     <row r="133" ht="14.250000" customHeight="1">
       <c r="A133" s="1"/>
       <c r="B133" s="16" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C133" s="17" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D133" s="18" t="str">
         <v/>
@@ -16799,17 +17205,20 @@
       <c r="AJ133" s="20">
         <v>49.714972714918098</v>
       </c>
-      <c r="AK133" s="20" t="s">
-        <v>419</v>
+      <c r="AK133" s="20">
+        <v>49.3444662556333</v>
+      </c>
+      <c r="AL133" s="20">
+        <v>47.592068364810601</v>
       </c>
     </row>
     <row r="134" ht="14.250000" customHeight="1">
       <c r="A134" s="1"/>
       <c r="B134" s="16" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C134" s="17" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D134" s="18" t="str">
         <v/>
@@ -16912,15 +17321,18 @@
       </c>
       <c r="AK134" s="22">
         <v>816.85838439890097</v>
+      </c>
+      <c r="AL134" s="22">
+        <v>838.516922862412</v>
       </c>
     </row>
     <row r="135" ht="14.250000" customHeight="1">
       <c r="A135" s="1"/>
       <c r="B135" s="16" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C135" s="17" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D135" s="18" t="str">
         <v/>
@@ -17019,19 +17431,22 @@
         <v>578.76436344373303</v>
       </c>
       <c r="AJ135" s="20" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="AK135" s="20" t="s">
-        <v>425</v>
+        <v>421</v>
+      </c>
+      <c r="AL135" s="20" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="136" ht="14.250000" customHeight="1">
       <c r="A136" s="1"/>
       <c r="B136" s="16" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C136" s="17" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D136" s="18" t="str">
         <v/>
@@ -17134,15 +17549,18 @@
       </c>
       <c r="AK136" s="22">
         <v>76.655699632281795</v>
+      </c>
+      <c r="AL136" s="22">
+        <v>77.8905801873765</v>
       </c>
     </row>
     <row r="137" ht="14.250000" customHeight="1">
       <c r="A137" s="1"/>
       <c r="B137" s="16" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C137" s="17" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D137" s="18" t="str">
         <v/>
@@ -17245,15 +17663,18 @@
       </c>
       <c r="AK137" s="20">
         <v>12.095993806851199</v>
+      </c>
+      <c r="AL137" s="20">
+        <v>13.2247031080708</v>
       </c>
     </row>
     <row r="138" ht="14.250000" customHeight="1">
       <c r="A138" s="1"/>
       <c r="B138" s="16" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C138" s="17" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D138" s="18" t="str">
         <v/>
@@ -17356,15 +17777,18 @@
       </c>
       <c r="AK138" s="22">
         <v>0.53153252785534599</v>
+      </c>
+      <c r="AL138" s="22">
+        <v>0.51053196235474096</v>
       </c>
     </row>
     <row r="139" ht="14.250000" customHeight="1">
       <c r="A139" s="1"/>
       <c r="B139" s="16" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C139" s="17" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D139" s="18" t="str">
         <v/>
@@ -17467,15 +17891,18 @@
       </c>
       <c r="AK139" s="20">
         <v>253.690453150488</v>
+      </c>
+      <c r="AL139" s="20">
+        <v>271.369845552463</v>
       </c>
     </row>
     <row r="140" ht="14.250000" customHeight="1">
       <c r="A140" s="1"/>
       <c r="B140" s="16" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C140" s="17" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D140" s="18" t="str">
         <v/>
@@ -17578,15 +18005,18 @@
       </c>
       <c r="AK140" s="22">
         <v>1.38239929221156</v>
+      </c>
+      <c r="AL140" s="22">
+        <v>1.3277814365532901</v>
       </c>
     </row>
     <row r="141" ht="14.250000" customHeight="1">
       <c r="A141" s="1"/>
       <c r="B141" s="16" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C141" s="17" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D141" s="18" t="str">
         <v/>
@@ -17689,15 +18119,18 @@
       </c>
       <c r="AK141" s="20">
         <v>1.38239929221156</v>
+      </c>
+      <c r="AL141" s="20">
+        <v>1.3277814365532901</v>
       </c>
     </row>
     <row r="142" ht="14.250000" customHeight="1">
       <c r="A142" s="1"/>
       <c r="B142" s="16" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C142" s="17" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D142" s="18" t="str">
         <v/>
@@ -17799,16 +18232,19 @@
         <v>4.9108555714675397</v>
       </c>
       <c r="AK142" s="22" t="s">
-        <v>440</v>
+        <v>437</v>
+      </c>
+      <c r="AL142" s="22" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="143" ht="14.250000" customHeight="1">
       <c r="A143" s="1"/>
       <c r="B143" s="16" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C143" s="17" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D143" s="18" t="str">
         <v/>
@@ -17823,7 +18259,7 @@
         <v>6670.2347523639801</v>
       </c>
       <c r="H143" s="20">
-        <v>6716.2254572428701</v>
+        <v>6702.5414937759297</v>
       </c>
       <c r="I143" s="20">
         <v>6619.8674309047401</v>
@@ -17911,15 +18347,18 @@
       </c>
       <c r="AK143" s="20">
         <v>9575.1817855069294</v>
+      </c>
+      <c r="AL143" s="20" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="144" ht="14.250000" customHeight="1">
       <c r="A144" s="1"/>
       <c r="B144" s="16" t="s">
+        <v>442</v>
+      </c>
+      <c r="C144" s="17" t="s">
         <v>443</v>
-      </c>
-      <c r="C144" s="17" t="s">
-        <v>444</v>
       </c>
       <c r="D144" s="18" t="str">
         <v/>
@@ -18022,15 +18461,18 @@
       </c>
       <c r="AK144" s="22">
         <v>5.1121125825983604</v>
+      </c>
+      <c r="AL144" s="22">
+        <v>5.0787639948163399</v>
       </c>
     </row>
     <row r="145" ht="14.250000" customHeight="1">
       <c r="A145" s="1"/>
       <c r="B145" s="16" t="s">
+        <v>444</v>
+      </c>
+      <c r="C145" s="17" t="s">
         <v>445</v>
-      </c>
-      <c r="C145" s="17" t="s">
-        <v>446</v>
       </c>
       <c r="D145" s="18" t="str">
         <v/>
@@ -18133,15 +18575,18 @@
       </c>
       <c r="AK145" s="20">
         <v>71.829467223312804</v>
+      </c>
+      <c r="AL145" s="20">
+        <v>73.0558624205987</v>
       </c>
     </row>
     <row r="146" ht="14.250000" customHeight="1">
       <c r="A146" s="1"/>
       <c r="B146" s="16" t="s">
+        <v>446</v>
+      </c>
+      <c r="C146" s="17" t="s">
         <v>447</v>
-      </c>
-      <c r="C146" s="17" t="s">
-        <v>448</v>
       </c>
       <c r="D146" s="18" t="str">
         <v/>
@@ -18244,15 +18689,18 @@
       </c>
       <c r="AK146" s="22">
         <v>5.77856728137355</v>
+      </c>
+      <c r="AL146" s="22">
+        <v>5.9517802893501299</v>
       </c>
     </row>
     <row r="147" ht="14.250000" customHeight="1">
       <c r="A147" s="1"/>
       <c r="B147" s="16" t="s">
+        <v>448</v>
+      </c>
+      <c r="C147" s="17" t="s">
         <v>449</v>
-      </c>
-      <c r="C147" s="17" t="s">
-        <v>450</v>
       </c>
       <c r="D147" s="18" t="str">
         <v/>
@@ -18355,15 +18803,18 @@
       </c>
       <c r="AK147" s="20">
         <v>5.0319334236500897</v>
+      </c>
+      <c r="AL147" s="20">
+        <v>4.8331244290539797</v>
       </c>
     </row>
     <row r="148" ht="14.250000" customHeight="1">
       <c r="A148" s="1"/>
       <c r="B148" s="16" t="s">
+        <v>450</v>
+      </c>
+      <c r="C148" s="17" t="s">
         <v>451</v>
-      </c>
-      <c r="C148" s="17" t="s">
-        <v>452</v>
       </c>
       <c r="D148" s="18" t="str">
         <v/>
@@ -18466,15 +18917,18 @@
       </c>
       <c r="AK148" s="22">
         <v>6.1527827697752198</v>
+      </c>
+      <c r="AL148" s="22">
+        <v>6.2968706847103304</v>
       </c>
     </row>
     <row r="149" ht="14.250000" customHeight="1">
       <c r="A149" s="1"/>
       <c r="B149" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="C149" s="17" t="s">
         <v>453</v>
-      </c>
-      <c r="C149" s="17" t="s">
-        <v>454</v>
       </c>
       <c r="D149" s="18" t="str">
         <v/>
@@ -18577,15 +19031,18 @@
       </c>
       <c r="AK149" s="20">
         <v>116.239182725538</v>
+      </c>
+      <c r="AL149" s="20">
+        <v>67.926642731193297</v>
       </c>
     </row>
     <row r="150" ht="14.250000" customHeight="1">
       <c r="A150" s="1"/>
       <c r="B150" s="16" t="s">
+        <v>454</v>
+      </c>
+      <c r="C150" s="17" t="s">
         <v>455</v>
-      </c>
-      <c r="C150" s="17" t="s">
-        <v>456</v>
       </c>
       <c r="D150" s="18" t="str">
         <v/>
@@ -18688,15 +19145,18 @@
       </c>
       <c r="AK150" s="22">
         <v>1406.06082418646</v>
+      </c>
+      <c r="AL150" s="22">
+        <v>1360.28872076225</v>
       </c>
     </row>
     <row r="151" ht="14.250000" customHeight="1">
       <c r="A151" s="1"/>
       <c r="B151" s="16" t="s">
+        <v>456</v>
+      </c>
+      <c r="C151" s="17" t="s">
         <v>457</v>
-      </c>
-      <c r="C151" s="17" t="s">
-        <v>458</v>
       </c>
       <c r="D151" s="18" t="str">
         <v/>
@@ -18799,15 +19259,18 @@
       </c>
       <c r="AK151" s="20">
         <v>3.54734229461525</v>
+      </c>
+      <c r="AL151" s="20">
+        <v>3.60027504488419</v>
       </c>
     </row>
     <row r="152" ht="14.250000" customHeight="1">
       <c r="A152" s="1"/>
       <c r="B152" s="16" t="s">
+        <v>458</v>
+      </c>
+      <c r="C152" s="17" t="s">
         <v>459</v>
-      </c>
-      <c r="C152" s="17" t="s">
-        <v>460</v>
       </c>
       <c r="D152" s="18" t="str">
         <v/>
@@ -18910,15 +19373,18 @@
       </c>
       <c r="AK152" s="22">
         <v>1.24529257923751</v>
+      </c>
+      <c r="AL152" s="22">
+        <v>1.27831080827312</v>
       </c>
     </row>
     <row r="153" ht="24.000000" customHeight="1">
       <c r="A153" s="1"/>
       <c r="B153" s="16" t="s">
+        <v>460</v>
+      </c>
+      <c r="C153" s="17" t="s">
         <v>461</v>
-      </c>
-      <c r="C153" s="17" t="s">
-        <v>462</v>
       </c>
       <c r="D153" s="18" t="str">
         <v/>
@@ -19008,18 +19474,21 @@
         <v>28.732635763306298</v>
       </c>
       <c r="AG153" s="20" t="s">
+        <v>462</v>
+      </c>
+      <c r="AH153" s="20" t="s">
         <v>463</v>
       </c>
-      <c r="AH153" s="20" t="s">
+      <c r="AI153" s="20" t="s">
         <v>464</v>
       </c>
-      <c r="AI153" s="20" t="s">
+      <c r="AJ153" s="20" t="s">
         <v>465</v>
       </c>
-      <c r="AJ153" s="20" t="s">
+      <c r="AK153" s="20" t="s">
         <v>466</v>
       </c>
-      <c r="AK153" s="20" t="s">
+      <c r="AL153" s="20" t="s">
         <v>467</v>
       </c>
     </row>
@@ -19133,6 +19602,9 @@
       <c r="AK154" s="22">
         <v>5.1839973457933599</v>
       </c>
+      <c r="AL154" s="22">
+        <v>4.9791803870748401</v>
+      </c>
     </row>
     <row r="155" ht="14.250000" customHeight="1">
       <c r="A155" s="1"/>
@@ -19244,6 +19716,9 @@
       <c r="AK155" s="20">
         <v>816.85838439890097</v>
       </c>
+      <c r="AL155" s="20">
+        <v>838.516922862412</v>
+      </c>
     </row>
     <row r="156" ht="14.250000" customHeight="1">
       <c r="A156" s="1"/>
@@ -19355,6 +19830,9 @@
       <c r="AK156" s="22">
         <v>145.84589012690401</v>
       </c>
+      <c r="AL156" s="22">
+        <v>149.061789636931</v>
+      </c>
     </row>
     <row r="157" ht="14.250000" customHeight="1">
       <c r="A157" s="1"/>
@@ -19466,6 +19944,9 @@
       <c r="AK157" s="20">
         <v>19.7350726534068</v>
       </c>
+      <c r="AL157" s="20">
+        <v>18.501296150942899</v>
+      </c>
     </row>
     <row r="158" ht="14.250000" customHeight="1">
       <c r="A158" s="1"/>
@@ -19577,6 +20058,9 @@
       <c r="AK158" s="22">
         <v>16435.594016975901</v>
       </c>
+      <c r="AL158" s="22">
+        <v>17464.5084022009</v>
+      </c>
     </row>
     <row r="159" ht="14.250000" customHeight="1">
       <c r="A159" s="1"/>
@@ -19688,6 +20172,9 @@
       <c r="AK159" s="20">
         <v>1.87093920207913</v>
       </c>
+      <c r="AL159" s="20">
+        <v>1.8480062033948701</v>
+      </c>
     </row>
     <row r="160" ht="24.000000" customHeight="1">
       <c r="A160" s="1"/>
@@ -19799,6 +20286,9 @@
       <c r="AK160" s="22">
         <v>2.4744947330586999</v>
       </c>
+      <c r="AL160" s="22">
+        <v>2.3767287714303902</v>
+      </c>
     </row>
     <row r="161" ht="14.250000" customHeight="1">
       <c r="A161" s="1"/>
@@ -19910,14 +20400,17 @@
       <c r="AK161" s="20">
         <v>11.094697369274201</v>
       </c>
+      <c r="AL161" s="20" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="162" ht="14.250000" customHeight="1">
       <c r="A162" s="1"/>
       <c r="B162" s="16" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C162" s="17" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D162" s="18" t="str">
         <v/>
@@ -19977,58 +20470,61 @@
         <v>34186.747835284703</v>
       </c>
       <c r="W162" s="22" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="X162" s="22" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Y162" s="22" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="Z162" s="22" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AA162" s="22" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AB162" s="22" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AC162" s="22" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AD162" s="22" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AE162" s="22" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AF162" s="22" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AG162" s="22" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AH162" s="22" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AI162" s="22" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AJ162" s="22" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AK162" s="22" t="s">
-        <v>500</v>
+        <v>501</v>
+      </c>
+      <c r="AL162" s="22" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="163" ht="14.250000" customHeight="1">
       <c r="A163" s="1"/>
       <c r="B163" s="16" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C163" s="17" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D163" s="18" t="str">
         <v/>
@@ -20131,15 +20627,18 @@
       </c>
       <c r="AK163" s="20">
         <v>20.1544723912682</v>
+      </c>
+      <c r="AL163" s="20">
+        <v>21.7255590025099</v>
       </c>
     </row>
     <row r="164" ht="14.250000" customHeight="1">
       <c r="A164" s="1"/>
       <c r="B164" s="16" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C164" s="17" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D164" s="18" t="str">
         <v/>
@@ -20240,17 +20739,20 @@
       <c r="AJ164" s="22">
         <v>604.67212414957203</v>
       </c>
-      <c r="AK164" s="22" t="s">
-        <v>505</v>
+      <c r="AK164" s="22">
+        <v>593.52650059443204</v>
+      </c>
+      <c r="AL164" s="22">
+        <v>663.45806069554499</v>
       </c>
     </row>
     <row r="165" ht="14.250000" customHeight="1">
       <c r="A165" s="1"/>
       <c r="B165" s="16" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C165" s="17" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D165" s="18" t="str">
         <v/>
@@ -20340,28 +20842,31 @@
         <v>268.47785227166298</v>
       </c>
       <c r="AG165" s="20" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AH165" s="20" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AI165" s="20" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AJ165" s="20" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AK165" s="20" t="s">
-        <v>512</v>
+        <v>513</v>
+      </c>
+      <c r="AL165" s="20" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="166" ht="14.250000" customHeight="1">
       <c r="A166" s="1"/>
       <c r="B166" s="16" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C166" s="17" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="D166" s="18" t="str">
         <v/>
@@ -20464,15 +20969,18 @@
       </c>
       <c r="AK166" s="22">
         <v>3.7324780889712201</v>
+      </c>
+      <c r="AL166" s="22">
+        <v>3.58500987869389</v>
       </c>
     </row>
     <row r="167" ht="14.250000" customHeight="1">
       <c r="A167" s="1"/>
       <c r="B167" s="16" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C167" s="17" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="D167" s="18" t="str">
         <v/>
@@ -20575,15 +21083,18 @@
       </c>
       <c r="AK167" s="20">
         <v>3.7324780889712201</v>
+      </c>
+      <c r="AL167" s="20">
+        <v>3.58500987869389</v>
       </c>
     </row>
     <row r="168" ht="14.250000" customHeight="1">
       <c r="A168" s="1"/>
       <c r="B168" s="16" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C168" s="17" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="D168" s="18" t="str">
         <v/>
@@ -20686,15 +21197,18 @@
       </c>
       <c r="AK168" s="22">
         <v>3.7324780889712201</v>
+      </c>
+      <c r="AL168" s="22">
+        <v>3.58500987869389</v>
       </c>
     </row>
     <row r="169" ht="14.250000" customHeight="1">
       <c r="A169" s="1"/>
       <c r="B169" s="16" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C169" s="17" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D169" s="18" t="str">
         <v/>
@@ -20787,25 +21301,28 @@
         <v>539.68676880953205</v>
       </c>
       <c r="AH169" s="20" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="AI169" s="20" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="AJ169" s="20" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="AK169" s="20" t="s">
-        <v>524</v>
+        <v>526</v>
+      </c>
+      <c r="AL169" s="20" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="170" ht="14.250000" customHeight="1">
       <c r="A170" s="1"/>
       <c r="B170" s="16" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C170" s="17" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="D170" s="18" t="str">
         <v/>
@@ -20908,15 +21425,18 @@
       </c>
       <c r="AK170" s="22">
         <v>29.586109651911901</v>
+      </c>
+      <c r="AL170" s="22">
+        <v>30.311922415075099</v>
       </c>
     </row>
     <row r="171" ht="14.250000" customHeight="1">
       <c r="A171" s="1"/>
       <c r="B171" s="16" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C171" s="17" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="D171" s="18" t="str">
         <v/>
@@ -21019,15 +21539,18 @@
       </c>
       <c r="AK171" s="20">
         <v>12.872625729215599</v>
+      </c>
+      <c r="AL171" s="20">
+        <v>13.716247795882801</v>
       </c>
     </row>
     <row r="172" ht="14.250000" customHeight="1">
       <c r="A172" s="1"/>
       <c r="B172" s="16" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="C172" s="17" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="D172" s="18" t="str">
         <v/>
@@ -21130,15 +21653,18 @@
       </c>
       <c r="AK172" s="22">
         <v>1.2787193452957</v>
+      </c>
+      <c r="AL172" s="22">
+        <v>1.26896071891398</v>
       </c>
     </row>
     <row r="173" ht="14.250000" customHeight="1">
       <c r="A173" s="1"/>
       <c r="B173" s="16" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="C173" s="17" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="D173" s="18" t="str">
         <v/>
@@ -21201,55 +21727,58 @@
         <v>609.02699391810199</v>
       </c>
       <c r="X173" s="20" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="Y173" s="20" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="Z173" s="20" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="AA173" s="20" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="AB173" s="20" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="AC173" s="20" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="AD173" s="20" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="AE173" s="20" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="AF173" s="20" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="AG173" s="20" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="AH173" s="20" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="AI173" s="20" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="AJ173" s="20" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="AK173" s="20" t="s">
-        <v>546</v>
+        <v>549</v>
+      </c>
+      <c r="AL173" s="20" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="174" ht="14.250000" customHeight="1">
       <c r="A174" s="1"/>
       <c r="B174" s="16" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="C174" s="17" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="D174" s="18" t="str">
         <v/>
@@ -21352,15 +21881,18 @@
       </c>
       <c r="AK174" s="22">
         <v>39.567032541679303</v>
+      </c>
+      <c r="AL174" s="22">
+        <v>39.469630982983197</v>
       </c>
     </row>
     <row r="175" ht="14.250000" customHeight="1">
       <c r="A175" s="1"/>
       <c r="B175" s="16" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="C175" s="17" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="D175" s="18" t="str">
         <v/>
@@ -21463,15 +21995,18 @@
       </c>
       <c r="AK175" s="20">
         <v>17.915894827061901</v>
+      </c>
+      <c r="AL175" s="20">
+        <v>14.018450850842299</v>
       </c>
     </row>
     <row r="176" ht="14.250000" customHeight="1">
       <c r="A176" s="1"/>
       <c r="B176" s="16" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="C176" s="17" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="D176" s="18" t="str">
         <v/>
@@ -21574,15 +22109,18 @@
       </c>
       <c r="AK176" s="22">
         <v>3177.5199838820399</v>
+      </c>
+      <c r="AL176" s="22">
+        <v>3059.7994240215598</v>
       </c>
     </row>
     <row r="177" ht="14.250000" customHeight="1">
       <c r="A177" s="1"/>
       <c r="B177" s="16" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="C177" s="17" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="D177" s="18" t="str">
         <v/>
@@ -21685,15 +22223,18 @@
       </c>
       <c r="AK177" s="20">
         <v>46.030163952556101</v>
+      </c>
+      <c r="AL177" s="20">
+        <v>46.866701366021502</v>
       </c>
     </row>
     <row r="178" ht="14.250000" customHeight="1">
       <c r="A178" s="1"/>
       <c r="B178" s="16" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="C178" s="17" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="D178" s="18" t="str">
         <v/>
@@ -21796,15 +22337,18 @@
       </c>
       <c r="AK178" s="22">
         <v>1.38239929221156</v>
+      </c>
+      <c r="AL178" s="22">
+        <v>1.3277814365532901</v>
       </c>
     </row>
     <row r="179" ht="14.250000" customHeight="1">
       <c r="A179" s="1"/>
       <c r="B179" s="16" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="C179" s="17" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="D179" s="18" t="str">
         <v/>
@@ -21907,15 +22451,18 @@
       </c>
       <c r="AK179" s="20">
         <v>816.85838439890097</v>
+      </c>
+      <c r="AL179" s="20">
+        <v>838.516922862412</v>
       </c>
     </row>
     <row r="180" ht="14.250000" customHeight="1">
       <c r="A180" s="1"/>
       <c r="B180" s="16" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="C180" s="17" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="D180" s="18" t="str">
         <v/>
@@ -22018,15 +22565,18 @@
       </c>
       <c r="AK180" s="22">
         <v>3.1079120778137601</v>
+      </c>
+      <c r="AL180" s="22" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="181" ht="14.250000" customHeight="1">
       <c r="A181" s="1"/>
       <c r="B181" s="16" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="C181" s="17" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="D181" s="18" t="str">
         <v/>
@@ -22129,15 +22679,18 @@
       </c>
       <c r="AK181" s="20">
         <v>9.3374160192429994</v>
+      </c>
+      <c r="AL181" s="20">
+        <v>8.9666408191880294</v>
       </c>
     </row>
     <row r="182" ht="14.250000" customHeight="1">
       <c r="A182" s="1"/>
       <c r="B182" s="16" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="C182" s="17" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="D182" s="18" t="str">
         <v/>
@@ -22240,15 +22793,18 @@
       </c>
       <c r="AK182" s="22">
         <v>4.09065774558323</v>
+      </c>
+      <c r="AL182" s="22">
+        <v>4.13829640330564</v>
       </c>
     </row>
     <row r="183" ht="14.250000" customHeight="1">
       <c r="A183" s="1"/>
       <c r="B183" s="16" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="C183" s="17" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="D183" s="18" t="str">
         <v/>
@@ -22351,15 +22907,18 @@
       </c>
       <c r="AK183" s="20">
         <v>20.264591224529301</v>
+      </c>
+      <c r="AL183" s="20">
+        <v>22.152771876526899</v>
       </c>
     </row>
     <row r="184" ht="14.250000" customHeight="1">
       <c r="A184" s="1"/>
       <c r="B184" s="16" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="C184" s="17" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="D184" s="18" t="str">
         <v/>
@@ -22462,15 +23021,18 @@
       </c>
       <c r="AK184" s="22">
         <v>4960.2698443418403</v>
+      </c>
+      <c r="AL184" s="22">
+        <v>4988.0101336279204</v>
       </c>
     </row>
     <row r="185" ht="14.250000" customHeight="1">
       <c r="A185" s="1"/>
       <c r="B185" s="16" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="C185" s="17" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="D185" s="18" t="str">
         <v/>
@@ -22573,15 +23135,18 @@
       </c>
       <c r="AK185" s="20">
         <v>40.441953053719999</v>
+      </c>
+      <c r="AL185" s="20">
+        <v>38.844113148222903</v>
       </c>
     </row>
     <row r="186" ht="14.250000" customHeight="1">
       <c r="A186" s="1"/>
       <c r="B186" s="16" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="C186" s="17" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="D186" s="18" t="str">
         <v/>
@@ -22684,15 +23249,18 @@
       </c>
       <c r="AK186" s="22">
         <v>5.0768614006469601</v>
+      </c>
+      <c r="AL186" s="22">
+        <v>4.8762773257419596</v>
       </c>
     </row>
     <row r="187" ht="14.250000" customHeight="1">
       <c r="A187" s="1"/>
       <c r="B187" s="16" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="C187" s="17" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="D187" s="18" t="str">
         <v/>
@@ -22795,15 +23363,18 @@
       </c>
       <c r="AK187" s="20">
         <v>1.05321648105715</v>
+      </c>
+      <c r="AL187" s="20">
+        <v>1.09652443352324</v>
       </c>
     </row>
     <row r="188" ht="14.250000" customHeight="1">
       <c r="A188" s="1"/>
       <c r="B188" s="16" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="C188" s="17" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="D188" s="18" t="str">
         <v/>
@@ -22906,15 +23477,18 @@
       </c>
       <c r="AK188" s="22">
         <v>1.38239929221156</v>
+      </c>
+      <c r="AL188" s="22">
+        <v>1.3277814365532901</v>
       </c>
     </row>
     <row r="189" ht="14.250000" customHeight="1">
       <c r="A189" s="1"/>
       <c r="B189" s="16" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="C189" s="17" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="D189" s="18" t="str">
         <v/>
@@ -23017,15 +23591,18 @@
       </c>
       <c r="AK189" s="20">
         <v>56.837346899278401</v>
+      </c>
+      <c r="AL189" s="20">
+        <v>52.929351405323899</v>
       </c>
     </row>
     <row r="190" ht="14.250000" customHeight="1">
       <c r="A190" s="1"/>
       <c r="B190" s="16" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="C190" s="17" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="D190" s="18" t="str">
         <v/>
@@ -23128,15 +23705,18 @@
       </c>
       <c r="AK190" s="22">
         <v>15759.6422350632</v>
+      </c>
+      <c r="AL190" s="22">
+        <v>14420.038346327899</v>
       </c>
     </row>
     <row r="191" ht="14.250000" customHeight="1">
       <c r="A191" s="1"/>
       <c r="B191" s="16" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="C191" s="17" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="D191" s="18" t="str">
         <v/>
@@ -23239,15 +23819,18 @@
       </c>
       <c r="AK191" s="20">
         <v>152.50628991677999</v>
+      </c>
+      <c r="AL191" s="20" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="192" ht="14.250000" customHeight="1">
       <c r="A192" s="1"/>
       <c r="B192" s="16" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="C192" s="17" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="D192" s="18" t="str">
         <v/>
@@ -23307,58 +23890,61 @@
         <v>134693.395297546</v>
       </c>
       <c r="W192" s="22" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="X192" s="22" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="Y192" s="22" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="Z192" s="22" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="AA192" s="22" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="AB192" s="22" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="AC192" s="22" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="AD192" s="22" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="AE192" s="22" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="AF192" s="22" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="AG192" s="22" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="AH192" s="22" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="AI192" s="22" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="AJ192" s="22" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="AK192" s="22" t="s">
-        <v>599</v>
+        <v>605</v>
+      </c>
+      <c r="AL192" s="22" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="193" ht="14.250000" customHeight="1">
       <c r="A193" s="1"/>
       <c r="B193" s="16" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="C193" s="17" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="D193" s="18" t="str">
         <v/>
@@ -23461,15 +24047,18 @@
       </c>
       <c r="AK193" s="20">
         <v>31933.423650087101</v>
+      </c>
+      <c r="AL193" s="20">
+        <v>30685.028998746599</v>
       </c>
     </row>
     <row r="194" ht="14.250000" customHeight="1">
       <c r="A194" s="1"/>
       <c r="B194" s="16" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="C194" s="17" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="D194" s="18" t="str">
         <v/>
@@ -23572,15 +24161,18 @@
       </c>
       <c r="AK194" s="22">
         <v>1686.5271364981099</v>
+      </c>
+      <c r="AL194" s="22">
+        <v>1499.06524186867</v>
       </c>
     </row>
     <row r="195" ht="14.250000" customHeight="1">
       <c r="A195" s="1"/>
       <c r="B195" s="16" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="C195" s="17" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="D195" s="18" t="str">
         <v/>
@@ -23683,78 +24275,81 @@
       </c>
       <c r="AK195" s="20">
         <v>25.010238394757899</v>
+      </c>
+      <c r="AL195" s="20">
+        <v>22.351540757578999</v>
       </c>
     </row>
     <row r="196" ht="14.250000" customHeight="1">
       <c r="A196" s="1"/>
       <c r="B196" s="16" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="C196" s="17" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="D196" s="18" t="str">
         <v/>
       </c>
       <c r="E196" s="21" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="F196" s="22" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="G196" s="22" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="H196" s="22" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="I196" s="22" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="J196" s="22" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="K196" s="22" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="L196" s="22" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="M196" s="22" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="N196" s="22" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="O196" s="22" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="P196" s="22" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="Q196" s="22" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="R196" s="22" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="S196" s="22" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="T196" s="22" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="U196" s="22" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="V196" s="22" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="W196" s="22" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="X196" s="22" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
       <c r="Y196" s="22">
         <v>4.1814110457553504</v>
@@ -23794,15 +24389,18 @@
       </c>
       <c r="AK196" s="22">
         <v>196.88642207415199</v>
+      </c>
+      <c r="AL196" s="22">
+        <v>492.55990949841703</v>
       </c>
     </row>
     <row r="197" ht="24.000000" customHeight="1">
       <c r="A197" s="1"/>
       <c r="B197" s="16" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="C197" s="17" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="D197" s="18" t="str">
         <v/>
@@ -23905,15 +24503,18 @@
       </c>
       <c r="AK197" s="20">
         <v>816.85838439890097</v>
+      </c>
+      <c r="AL197" s="20">
+        <v>838.516922862412</v>
       </c>
     </row>
     <row r="198" ht="24.000000" customHeight="1">
       <c r="A198" s="1"/>
       <c r="B198" s="16" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="C198" s="17" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="D198" s="18" t="str">
         <v/>
@@ -24016,15 +24617,18 @@
       </c>
       <c r="AK198" s="22">
         <v>3.7324780889712201</v>
+      </c>
+      <c r="AL198" s="22">
+        <v>3.58500987869389</v>
       </c>
     </row>
     <row r="199" ht="24.000000" customHeight="1">
       <c r="A199" s="1"/>
       <c r="B199" s="23" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="C199" s="24" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
       <c r="D199" s="25" t="str">
         <v/>
@@ -24127,6 +24731,9 @@
       </c>
       <c r="AK199" s="20">
         <v>816.85838439890097</v>
+      </c>
+      <c r="AL199" s="20">
+        <v>838.516922862412</v>
       </c>
     </row>
   </sheetData>
